--- a/SALT/FLiNaK.xlsx
+++ b/SALT/FLiNaK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4A8E94-3484-E147-BEE3-44887A422308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A3F19D-1416-B341-AF97-0F48B1CFE4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="3000" windowWidth="21480" windowHeight="16940" activeTab="6" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
+    <workbookView xWindow="740" yWindow="3000" windowWidth="21480" windowHeight="16940" activeTab="5" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="LiF" sheetId="6" r:id="rId6"/>
     <sheet name="NaF" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -728,7 +728,7 @@
         <v>49</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D15:D16" si="3">G16*2</f>
+        <f t="shared" ref="D16" si="3">G16*2</f>
         <v>98</v>
       </c>
       <c r="G16">
@@ -1281,7 +1281,7 @@
         <v>1.02</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F22" si="1">$F$10*B16</f>
+        <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
         <v>17.085000000000001</v>
       </c>
       <c r="G16">
@@ -1603,7 +1603,7 @@
         <v>1.02</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F22" si="1">$F$10*B16</f>
+        <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
         <v>17.085000000000001</v>
       </c>
       <c r="G16">
@@ -1925,7 +1925,7 @@
         <v>1.02</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F22" si="1">$F$10*B16</f>
+        <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
         <v>17.085000000000001</v>
       </c>
       <c r="G16">
@@ -2247,7 +2247,7 @@
         <v>1.02</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F22" si="1">$F$10*B16</f>
+        <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
         <v>16.727999999999998</v>
       </c>
       <c r="G16">
@@ -2389,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93737921-4FC8-6E4E-AE09-E754D42F2BB1}">
-  <dimension ref="B2:M22"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2479,7 +2479,7 @@
         <v>22</v>
       </c>
       <c r="F10">
-        <v>16.75</v>
+        <v>13.5</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -2549,71 +2549,56 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="F15">
         <f>$F$10*B15</f>
-        <v>16.75</v>
+        <v>12.42</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G22" si="0">F15^3</f>
-        <v>4699.421875</v>
+        <v>1915.8644879999997</v>
       </c>
       <c r="H15">
         <f>$B$8/G15/(1E-24)</f>
-        <v>0.91841084175912613</v>
+        <v>2.2527689338328614</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F22" si="1">$F$10*B16</f>
-        <v>17.085000000000001</v>
+        <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
+        <v>12.959999999999999</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>4987.0640891250014</v>
+        <v>2176.7823359999993</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H22" si="2">$B$8/G16/(1E-24)</f>
-        <v>0.86543904847977571</v>
+        <v>1.9827430279184339</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>17.252500000000001</v>
+        <v>13.5</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>5135.1851672031253</v>
+        <v>2460.375</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.84047602169537861</v>
+        <v>1.754204135548443</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>1.04</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>17.420000000000002</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>5286.2104880000024</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>0.81646389408775244</v>
-      </c>
       <c r="I18">
         <v>5524.7641893142254</v>
       </c>
@@ -2630,78 +2615,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>1.05</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>17.587500000000002</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>5440.1682480468771</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>0.79335781601047461</v>
-      </c>
-    </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>1.06</v>
-      </c>
-      <c r="F20">
-        <f>$F$10*B20</f>
-        <v>17.755000000000003</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>5597.0866438750027</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>0.77111545248688984</v>
-      </c>
       <c r="K20" t="s">
         <v>3</v>
       </c>
       <c r="L20">
         <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>1.07</v>
-      </c>
-      <c r="F21">
-        <f>$F$10*B21</f>
-        <v>17.922499999999999</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>5756.9938720156242</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>0.74969682024151485</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F22">
-        <f>$F$10*B22</f>
-        <v>18.425000000000001</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>6254.9305156250011</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
-        <v>0.69001565872210802</v>
       </c>
     </row>
   </sheetData>
@@ -2713,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B548C73-2FA5-B24C-AF9E-AD3666FD99E2}">
   <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2891,7 +2810,7 @@
         <v>1.02</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F22" si="1">$F$10*B16</f>
+        <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
         <v>17.085000000000001</v>
       </c>
       <c r="G16">

--- a/SALT/FLiNaK.xlsx
+++ b/SALT/FLiNaK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A3F19D-1416-B341-AF97-0F48B1CFE4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2E3DF9-54CA-4C49-B169-6B1267F34184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="3000" windowWidth="21480" windowHeight="16940" activeTab="5" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
+    <workbookView xWindow="740" yWindow="3000" windowWidth="21480" windowHeight="16940" activeTab="3" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="33">
   <si>
     <t>#atoms</t>
   </si>
@@ -1104,7 +1104,7 @@
   <dimension ref="B2:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1260,71 +1260,59 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>1</v>
-      </c>
       <c r="F15">
         <f>$F$10*B15</f>
-        <v>16.75</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G22" si="0">F15^3</f>
-        <v>4699.421875</v>
-      </c>
-      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="e">
         <f>$B$8/G15/(1E-24)</f>
-        <v>1.8226922859527273</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>1.02</v>
-      </c>
       <c r="F16">
         <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
-        <v>17.085000000000001</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>4987.0640891250014</v>
-      </c>
-      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="e">
         <f t="shared" ref="H16:H22" si="2">$B$8/G16/(1E-24)</f>
-        <v>1.7175636500598628</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>1.03</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>17.252500000000001</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>5135.1851672031253</v>
-      </c>
-      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="e">
         <f t="shared" si="2"/>
-        <v>1.6680216430569823</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>1.04</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>17.420000000000002</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>5286.2104880000024</v>
-      </c>
-      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="e">
         <f t="shared" si="2"/>
-        <v>1.6203668051895397</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I18">
         <v>5524.7641893142254</v>
@@ -1342,38 +1330,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>1.05</v>
-      </c>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>17.587500000000002</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>5440.1682480468771</v>
-      </c>
-      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="e">
         <f t="shared" si="2"/>
-        <v>1.5745101271592497</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>1.06</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F20">
         <f>$F$10*B20</f>
-        <v>17.755000000000003</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>5597.0866438750027</v>
-      </c>
-      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="e">
         <f t="shared" si="2"/>
-        <v>1.5303675903201353</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K20" t="s">
         <v>3</v>
@@ -1382,38 +1364,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>1.07</v>
-      </c>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F21">
         <f>$F$10*B21</f>
-        <v>17.922499999999999</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>5756.9938720156242</v>
-      </c>
-      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="e">
         <f t="shared" si="2"/>
-        <v>1.487859843248545</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F22">
         <f>$F$10*B22</f>
-        <v>18.425000000000001</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>6254.9305156250011</v>
-      </c>
-      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="e">
         <f t="shared" si="2"/>
-        <v>1.3694156919254146</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -1747,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350EA8ED-C68E-1740-8FFB-D44F1BF7B044}">
   <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1904,71 +1880,59 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>1</v>
-      </c>
       <c r="F15">
         <f>$F$10*B15</f>
-        <v>16.75</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G22" si="0">F15^3</f>
-        <v>4699.421875</v>
-      </c>
-      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="e">
         <f>$B$8/G15/(1E-24)</f>
-        <v>1.1388294437813162</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>1.02</v>
-      </c>
       <c r="F16">
         <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
-        <v>17.085000000000001</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>4987.0640891250014</v>
-      </c>
-      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="e">
         <f t="shared" ref="H16:H22" si="2">$B$8/G16/(1E-24)</f>
-        <v>1.0731444201149216</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>1.03</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>17.252500000000001</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>5135.1851672031253</v>
-      </c>
-      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="e">
         <f t="shared" si="2"/>
-        <v>1.0421902669022693</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>1.04</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>17.420000000000002</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>5286.2104880000024</v>
-      </c>
-      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="e">
         <f t="shared" si="2"/>
-        <v>1.0124152286688131</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I18">
         <v>5524.7641893142254</v>
@@ -1986,38 +1950,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>1.05</v>
-      </c>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>17.587500000000002</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>5440.1682480468771</v>
-      </c>
-      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="e">
         <f t="shared" si="2"/>
-        <v>0.9837636918529884</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>1.06</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F20">
         <f>$F$10*B20</f>
-        <v>17.755000000000003</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>5597.0866438750027</v>
-      </c>
-      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="e">
         <f t="shared" si="2"/>
-        <v>0.95618316108374335</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K20" t="s">
         <v>3</v>
@@ -2026,38 +1984,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>1.07</v>
-      </c>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F21">
         <f>$F$10*B21</f>
-        <v>17.922499999999999</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>5756.9938720156242</v>
-      </c>
-      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="e">
         <f t="shared" si="2"/>
-        <v>0.9296240570994786</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F22">
         <f>$F$10*B22</f>
-        <v>18.425000000000001</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>6254.9305156250011</v>
-      </c>
-      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="e">
         <f t="shared" si="2"/>
-        <v>0.85561941681541398</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -2070,7 +2022,7 @@
   <dimension ref="B2:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2244,53 +2196,47 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="F16">
         <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
-        <v>16.727999999999998</v>
+        <v>17.055999999999997</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>4680.9290603519985</v>
+        <v>4961.7121116159979</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H22" si="2">$B$8/G16/(1E-24)</f>
-        <v>2.0568566359080842</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>1.03</v>
-      </c>
+        <v>1.9404592171842521</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>16.891999999999999</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>4819.9576042879989</v>
-      </c>
-      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="e">
         <f t="shared" si="2"/>
-        <v>1.997527943282033</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>1.04</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>17.055999999999997</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>4961.7121116159979</v>
-      </c>
-      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="e">
         <f t="shared" si="2"/>
-        <v>1.9404592171842521</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I18">
         <v>5524.7641893142254</v>
@@ -2308,38 +2254,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>1.05</v>
-      </c>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>17.22</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>5106.219047999999</v>
-      </c>
-      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="e">
         <f t="shared" si="2"/>
-        <v>1.8855438651365908</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>1.06</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F20">
         <f>$F$10*B20</f>
-        <v>17.384</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>5253.5048791040008</v>
-      </c>
-      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="e">
         <f t="shared" si="2"/>
-        <v>1.8326812711825409</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K20" t="s">
         <v>3</v>
@@ -2348,38 +2288,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>1.07</v>
-      </c>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F21">
         <f>$F$10*B21</f>
-        <v>17.547999999999998</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>5403.5960705919979</v>
-      </c>
-      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="e">
         <f t="shared" si="2"/>
-        <v>1.7817764085658596</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F22">
         <f>$F$10*B22</f>
-        <v>18.04</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>5870.9664639999992</v>
-      </c>
-      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="e">
         <f t="shared" si="2"/>
-        <v>1.6399344228991328</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -2389,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93737921-4FC8-6E4E-AE09-E754D42F2BB1}">
-  <dimension ref="B2:M20"/>
+  <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2504,7 +2438,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>1300</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -2551,12 +2485,21 @@
       <c r="B15">
         <v>0.92</v>
       </c>
+      <c r="C15">
+        <v>-705.24362527999995</v>
+      </c>
+      <c r="D15">
+        <v>28.197187777777799</v>
+      </c>
+      <c r="E15">
+        <v>65.867931111111105</v>
+      </c>
       <c r="F15">
         <f>$F$10*B15</f>
         <v>12.42</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G22" si="0">F15^3</f>
+        <f t="shared" ref="G15:G17" si="0">F15^3</f>
         <v>1915.8644879999997</v>
       </c>
       <c r="H15">
@@ -2568,8 +2511,17 @@
       <c r="B16">
         <v>0.96</v>
       </c>
+      <c r="C16">
+        <v>-704.40935585333295</v>
+      </c>
+      <c r="D16">
+        <v>27.930180666666601</v>
+      </c>
+      <c r="E16">
+        <v>23.292300000000001</v>
+      </c>
       <c r="F16">
-        <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
+        <f t="shared" ref="F16:F17" si="1">$F$10*B16</f>
         <v>12.959999999999999</v>
       </c>
       <c r="G16">
@@ -2577,49 +2529,296 @@
         <v>2176.7823359999993</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H22" si="2">$B$8/G16/(1E-24)</f>
+        <f t="shared" ref="H16:H17" si="2">$B$8/G16/(1E-24)</f>
         <v>1.9827430279184339</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>2460.375</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>1.754204135548443</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I18">
-        <v>5524.7641893142254</v>
+      <c r="B18">
+        <v>0.99</v>
       </c>
       <c r="J18">
         <f>I18^(1/3)</f>
-        <v>17.678194806102677</v>
+        <v>0</v>
       </c>
       <c r="K18" t="e">
-        <f>$L$5/(I18*(10^-24))</f>
-        <v>#VALUE!</v>
+        <f>$B$8/(I18*(10^-24))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M18">
         <f>L18/L20</f>
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>-699.59121627111097</v>
+      </c>
+      <c r="D19">
+        <v>28.620897111111098</v>
+      </c>
+      <c r="E19">
+        <v>0.68576888888888998</v>
+      </c>
+      <c r="F19">
+        <f>$F$10*B19</f>
+        <v>13.5</v>
+      </c>
+      <c r="G19">
+        <f>F19^3</f>
+        <v>2460.375</v>
+      </c>
+      <c r="H19">
+        <f>$B$8/G19/(1E-24)</f>
+        <v>1.754204135548443</v>
+      </c>
+    </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1.01</v>
+      </c>
       <c r="K20" t="s">
         <v>3</v>
       </c>
       <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f>$F$10*B26</f>
+        <v>13.5</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G28" si="3">F26^3</f>
+        <v>2460.375</v>
+      </c>
+      <c r="H26">
+        <f>$B$8/G26/(1E-24)</f>
+        <v>1.754204135548443</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1.04</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F28" si="4">$F$10*B27</f>
+        <v>14.040000000000001</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>2767.5872640000007</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H28" si="5">$B$8/G27/(1E-24)</f>
+        <v>1.5594810888680253</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <f>I29^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" t="e">
+        <f>$B$8/(I29*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29">
+        <f>L29/L31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f>$F$10*B36</f>
+        <v>13.5</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G38" si="6">F36^3</f>
+        <v>2460.375</v>
+      </c>
+      <c r="H36">
+        <f>$B$8/G36/(1E-24)</f>
+        <v>1.754204135548443</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1.04</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37:F38" si="7">$F$10*B37</f>
+        <v>14.040000000000001</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>2767.5872640000007</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37:H38" si="8">$B$8/G37/(1E-24)</f>
+        <v>1.5594810888680253</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <f>I39^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" t="e">
+        <f>$B$8/(I39*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39">
+        <f>L39/L41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41">
         <v>100</v>
       </c>
     </row>
@@ -2633,7 +2832,7 @@
   <dimension ref="B2:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2807,53 +3006,47 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="F16">
         <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
-        <v>17.085000000000001</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>4987.0640891250014</v>
+        <v>5286.2104880000024</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H22" si="2">$B$8/G16/(1E-24)</f>
-        <v>1.3980169244673299</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>1.03</v>
-      </c>
+        <v>1.3189032135263694</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>17.252500000000001</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>5135.1851672031253</v>
-      </c>
-      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="e">
         <f t="shared" si="2"/>
-        <v>1.3576920350463808</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>1.04</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>17.420000000000002</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>5286.2104880000024</v>
-      </c>
-      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="e">
         <f t="shared" si="2"/>
-        <v>1.3189032135263694</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I18">
         <v>5524.7641893142254</v>
@@ -2871,38 +3064,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>1.05</v>
-      </c>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>17.587500000000002</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>5440.1682480468771</v>
-      </c>
-      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="e">
         <f t="shared" si="2"/>
-        <v>1.2815780104784591</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>1.06</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F20">
         <f>$F$10*B20</f>
-        <v>17.755000000000003</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>5597.0866438750027</v>
-      </c>
-      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="e">
         <f t="shared" si="2"/>
-        <v>1.2456480386326683</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K20" t="s">
         <v>3</v>
@@ -2911,38 +3098,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>1.07</v>
-      </c>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F21">
         <f>$F$10*B21</f>
-        <v>17.922499999999999</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>5756.9938720156242</v>
-      </c>
-      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="e">
         <f t="shared" si="2"/>
-        <v>1.2110487096209088</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F22">
         <f>$F$10*B22</f>
-        <v>18.425000000000001</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>6254.9305156250011</v>
-      </c>
-      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="e">
         <f t="shared" si="2"/>
-        <v>1.1146406794741748</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/SALT/FLiNaK.xlsx
+++ b/SALT/FLiNaK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2E3DF9-54CA-4C49-B169-6B1267F34184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737A1F3E-7907-804E-8D46-D2D7B5EA5ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="3000" windowWidth="21480" windowHeight="16940" activeTab="3" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
+    <workbookView xWindow="740" yWindow="3000" windowWidth="21480" windowHeight="16940" activeTab="1" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="33">
   <si>
     <t>#atoms</t>
   </si>
@@ -513,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9421297F-EE29-D84C-B613-95A487D5F335}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -999,7 +999,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D35">
-        <f>SUM(D32:D33)</f>
+        <f>SUM(D32:D34)</f>
         <v>200</v>
       </c>
       <c r="G35">
@@ -1086,12 +1086,99 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D41">
-        <f>SUM(D38:D39)</f>
-        <v>0</v>
+        <f>SUM(D38:D40)</f>
+        <v>200</v>
       </c>
       <c r="G41">
         <f>SUM(G38:G40)</f>
         <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <f>G44*2</f>
+        <v>46</v>
+      </c>
+      <c r="F44">
+        <f>G44*E$2+G45*E$3+G46*$E$4</f>
+        <v>2068</v>
+      </c>
+      <c r="G44">
+        <f>C44</f>
+        <v>23</v>
+      </c>
+      <c r="H44">
+        <f>F44/G47</f>
+        <v>41.36</v>
+      </c>
+      <c r="I44">
+        <f>F44*(1.66E-24)</f>
+        <v>3.43288E-21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:D46" si="12">G45*2</f>
+        <v>12</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45:G46" si="13">C45</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <f>SUM(D44:D46)</f>
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <f>SUM(G44:G46)</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1101,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C7C49-F970-6D42-8577-7333C5E83B75}">
-  <dimension ref="B2:M22"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1191,7 +1278,7 @@
         <v>22</v>
       </c>
       <c r="F10">
-        <v>16.75</v>
+        <v>16.2</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -1302,18 +1389,6 @@
       </c>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="I18">
         <v>5524.7641893142254</v>
       </c>
@@ -1330,66 +1405,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F20">
-        <f>$F$10*B20</f>
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="K20" t="s">
         <v>3</v>
       </c>
       <c r="L20">
         <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F21">
-        <f>$F$10*B21</f>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F22">
-        <f>$F$10*B22</f>
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -1723,7 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350EA8ED-C68E-1740-8FFB-D44F1BF7B044}">
   <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2019,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54DDCEF-2A04-AC4A-B085-1BC5E6C44A8B}">
-  <dimension ref="B2:M22"/>
+  <dimension ref="B2:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2181,6 +2202,15 @@
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>-432.27106012444398</v>
+      </c>
+      <c r="D15">
+        <v>33.883338444444398</v>
+      </c>
+      <c r="E15">
+        <v>21.5077844444444</v>
+      </c>
       <c r="F15">
         <f>$F$10*B15</f>
         <v>16.399999999999999</v>
@@ -2211,39 +2241,27 @@
         <v>1.9404592171842521</v>
       </c>
     </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1.06</v>
+      </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.384</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" t="e">
+        <v>5253.5048791040008</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18">
-        <v>5524.7641893142254</v>
-      </c>
+        <v>1.8326812711825409</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J18">
         <f>I18^(1/3)</f>
-        <v>17.678194806102677</v>
+        <v>0</v>
       </c>
       <c r="K18" t="e">
         <f>$L$5/(I18*(10^-24))</f>
@@ -2254,33 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F20">
-        <f>$F$10*B20</f>
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
         <v>3</v>
       </c>
@@ -2288,32 +2280,258 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F21">
-        <f>$F$10*B21</f>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F22">
-        <f>$F$10*B22</f>
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>-432.27106012444398</v>
+      </c>
+      <c r="D24">
+        <v>33.883338444444398</v>
+      </c>
+      <c r="E24">
+        <v>21.5077844444444</v>
+      </c>
+      <c r="F24">
+        <f>$F$10*B24</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G29" si="3">F24^3</f>
+        <v>4410.9439999999995</v>
+      </c>
+      <c r="H24">
+        <f>$B$8/G24/(1E-24)</f>
+        <v>2.1827527168787459</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1.04</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F28" si="4">$F$10*B25</f>
+        <v>17.055999999999997</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>4961.7121116159979</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H29" si="5">$B$8/G25/(1E-24)</f>
+        <v>1.9404592171842521</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1.06</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>17.384</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>5253.5048791040008</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>1.8326812711825409</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <f>I27^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" t="e">
+        <f>$L$5/(I27*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M27">
+        <f>L27/L29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>-432.27106012444398</v>
+      </c>
+      <c r="D33">
+        <v>33.883338444444398</v>
+      </c>
+      <c r="E33">
+        <v>21.5077844444444</v>
+      </c>
+      <c r="F33">
+        <f>$F$10*B33</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G38" si="6">F33^3</f>
+        <v>4410.9439999999995</v>
+      </c>
+      <c r="H33">
+        <f>$B$8/G33/(1E-24)</f>
+        <v>2.1827527168787459</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1.04</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F37" si="7">$F$10*B34</f>
+        <v>17.055999999999997</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>4961.7121116159979</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H38" si="8">$B$8/G34/(1E-24)</f>
+        <v>1.9404592171842521</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1.06</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="7"/>
+        <v>17.384</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>5253.5048791040008</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="8"/>
+        <v>1.8326812711825409</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <f>I36^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" t="e">
+        <f>$L$5/(I36*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M36">
+        <f>L36/L38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2323,10 +2541,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93737921-4FC8-6E4E-AE09-E754D42F2BB1}">
-  <dimension ref="B2:M41"/>
+  <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2369,7 +2587,7 @@
         <v>19</v>
       </c>
       <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E15:E20,G15:G20^{1,2})</f>
+        <f t="array" ref="J6">LINEST(E36:E43,G36:G43^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2419,7 +2637,7 @@
         <v>19</v>
       </c>
       <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E15:E20,C15:C20^{1,2})</f>
+        <f t="array" ref="J10">LINEST(E36:E43,C36:C43^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2438,7 +2656,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>1100</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -2483,112 +2701,99 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>0.92</v>
-      </c>
-      <c r="C15">
-        <v>-705.24362527999995</v>
-      </c>
-      <c r="D15">
-        <v>28.197187777777799</v>
-      </c>
-      <c r="E15">
-        <v>65.867931111111105</v>
-      </c>
-      <c r="F15">
-        <f>$F$10*B15</f>
-        <v>12.42</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ref="G15:G17" si="0">F15^3</f>
-        <v>1915.8644879999997</v>
-      </c>
-      <c r="H15">
-        <f>$B$8/G15/(1E-24)</f>
-        <v>2.2527689338328614</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>-704.40935585333295</v>
+        <v>694.08717864666596</v>
       </c>
       <c r="D16">
-        <v>27.930180666666601</v>
+        <v>33.302865111111103</v>
       </c>
       <c r="E16">
-        <v>23.292300000000001</v>
+        <v>5.7049977777777796</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F17" si="1">$F$10*B16</f>
-        <v>12.959999999999999</v>
+        <f>$F$10*B16</f>
+        <v>13.5</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>2176.7823359999993</v>
+        <f t="shared" ref="G16:G19" si="0">F16^3</f>
+        <v>2460.375</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H17" si="2">$B$8/G16/(1E-24)</f>
-        <v>1.9827430279184339</v>
+        <f>$B$8/G16/(1E-24)</f>
+        <v>1.754204135548443</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>0.99</v>
-      </c>
-      <c r="J18">
-        <f>I18^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" t="e">
-        <f>$B$8/(I18*(10^-24))</f>
+        <v>1.04</v>
+      </c>
+      <c r="C18">
+        <v>-688.667408139999</v>
+      </c>
+      <c r="D18">
+        <v>33.481077555555501</v>
+      </c>
+      <c r="E18">
+        <v>-6.5132377777777704</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F19" si="1">$F$10*B18</f>
+        <v>14.040000000000001</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>2767.5872640000007</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H19" si="2">$B$8/G18/(1E-24)</f>
+        <v>1.5594810888680253</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18">
-        <f>L18/L20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>-699.59121627111097</v>
-      </c>
-      <c r="D19">
-        <v>28.620897111111098</v>
-      </c>
-      <c r="E19">
-        <v>0.68576888888888998</v>
-      </c>
-      <c r="F19">
-        <f>$F$10*B19</f>
-        <v>13.5</v>
-      </c>
-      <c r="G19">
-        <f>F19^3</f>
-        <v>2460.375</v>
-      </c>
-      <c r="H19">
-        <f>$B$8/G19/(1E-24)</f>
-        <v>1.754204135548443</v>
-      </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>1.01</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J20">
+        <f>I20^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" t="e">
+        <f>$B$8/(I20*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20">
+        <f>L20/L22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
         <v>3</v>
       </c>
-      <c r="L20">
+      <c r="L22">
         <v>100</v>
       </c>
     </row>
@@ -2639,77 +2844,130 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F26">
-        <f>$F$10*B26</f>
-        <v>13.5</v>
+        <f t="shared" ref="F26:F27" si="3">$F$10*B26</f>
+        <v>13.23</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:G28" si="3">F26^3</f>
-        <v>2460.375</v>
+        <f t="shared" ref="G26:G27" si="4">F26^3</f>
+        <v>2315.6852670000003</v>
       </c>
       <c r="H26">
-        <f>$B$8/G26/(1E-24)</f>
-        <v>1.754204135548443</v>
+        <f t="shared" ref="H26:H27" si="5">$B$8/G26/(1E-24)</f>
+        <v>1.8638111411363918</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27">
+        <v>0.99</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>13.365</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>2387.2994021250001</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>1.8079005910017869</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>-696.99797902</v>
+      </c>
+      <c r="D28">
+        <v>31.145280444444399</v>
+      </c>
+      <c r="E28">
+        <v>2.74336</v>
+      </c>
+      <c r="F28">
+        <f>$F$10*B28</f>
+        <v>13.5</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28" si="6">F28^3</f>
+        <v>2460.375</v>
+      </c>
+      <c r="H28">
+        <f>$B$8/G28/(1E-24)</f>
+        <v>1.754204135548443</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1.01</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F30" si="7">$F$10*B29</f>
+        <v>13.635</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G30" si="8">F29^3</f>
+        <v>2534.9268228749997</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H30" si="9">$B$8/G29/(1E-24)</f>
+        <v>1.7026132514172492</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
         <v>1.04</v>
       </c>
-      <c r="F27">
-        <f t="shared" ref="F27:F28" si="4">$F$10*B27</f>
+      <c r="C30">
+        <v>-691.47853550000104</v>
+      </c>
+      <c r="D30">
+        <v>30.923824</v>
+      </c>
+      <c r="E30">
+        <v>-8.7507800000000007</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="7"/>
         <v>14.040000000000001</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
+      <c r="G30">
+        <f t="shared" si="8"/>
         <v>2767.5872640000007</v>
       </c>
-      <c r="H27">
-        <f t="shared" ref="H27:H28" si="5">$B$8/G27/(1E-24)</f>
+      <c r="H30">
+        <f t="shared" si="9"/>
         <v>1.5594810888680253</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H28" t="e">
-        <f t="shared" si="5"/>
+      <c r="J30">
+        <f>I30^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" t="e">
+        <f>$B$8/(I30*(10^-24))</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J29">
-        <f>I29^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" t="e">
-        <f>$B$8/(I29*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29">
-        <f>L29/L31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K31" t="s">
+      <c r="M30">
+        <f>L30/L32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
         <v>3</v>
       </c>
-      <c r="L31">
+      <c r="L32">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33">
-        <v>1300</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
@@ -2754,53 +3012,107 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>1</v>
+        <v>0.92</v>
+      </c>
+      <c r="C36">
+        <v>-705.24362527999995</v>
+      </c>
+      <c r="D36">
+        <v>28.197187777777799</v>
+      </c>
+      <c r="E36">
+        <v>65.867931111111105</v>
       </c>
       <c r="F36">
         <f>$F$10*B36</f>
-        <v>13.5</v>
+        <v>12.42</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:G38" si="6">F36^3</f>
-        <v>2460.375</v>
+        <f t="shared" ref="G36:G37" si="10">F36^3</f>
+        <v>1915.8644879999997</v>
       </c>
       <c r="H36">
         <f>$B$8/G36/(1E-24)</f>
-        <v>1.754204135548443</v>
+        <v>2.2527689338328614</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>1.04</v>
+        <v>0.96</v>
+      </c>
+      <c r="C37">
+        <v>-704.40935585333295</v>
+      </c>
+      <c r="D37">
+        <v>27.930180666666601</v>
+      </c>
+      <c r="E37">
+        <v>23.292300000000001</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37:F38" si="7">$F$10*B37</f>
-        <v>14.040000000000001</v>
+        <f t="shared" ref="F37" si="11">$F$10*B37</f>
+        <v>12.959999999999999</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
-        <v>2767.5872640000007</v>
+        <f t="shared" si="10"/>
+        <v>2176.7823359999993</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:H38" si="8">$B$8/G37/(1E-24)</f>
-        <v>1.5594810888680253</v>
+        <f t="shared" ref="H37" si="12">$B$8/G37/(1E-24)</f>
+        <v>1.9827430279184339</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>0.98</v>
+      </c>
+      <c r="C38">
+        <v>-702.96171035333305</v>
+      </c>
+      <c r="D38">
+        <v>28.048037555555499</v>
+      </c>
+      <c r="E38">
+        <v>10.6015511111111</v>
+      </c>
       <c r="F38">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="F38:F43" si="13">$F$10*B38</f>
+        <v>13.23</v>
       </c>
       <c r="G38">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H38" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="G38:G43" si="14">F38^3</f>
+        <v>2315.6852670000003</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38:H43" si="15">$B$8/G38/(1E-24)</f>
+        <v>1.8638111411363918</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>0.99</v>
+      </c>
+      <c r="C39">
+        <v>-701.46734017555502</v>
+      </c>
+      <c r="D39">
+        <v>28.026805555555601</v>
+      </c>
+      <c r="E39">
+        <v>4.7461599999999997</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="13"/>
+        <v>13.365</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="14"/>
+        <v>2387.2994021250001</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="15"/>
+        <v>1.8079005910017869</v>
+      </c>
       <c r="J39">
         <f>I39^(1/3)</f>
         <v>0</v>
@@ -2810,15 +3122,90 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M39">
-        <f>L39/L41</f>
-        <v>0</v>
+        <f>L39/L43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>0.995</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="13"/>
+        <v>13.432499999999999</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="14"/>
+        <v>2423.6535955781246</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="15"/>
+        <v>1.7807825375187272</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K41" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>-699.59121627111097</v>
+      </c>
+      <c r="D41">
+        <v>28.620897111111098</v>
+      </c>
+      <c r="E41">
+        <v>0.68576888888888998</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="13"/>
+        <v>13.5</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="14"/>
+        <v>2460.375</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="15"/>
+        <v>1.754204135548443</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="13"/>
+        <v>13.567499999999999</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="14"/>
+        <v>2497.4654606718746</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="15"/>
+        <v>1.7281520277116862</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>1.01</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="13"/>
+        <v>13.635</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="14"/>
+        <v>2534.9268228749997</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="15"/>
+        <v>1.7026132514172492</v>
+      </c>
+      <c r="K43" t="s">
         <v>3</v>
       </c>
-      <c r="L41">
+      <c r="L43">
         <v>100</v>
       </c>
     </row>
@@ -2829,10 +3216,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B548C73-2FA5-B24C-AF9E-AD3666FD99E2}">
-  <dimension ref="B2:M22"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B22"/>
+      <selection activeCell="H27" sqref="H27:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2919,7 +3306,7 @@
         <v>22</v>
       </c>
       <c r="F10">
-        <v>16.75</v>
+        <v>14.8</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -2991,139 +3378,99 @@
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>-457.03449478444497</v>
+      </c>
+      <c r="D15">
+        <v>33.659009777777797</v>
+      </c>
+      <c r="E15">
+        <v>15.06448</v>
+      </c>
       <c r="F15">
         <f>$F$10*B15</f>
-        <v>16.75</v>
+        <v>14.8</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G22" si="0">F15^3</f>
-        <v>4699.421875</v>
+        <v>3241.7920000000004</v>
       </c>
       <c r="H15">
         <f>$B$8/G15/(1E-24)</f>
-        <v>1.4835867443801267</v>
+        <v>2.1506623497127517</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F16">
         <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
-        <v>17.420000000000002</v>
+        <v>15.244000000000002</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>5286.2104880000024</v>
+        <v>3542.3936467840012</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H22" si="2">$B$8/G16/(1E-24)</f>
-        <v>1.3189032135263694</v>
-      </c>
-    </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.2">
+        <v>1.9681607114244921</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1.04</v>
+      </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.392000000000001</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" t="e">
+        <v>3646.575116288001</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+        <v>1.9119309976252696</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.540000000000001</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" t="e">
+        <v>3752.7794640000006</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="2"/>
+        <v>1.8578229994279247</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f>I19^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" t="e">
+        <f>$B$8/(I19*(10^-24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18">
-        <v>5524.7641893142254</v>
-      </c>
-      <c r="J18">
-        <f>I18^(1/3)</f>
-        <v>17.678194806102677</v>
-      </c>
-      <c r="K18" t="e">
-        <f>$L$5/(I18*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M18">
-        <f>L18/L20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F20">
-        <f>$F$10*B20</f>
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="M19">
+        <f>L19/L21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
         <v>3</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F21">
-        <f>$F$10*B21</f>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F22">
-        <f>$F$10*B22</f>
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/SALT/FLiNaK.xlsx
+++ b/SALT/FLiNaK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737A1F3E-7907-804E-8D46-D2D7B5EA5ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB9DF4F-80A9-6047-9109-473BBB3EBC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="3000" windowWidth="21480" windowHeight="16940" activeTab="1" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
+    <workbookView xWindow="740" yWindow="3000" windowWidth="21480" windowHeight="16940" activeTab="4" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="33">
   <si>
     <t>#atoms</t>
   </si>
@@ -1188,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C7C49-F970-6D42-8577-7333C5E83B75}">
-  <dimension ref="B2:M20"/>
+  <dimension ref="B2:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1347,48 +1347,66 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1</v>
+      </c>
       <c r="F15">
         <f>$F$10*B15</f>
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G22" si="0">F15^3</f>
-        <v>0</v>
-      </c>
-      <c r="H15" t="e">
+        <f t="shared" ref="G15:G17" si="0">F15^3</f>
+        <v>4251.5279999999993</v>
+      </c>
+      <c r="H15">
         <f>$B$8/G15/(1E-24)</f>
-        <v>#DIV/0!</v>
+        <v>2.0147109462762569</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <v>-437.28276998665399</v>
+      </c>
+      <c r="D16">
+        <v>33.869095309438201</v>
+      </c>
+      <c r="E16">
+        <v>3.7020008510917899</v>
+      </c>
       <c r="F16">
-        <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
-        <v>0</v>
+        <f t="shared" ref="F16:F17" si="1">$F$10*B16</f>
+        <v>16.524000000000001</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" t="e">
-        <f t="shared" ref="H16:H22" si="2">$B$8/G16/(1E-24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.2">
+        <v>4511.7555258240009</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H17" si="2">$B$8/G16/(1E-24)</f>
+        <v>1.8985071223325269</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1.04</v>
+      </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.847999999999999</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" t="e">
+        <v>4782.390792191999</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+        <v>1.791070695014026</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I18">
         <v>5524.7641893142254</v>
       </c>
@@ -1405,11 +1423,305 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
         <v>3</v>
       </c>
       <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f>$F$10*B24</f>
+        <v>16.2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G26" si="3">F24^3</f>
+        <v>4251.5279999999993</v>
+      </c>
+      <c r="H24">
+        <f>$B$8/G24/(1E-24)</f>
+        <v>2.0147109462762569</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1.02</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F26" si="4">$F$10*B25</f>
+        <v>16.524000000000001</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>4511.7555258240009</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H26" si="5">$B$8/G25/(1E-24)</f>
+        <v>1.8985071223325269</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1.04</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>16.847999999999999</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>4782.390792191999</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>1.791070695014026</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>5524.7641893142254</v>
+      </c>
+      <c r="J27">
+        <f>I27^(1/3)</f>
+        <v>17.678194806102677</v>
+      </c>
+      <c r="K27" t="e">
+        <f>$L$5/(I27*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M27">
+        <f>L27/L29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>0.99</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F35" si="6">$F$10*B33</f>
+        <v>16.038</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G35" si="7">F33^3</f>
+        <v>4125.2533668719998</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H35" si="8">$B$8/G33/(1E-24)</f>
+        <v>2.0763815548364541</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>-445.691887340721</v>
+      </c>
+      <c r="D34">
+        <v>28.201312872461799</v>
+      </c>
+      <c r="E34">
+        <v>4.7563745106091702</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="6"/>
+        <v>16.2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="7"/>
+        <v>4251.5279999999993</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="8"/>
+        <v>2.0147109462762569</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1.01</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="6"/>
+        <v>16.361999999999998</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="7"/>
+        <v>4380.3535499279978</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="8"/>
+        <v>1.9554585953777175</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1.02</v>
+      </c>
+      <c r="C36">
+        <v>-443.83179221601199</v>
+      </c>
+      <c r="D36">
+        <v>27.6927757182684</v>
+      </c>
+      <c r="E36">
+        <v>-0.42489489728332402</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:F37" si="9">$F$10*B36</f>
+        <v>16.524000000000001</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G37" si="10">F36^3</f>
+        <v>4511.7555258240009</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H37" si="11">$B$8/G36/(1E-24)</f>
+        <v>1.8985071223325269</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1.03</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="9"/>
+        <v>16.686</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="10"/>
+        <v>4645.7594368560003</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>1.8437459184922276</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>5524.7641893142254</v>
+      </c>
+      <c r="J38">
+        <f>I38^(1/3)</f>
+        <v>17.678194806102677</v>
+      </c>
+      <c r="K38" t="e">
+        <f>$L$5/(I38*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M38">
+        <f>L38/L40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L40">
         <v>100</v>
       </c>
     </row>
@@ -2042,8 +2354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54DDCEF-2A04-AC4A-B085-1BC5E6C44A8B}">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2216,7 +2528,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G22" si="0">F15^3</f>
+        <f t="shared" ref="G15:G17" si="0">F15^3</f>
         <v>4410.9439999999995</v>
       </c>
       <c r="H15">
@@ -2229,7 +2541,7 @@
         <v>1.04</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
+        <f t="shared" ref="F16:F17" si="1">$F$10*B16</f>
         <v>17.055999999999997</v>
       </c>
       <c r="G16">
@@ -2237,7 +2549,7 @@
         <v>4961.7121116159979</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H22" si="2">$B$8/G16/(1E-24)</f>
+        <f t="shared" ref="H16:H17" si="2">$B$8/G16/(1E-24)</f>
         <v>1.9404592171842521</v>
       </c>
     </row>
@@ -2330,20 +2642,20 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>-432.27106012444398</v>
+        <v>-435.90243129777798</v>
       </c>
       <c r="D24">
-        <v>33.883338444444398</v>
+        <v>30.9946511111111</v>
       </c>
       <c r="E24">
-        <v>21.5077844444444</v>
+        <v>17.841699999999999</v>
       </c>
       <c r="F24">
         <f>$F$10*B24</f>
         <v>16.399999999999999</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24:G29" si="3">F24^3</f>
+        <f t="shared" ref="G24:G26" si="3">F24^3</f>
         <v>4410.9439999999995</v>
       </c>
       <c r="H24">
@@ -2356,7 +2668,7 @@
         <v>1.04</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F28" si="4">$F$10*B25</f>
+        <f t="shared" ref="F25:F26" si="4">$F$10*B25</f>
         <v>17.055999999999997</v>
       </c>
       <c r="G25">
@@ -2364,7 +2676,7 @@
         <v>4961.7121116159979</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H29" si="5">$B$8/G25/(1E-24)</f>
+        <f t="shared" ref="H25:H26" si="5">$B$8/G25/(1E-24)</f>
         <v>1.9404592171842521</v>
       </c>
     </row>
@@ -2457,20 +2769,20 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>-432.27106012444398</v>
+        <v>-440.54883195999997</v>
       </c>
       <c r="D33">
-        <v>33.883338444444398</v>
+        <v>27.760117555555599</v>
       </c>
       <c r="E33">
-        <v>21.5077844444444</v>
+        <v>15.1803044444445</v>
       </c>
       <c r="F33">
         <f>$F$10*B33</f>
         <v>16.399999999999999</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G38" si="6">F33^3</f>
+        <f t="shared" ref="G33:G35" si="6">F33^3</f>
         <v>4410.9439999999995</v>
       </c>
       <c r="H33">
@@ -2483,7 +2795,7 @@
         <v>1.04</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F37" si="7">$F$10*B34</f>
+        <f t="shared" ref="F34:F35" si="7">$F$10*B34</f>
         <v>17.055999999999997</v>
       </c>
       <c r="G34">
@@ -2491,7 +2803,7 @@
         <v>4961.7121116159979</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H38" si="8">$B$8/G34/(1E-24)</f>
+        <f t="shared" ref="H34:H35" si="8">$B$8/G34/(1E-24)</f>
         <v>1.9404592171842521</v>
       </c>
     </row>
@@ -2541,10 +2853,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93737921-4FC8-6E4E-AE09-E754D42F2BB1}">
-  <dimension ref="B2:M43"/>
+  <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2586,9 +2898,15 @@
       <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E36:E43,G36:G43^{1,2})</f>
-        <v>#VALUE!</v>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6:L6">LINEST(E35:E42,G35:G42^{1,2})</f>
+        <v>1.31775745885969E-4</v>
+      </c>
+      <c r="K6">
+        <v>-0.69689430258352392</v>
+      </c>
+      <c r="L6">
+        <v>917.05659086576884</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -2598,13 +2916,13 @@
       <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="K7" t="e">
+      <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>2825.3565417096856</v>
+      </c>
+      <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
+        <v>2463.130333459098</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -2636,22 +2954,28 @@
       <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E36:E43,C36:C43^{1,2})</f>
-        <v>#VALUE!</v>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10:L10">LINEST(E35:E42,C35:C42^{1,2})</f>
+        <v>2.4383955050257855</v>
+      </c>
+      <c r="K10">
+        <v>3415.3267741911313</v>
+      </c>
+      <c r="L10">
+        <v>1195911.6880260012</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="e">
+      <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="e">
+        <v>-699.12275650994809</v>
+      </c>
+      <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
+        <v>-701.52236736425084</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -2703,6 +3027,27 @@
       <c r="B15">
         <v>0.99</v>
       </c>
+      <c r="C15">
+        <v>-695.60740775111105</v>
+      </c>
+      <c r="D15">
+        <v>33.175722666666701</v>
+      </c>
+      <c r="E15">
+        <v>10.5447066666667</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F17" si="0">$F$10*B15</f>
+        <v>13.365</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G17" si="1">F15^3</f>
+        <v>2387.2994021250001</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H17" si="2">$B$8/G15/(1E-24)</f>
+        <v>1.8079005910017869</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
@@ -2718,15 +3063,15 @@
         <v>5.7049977777777796</v>
       </c>
       <c r="F16">
-        <f>$F$10*B16</f>
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G19" si="0">F16^3</f>
+        <f t="shared" si="1"/>
         <v>2460.375</v>
       </c>
       <c r="H16">
-        <f>$B$8/G16/(1E-24)</f>
+        <f t="shared" si="2"/>
         <v>1.754204135548443</v>
       </c>
     </row>
@@ -2734,478 +3079,557 @@
       <c r="B17">
         <v>1.01</v>
       </c>
+      <c r="C17">
+        <v>-692.75180078000096</v>
+      </c>
+      <c r="D17">
+        <v>33.314201555555599</v>
+      </c>
+      <c r="E17">
+        <v>1.75789111111111</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>13.635</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>2534.9268228749997</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>1.7026132514172492</v>
+      </c>
+      <c r="J17">
+        <f>I17^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" t="e">
+        <f>$B$8/(I17*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17">
+        <f>L17/L19</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18" si="3">$F$10*B18</f>
+        <v>13.77</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18" si="4">F18^3</f>
+        <v>2610.9696329999997</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18" si="5">$B$8/G18/(1E-24)</f>
+        <v>1.653025736282089</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
         <v>1.04</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>-688.667408139999</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>33.481077555555501</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>-6.5132377777777704</v>
       </c>
-      <c r="F18">
-        <f t="shared" ref="F18:F19" si="1">$F$10*B18</f>
+      <c r="F19">
+        <f t="shared" ref="F19:F20" si="6">$F$10*B19</f>
         <v>14.040000000000001</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
+      <c r="G19">
+        <f t="shared" ref="G19:G20" si="7">F19^3</f>
         <v>2767.5872640000007</v>
       </c>
-      <c r="H18">
-        <f t="shared" ref="H18:H19" si="2">$B$8/G18/(1E-24)</f>
+      <c r="H19">
+        <f t="shared" ref="H19:H20" si="8">$B$8/G19/(1E-24)</f>
         <v>1.5594810888680253</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" t="e">
-        <f t="shared" si="2"/>
+      <c r="K19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J20">
-        <f>I20^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" t="e">
-        <f>$B$8/(I20*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20">
-        <f>L20/L22</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K22" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>100</v>
+      <c r="B22">
+        <v>1200</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>1200</v>
+      <c r="H23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" t="s">
-        <v>32</v>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+      <c r="C25">
+        <v>-699.62584646222194</v>
+      </c>
+      <c r="D25">
+        <v>30.5024388888889</v>
+      </c>
+      <c r="E25">
+        <v>12.4484311111111</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F26" si="9">$F$10*B25</f>
+        <v>13.23</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G26" si="10">F25^3</f>
+        <v>2315.6852670000003</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H26" si="11">$B$8/G25/(1E-24)</f>
+        <v>1.8638111411363918</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>0.98</v>
+        <v>0.99</v>
+      </c>
+      <c r="C26">
+        <v>-698.47967297555499</v>
+      </c>
+      <c r="D26">
+        <v>30.673683555555598</v>
+      </c>
+      <c r="E26">
+        <v>7.6796600000000002</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:F27" si="3">$F$10*B26</f>
-        <v>13.23</v>
+        <f t="shared" si="9"/>
+        <v>13.365</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:G27" si="4">F26^3</f>
-        <v>2315.6852670000003</v>
+        <f t="shared" si="10"/>
+        <v>2387.2994021250001</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H27" si="5">$B$8/G26/(1E-24)</f>
-        <v>1.8638111411363918</v>
+        <f t="shared" si="11"/>
+        <v>1.8079005910017869</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>0.99</v>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>-696.99797902</v>
+      </c>
+      <c r="D27">
+        <v>31.145280444444399</v>
+      </c>
+      <c r="E27">
+        <v>2.74336</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
-        <v>13.365</v>
+        <f>$F$10*B27</f>
+        <v>13.5</v>
       </c>
       <c r="G27">
-        <f t="shared" si="4"/>
-        <v>2387.2994021250001</v>
+        <f t="shared" ref="G27" si="12">F27^3</f>
+        <v>2460.375</v>
       </c>
       <c r="H27">
-        <f t="shared" si="5"/>
-        <v>1.8079005910017869</v>
+        <f>$B$8/G27/(1E-24)</f>
+        <v>1.754204135548443</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>-696.99797902</v>
-      </c>
-      <c r="D28">
-        <v>31.145280444444399</v>
-      </c>
-      <c r="E28">
-        <v>2.74336</v>
+        <v>1.01</v>
       </c>
       <c r="F28">
-        <f>$F$10*B28</f>
-        <v>13.5</v>
+        <f t="shared" ref="F28:F29" si="13">$F$10*B28</f>
+        <v>13.635</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28" si="6">F28^3</f>
-        <v>2460.375</v>
+        <f t="shared" ref="G28:G29" si="14">F28^3</f>
+        <v>2534.9268228749997</v>
       </c>
       <c r="H28">
-        <f>$B$8/G28/(1E-24)</f>
-        <v>1.754204135548443</v>
+        <f t="shared" ref="H28:H29" si="15">$B$8/G28/(1E-24)</f>
+        <v>1.7026132514172492</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>1.01</v>
+        <v>1.04</v>
+      </c>
+      <c r="C29">
+        <v>-691.47853550000104</v>
+      </c>
+      <c r="D29">
+        <v>30.923824</v>
+      </c>
+      <c r="E29">
+        <v>-8.7507800000000007</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F30" si="7">$F$10*B29</f>
-        <v>13.635</v>
+        <f t="shared" si="13"/>
+        <v>14.040000000000001</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:G30" si="8">F29^3</f>
-        <v>2534.9268228749997</v>
+        <f t="shared" si="14"/>
+        <v>2767.5872640000007</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:H30" si="9">$B$8/G29/(1E-24)</f>
-        <v>1.7026132514172492</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>1.04</v>
-      </c>
-      <c r="C30">
-        <v>-691.47853550000104</v>
-      </c>
-      <c r="D30">
-        <v>30.923824</v>
-      </c>
-      <c r="E30">
-        <v>-8.7507800000000007</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="7"/>
-        <v>14.040000000000001</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="8"/>
-        <v>2767.5872640000007</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.5594810888680253</v>
       </c>
-      <c r="J30">
-        <f>I30^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" t="e">
-        <f>$B$8/(I30*(10^-24))</f>
+      <c r="J29">
+        <f>I29^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" t="e">
+        <f>$B$8/(I29*(10^-24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30">
-        <f>L30/L32</f>
-        <v>0</v>
+      <c r="M29">
+        <f>L29/L31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>100</v>
+      <c r="B32">
+        <v>1100</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>1100</v>
+      <c r="H33" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="I34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" t="s">
-        <v>30</v>
-      </c>
-      <c r="J35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K35" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" t="s">
-        <v>31</v>
-      </c>
-      <c r="M35" t="s">
-        <v>32</v>
+      <c r="B35">
+        <v>0.92</v>
+      </c>
+      <c r="C35">
+        <v>-705.24362527999995</v>
+      </c>
+      <c r="D35">
+        <v>28.197187777777799</v>
+      </c>
+      <c r="E35">
+        <v>65.867931111111105</v>
+      </c>
+      <c r="F35">
+        <f>$F$10*B35</f>
+        <v>12.42</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:G36" si="16">F35^3</f>
+        <v>1915.8644879999997</v>
+      </c>
+      <c r="H35">
+        <f>$B$8/G35/(1E-24)</f>
+        <v>2.2527689338328614</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="C36">
-        <v>-705.24362527999995</v>
+        <v>-704.40935585333295</v>
       </c>
       <c r="D36">
-        <v>28.197187777777799</v>
+        <v>27.930180666666601</v>
       </c>
       <c r="E36">
-        <v>65.867931111111105</v>
+        <v>23.292300000000001</v>
       </c>
       <c r="F36">
-        <f>$F$10*B36</f>
-        <v>12.42</v>
+        <f t="shared" ref="F36" si="17">$F$10*B36</f>
+        <v>12.959999999999999</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:G37" si="10">F36^3</f>
-        <v>1915.8644879999997</v>
+        <f t="shared" si="16"/>
+        <v>2176.7823359999993</v>
       </c>
       <c r="H36">
-        <f>$B$8/G36/(1E-24)</f>
-        <v>2.2527689338328614</v>
+        <f t="shared" ref="H36" si="18">$B$8/G36/(1E-24)</f>
+        <v>1.9827430279184339</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="C37">
-        <v>-704.40935585333295</v>
+        <v>-702.96171035333305</v>
       </c>
       <c r="D37">
-        <v>27.930180666666601</v>
+        <v>28.048037555555499</v>
       </c>
       <c r="E37">
-        <v>23.292300000000001</v>
+        <v>10.6015511111111</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37" si="11">$F$10*B37</f>
-        <v>12.959999999999999</v>
+        <f t="shared" ref="F37:F42" si="19">$F$10*B37</f>
+        <v>13.23</v>
       </c>
       <c r="G37">
-        <f t="shared" si="10"/>
-        <v>2176.7823359999993</v>
+        <f t="shared" ref="G37:G42" si="20">F37^3</f>
+        <v>2315.6852670000003</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37" si="12">$B$8/G37/(1E-24)</f>
-        <v>1.9827430279184339</v>
+        <f t="shared" ref="H37:H42" si="21">$B$8/G37/(1E-24)</f>
+        <v>1.8638111411363918</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="C38">
-        <v>-702.96171035333305</v>
+        <v>-701.46734017555502</v>
       </c>
       <c r="D38">
-        <v>28.048037555555499</v>
+        <v>28.026805555555601</v>
       </c>
       <c r="E38">
-        <v>10.6015511111111</v>
+        <v>4.7461599999999997</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F38:F43" si="13">$F$10*B38</f>
-        <v>13.23</v>
+        <f t="shared" si="19"/>
+        <v>13.365</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:G43" si="14">F38^3</f>
-        <v>2315.6852670000003</v>
+        <f t="shared" si="20"/>
+        <v>2387.2994021250001</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H43" si="15">$B$8/G38/(1E-24)</f>
-        <v>1.8638111411363918</v>
+        <f t="shared" si="21"/>
+        <v>1.8079005910017869</v>
+      </c>
+      <c r="J38">
+        <f>I38^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" t="e">
+        <f>$B$8/(I38*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38">
+        <f>L38/L42</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="C39">
-        <v>-701.46734017555502</v>
+        <v>-701.160200117778</v>
       </c>
       <c r="D39">
-        <v>28.026805555555601</v>
+        <v>28.050979777777801</v>
       </c>
       <c r="E39">
-        <v>4.7461599999999997</v>
+        <v>2.0782466666666601</v>
       </c>
       <c r="F39">
-        <f t="shared" si="13"/>
-        <v>13.365</v>
+        <f t="shared" si="19"/>
+        <v>13.432499999999999</v>
       </c>
       <c r="G39">
-        <f t="shared" si="14"/>
-        <v>2387.2994021250001</v>
+        <f t="shared" si="20"/>
+        <v>2423.6535955781246</v>
       </c>
       <c r="H39">
-        <f t="shared" si="15"/>
-        <v>1.8079005910017869</v>
-      </c>
-      <c r="J39">
-        <f>I39^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K39" t="e">
-        <f>$B$8/(I39*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39">
-        <f>L39/L43</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1.7807825375187272</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>0.995</v>
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>-699.59121627111097</v>
+      </c>
+      <c r="D40">
+        <v>28.620897111111098</v>
+      </c>
+      <c r="E40">
+        <v>0.68576888888888998</v>
       </c>
       <c r="F40">
-        <f t="shared" si="13"/>
-        <v>13.432499999999999</v>
+        <f t="shared" si="19"/>
+        <v>13.5</v>
       </c>
       <c r="G40">
-        <f t="shared" si="14"/>
-        <v>2423.6535955781246</v>
+        <f t="shared" si="20"/>
+        <v>2460.375</v>
       </c>
       <c r="H40">
-        <f t="shared" si="15"/>
-        <v>1.7807825375187272</v>
+        <f t="shared" si="21"/>
+        <v>1.754204135548443</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>1</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="C41">
-        <v>-699.59121627111097</v>
+        <v>-699.12959303777802</v>
       </c>
       <c r="D41">
-        <v>28.620897111111098</v>
+        <v>28.669852444444398</v>
       </c>
       <c r="E41">
-        <v>0.68576888888888998</v>
+        <v>-1.40970666666666</v>
       </c>
       <c r="F41">
-        <f t="shared" si="13"/>
-        <v>13.5</v>
+        <f t="shared" si="19"/>
+        <v>13.567499999999999</v>
       </c>
       <c r="G41">
-        <f t="shared" si="14"/>
-        <v>2460.375</v>
+        <f t="shared" si="20"/>
+        <v>2497.4654606718746</v>
       </c>
       <c r="H41">
-        <f t="shared" si="15"/>
-        <v>1.754204135548443</v>
+        <f t="shared" si="21"/>
+        <v>1.7281520277116862</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>1.0049999999999999</v>
+        <v>1.01</v>
+      </c>
+      <c r="C42">
+        <v>-699.04595599777804</v>
+      </c>
+      <c r="D42">
+        <v>28.119715777777799</v>
+      </c>
+      <c r="E42">
+        <v>-3.5288688888888902</v>
       </c>
       <c r="F42">
-        <f t="shared" si="13"/>
-        <v>13.567499999999999</v>
+        <f t="shared" si="19"/>
+        <v>13.635</v>
       </c>
       <c r="G42">
-        <f t="shared" si="14"/>
-        <v>2497.4654606718746</v>
+        <f t="shared" si="20"/>
+        <v>2534.9268228749997</v>
       </c>
       <c r="H42">
-        <f t="shared" si="15"/>
-        <v>1.7281520277116862</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <v>1.01</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="13"/>
-        <v>13.635</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="14"/>
-        <v>2534.9268228749997</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1.7026132514172492</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K42" t="s">
         <v>3</v>
       </c>
-      <c r="L43">
+      <c r="L42">
         <v>100</v>
       </c>
     </row>
@@ -3216,10 +3640,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B548C73-2FA5-B24C-AF9E-AD3666FD99E2}">
-  <dimension ref="B2:M21"/>
+  <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:L34"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3392,7 +3816,7 @@
         <v>14.8</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G22" si="0">F15^3</f>
+        <f t="shared" ref="G15:G18" si="0">F15^3</f>
         <v>3241.7920000000004</v>
       </c>
       <c r="H15">
@@ -3404,8 +3828,17 @@
       <c r="B16">
         <v>1.03</v>
       </c>
+      <c r="C16">
+        <v>-452.05961916888901</v>
+      </c>
+      <c r="D16">
+        <v>34.022918222222202</v>
+      </c>
+      <c r="E16">
+        <v>4.0414266666666601</v>
+      </c>
       <c r="F16">
-        <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
+        <f t="shared" ref="F16:F18" si="1">$F$10*B16</f>
         <v>15.244000000000002</v>
       </c>
       <c r="G16">
@@ -3413,7 +3846,7 @@
         <v>3542.3936467840012</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H22" si="2">$B$8/G16/(1E-24)</f>
+        <f t="shared" ref="H16:H18" si="2">$B$8/G16/(1E-24)</f>
         <v>1.9681607114244921</v>
       </c>
     </row>
@@ -3421,6 +3854,15 @@
       <c r="B17">
         <v>1.04</v>
       </c>
+      <c r="C17">
+        <v>-450.90939835217</v>
+      </c>
+      <c r="D17">
+        <v>33.399812848854502</v>
+      </c>
+      <c r="E17">
+        <v>1.39198673566862</v>
+      </c>
       <c r="F17">
         <f t="shared" si="1"/>
         <v>15.392000000000001</v>
@@ -3470,6 +3912,309 @@
         <v>3</v>
       </c>
       <c r="L21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>-459.30742201555603</v>
+      </c>
+      <c r="D26">
+        <v>31.185650444444502</v>
+      </c>
+      <c r="E26">
+        <v>12.14148</v>
+      </c>
+      <c r="F26">
+        <f>$F$10*B26</f>
+        <v>14.8</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G29" si="3">F26^3</f>
+        <v>3241.7920000000004</v>
+      </c>
+      <c r="H26">
+        <f>$B$8/G26/(1E-24)</f>
+        <v>2.1506623497127517</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1.03</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F29" si="4">$F$10*B27</f>
+        <v>15.244000000000002</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>3542.3936467840012</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H29" si="5">$B$8/G27/(1E-24)</f>
+        <v>1.9681607114244921</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1.04</v>
+      </c>
+      <c r="C28">
+        <v>-453.66111071777698</v>
+      </c>
+      <c r="D28">
+        <v>30.932819333333299</v>
+      </c>
+      <c r="E28">
+        <v>-0.94787777777778004</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>15.392000000000001</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>3646.575116288001</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>1.9119309976252696</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1.05</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>15.540000000000001</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>3752.7794640000006</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>1.8578229994279247</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <f>I30^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" t="e">
+        <f>$B$8/(I30*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30">
+        <f>L30/L32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>-463.09234021111098</v>
+      </c>
+      <c r="D37">
+        <v>28.0646857777778</v>
+      </c>
+      <c r="E37">
+        <v>8.8197577777777791</v>
+      </c>
+      <c r="F37">
+        <f>$F$10*B37</f>
+        <v>14.8</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37:G40" si="6">F37^3</f>
+        <v>3241.7920000000004</v>
+      </c>
+      <c r="H37">
+        <f>$B$8/G37/(1E-24)</f>
+        <v>2.1506623497127517</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1.03</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:F40" si="7">$F$10*B38</f>
+        <v>15.244000000000002</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>3542.3936467840012</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38:H40" si="8">$B$8/G38/(1E-24)</f>
+        <v>1.9681607114244921</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1.04</v>
+      </c>
+      <c r="C39">
+        <v>-457.47333127111102</v>
+      </c>
+      <c r="D39">
+        <v>27.727814444444402</v>
+      </c>
+      <c r="E39">
+        <v>-3.47498222222222</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="7"/>
+        <v>15.392000000000001</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>3646.575116288001</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="8"/>
+        <v>1.9119309976252696</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <f>I41^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" t="e">
+        <f>$B$8/(I41*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41">
+        <f>L41/L43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43">
         <v>100</v>
       </c>
     </row>

--- a/SALT/FLiNaK.xlsx
+++ b/SALT/FLiNaK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB9DF4F-80A9-6047-9109-473BBB3EBC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D3F784-E75D-5B41-BF97-003A2FBB9207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="3000" windowWidth="21480" windowHeight="16940" activeTab="4" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
+    <workbookView xWindow="1920" yWindow="3740" windowWidth="21480" windowHeight="16940" activeTab="6" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9421297F-EE29-D84C-B613-95A487D5F335}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
@@ -1188,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C7C49-F970-6D42-8577-7333C5E83B75}">
-  <dimension ref="B2:M40"/>
+  <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1234,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E15:E20,G15:G20^{1,2})</f>
+        <f t="array" ref="J6">LINEST(E15:E22,G15:G22^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
         <v>19</v>
       </c>
       <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E15:E20,C15:C20^{1,2})</f>
+        <f t="array" ref="J10">LINEST(E15:E22,C15:C22^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1350,12 +1350,21 @@
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>-439.25993086054899</v>
+      </c>
+      <c r="D15">
+        <v>34.031391724213798</v>
+      </c>
+      <c r="E15">
+        <v>9.7309167088437007</v>
+      </c>
       <c r="F15">
         <f>$F$10*B15</f>
         <v>16.2</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G17" si="0">F15^3</f>
+        <f t="shared" ref="G15" si="0">F15^3</f>
         <v>4251.5279999999993</v>
       </c>
       <c r="H15">
@@ -1365,363 +1374,536 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>1.02</v>
-      </c>
-      <c r="C16">
-        <v>-437.28276998665399</v>
-      </c>
-      <c r="D16">
-        <v>33.869095309438201</v>
-      </c>
-      <c r="E16">
-        <v>3.7020008510917899</v>
+        <v>1.01</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F17" si="1">$F$10*B16</f>
-        <v>16.524000000000001</v>
+        <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
+        <v>16.361999999999998</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>4511.7555258240009</v>
+        <f t="shared" ref="G16:G19" si="2">F16^3</f>
+        <v>4380.3535499279978</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H17" si="2">$B$8/G16/(1E-24)</f>
-        <v>1.8985071223325269</v>
+        <f t="shared" ref="H16:H19" si="3">$B$8/G16/(1E-24)</f>
+        <v>1.9554585953777175</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>1.04</v>
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>-437.28276998665399</v>
+      </c>
+      <c r="D17">
+        <v>33.869095309438201</v>
+      </c>
+      <c r="E17">
+        <v>3.7020008510917899</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
+        <v>16.524000000000001</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>4511.7555258240009</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>1.8985071223325269</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1.03</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>16.686</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>4645.7594368560003</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>1.8437459184922276</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1.04</v>
+      </c>
+      <c r="C19">
+        <v>-434.103625437375</v>
+      </c>
+      <c r="D19">
+        <v>33.503104868397301</v>
+      </c>
+      <c r="E19">
+        <v>-0.33508143055142697</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
         <v>16.847999999999999</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
+      <c r="G19">
+        <f t="shared" si="2"/>
         <v>4782.390792191999</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
+      <c r="H19">
+        <f t="shared" si="3"/>
         <v>1.791070695014026</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I18">
-        <v>5524.7641893142254</v>
-      </c>
-      <c r="J18">
-        <f>I18^(1/3)</f>
-        <v>17.678194806102677</v>
-      </c>
-      <c r="K18" t="e">
-        <f>$L$5/(I18*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M18">
-        <f>L18/L20</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K20" t="s">
+      <c r="J20">
+        <f>I20^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" t="e">
+        <f>$B$8/(I20*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20">
+        <f>L20/L22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
         <v>3</v>
       </c>
-      <c r="L20">
+      <c r="L22">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23">
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H22" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G25" t="s">
         <v>28</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H25" t="s">
         <v>29</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I25" t="s">
         <v>30</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J25" t="s">
         <v>27</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K25" t="s">
         <v>29</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L25" t="s">
         <v>31</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M25" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <f>$F$10*B24</f>
-        <v>16.2</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ref="G24:G26" si="3">F24^3</f>
-        <v>4251.5279999999993</v>
-      </c>
-      <c r="H24">
-        <f>$B$8/G24/(1E-24)</f>
-        <v>2.0147109462762569</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>1.02</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ref="F25:F26" si="4">$F$10*B25</f>
-        <v>16.524000000000001</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
-        <v>4511.7555258240009</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ref="H25:H26" si="5">$B$8/G25/(1E-24)</f>
-        <v>1.8985071223325269</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="F26">
+        <f t="shared" ref="F26:F30" si="4">$F$10*B26</f>
+        <v>16.038</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G30" si="5">F26^3</f>
+        <v>4125.2533668719998</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:H30" si="6">$B$8/G26/(1E-24)</f>
+        <v>2.0763815548364541</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>-442.49450280000002</v>
+      </c>
+      <c r="D27">
+        <v>30.917687555555499</v>
+      </c>
+      <c r="E27">
+        <v>7.84042444444444</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="4"/>
-        <v>16.847999999999999</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="3"/>
-        <v>4782.390792191999</v>
-      </c>
-      <c r="H26">
+        <v>16.2</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="5"/>
-        <v>1.791070695014026</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I27">
-        <v>5524.7641893142254</v>
-      </c>
-      <c r="J27">
-        <f>I27^(1/3)</f>
-        <v>17.678194806102677</v>
-      </c>
-      <c r="K27" t="e">
-        <f>$L$5/(I27*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M27">
-        <f>L27/L29</f>
-        <v>0</v>
+        <v>4251.5279999999993</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>2.0147109462762569</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1.01</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>16.361999999999998</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>4380.3535499279978</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>1.9554585953777175</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>100</v>
+      <c r="B29">
+        <v>1.02</v>
+      </c>
+      <c r="C29">
+        <v>-440.54632229777798</v>
+      </c>
+      <c r="D29">
+        <v>30.533118444444401</v>
+      </c>
+      <c r="E29">
+        <v>1.7893622222222201</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>16.524000000000001</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>4511.7555258240009</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>1.8985071223325269</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>1100</v>
+        <v>1.03</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>16.686</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>4645.7594368560003</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>1.8437459184922276</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H31" t="s">
-        <v>23</v>
+      <c r="B31">
+        <v>1.04</v>
+      </c>
+      <c r="C31">
+        <v>-436.74929478666701</v>
+      </c>
+      <c r="D31">
+        <v>30.2445744444444</v>
+      </c>
+      <c r="E31">
+        <v>-1.8707377777777801</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31" si="7">$F$10*B31</f>
+        <v>16.847999999999999</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31" si="8">F31^3</f>
+        <v>4782.390792191999</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31" si="9">$B$8/G31/(1E-24)</f>
+        <v>1.791070695014026</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>0.99</v>
-      </c>
-      <c r="F33">
-        <f t="shared" ref="F33:F35" si="6">$F$10*B33</f>
-        <v>16.038</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ref="G33:G35" si="7">F33^3</f>
-        <v>4125.2533668719998</v>
-      </c>
-      <c r="H33">
-        <f t="shared" ref="H33:H35" si="8">$B$8/G33/(1E-24)</f>
-        <v>2.0763815548364541</v>
+      <c r="J32">
+        <f>I32^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" t="e">
+        <f>$B$8/(I32*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32">
+        <f>L32/L34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>-445.691887340721</v>
-      </c>
-      <c r="D34">
-        <v>28.201312872461799</v>
-      </c>
-      <c r="E34">
-        <v>4.7563745106091702</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="6"/>
-        <v>16.2</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="7"/>
-        <v>4251.5279999999993</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="8"/>
-        <v>2.0147109462762569</v>
+      <c r="K34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>0.98</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:F41" si="10">$F$10*B38</f>
+        <v>15.875999999999999</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G41" si="11">F38^3</f>
+        <v>4001.5041413759996</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38:H41" si="12">$B$8/G38/(1E-24)</f>
+        <v>2.140595060600023</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>0.99</v>
+      </c>
+      <c r="C39">
+        <v>-447.13562957777799</v>
+      </c>
+      <c r="D39">
+        <v>28.242089555555498</v>
+      </c>
+      <c r="E39">
+        <v>8.3225088888888905</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="10"/>
+        <v>16.038</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="11"/>
+        <v>4125.2533668719998</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="12"/>
+        <v>2.0763815548364541</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>-445.691887340721</v>
+      </c>
+      <c r="D40">
+        <v>28.201312872461799</v>
+      </c>
+      <c r="E40">
+        <v>4.7563745106091702</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="10"/>
+        <v>16.2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="11"/>
+        <v>4251.5279999999993</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="12"/>
+        <v>2.0147109462762569</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="10"/>
+        <v>16.280999999999999</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="11"/>
+        <v>4315.6203160409987</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="12"/>
+        <v>1.9847899890919476</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42">
         <v>1.01</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="6"/>
+      <c r="C42">
+        <v>-445.50560360444399</v>
+      </c>
+      <c r="D42">
+        <v>27.994037777777798</v>
+      </c>
+      <c r="E42">
+        <v>1.8669133333333301</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F39:F42" si="13">$F$10*B42</f>
         <v>16.361999999999998</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="7"/>
+      <c r="G42">
+        <f t="shared" ref="G39:G42" si="14">F42^3</f>
         <v>4380.3535499279978</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="8"/>
+      <c r="H42">
+        <f t="shared" ref="H39:H42" si="15">$B$8/G42/(1E-24)</f>
         <v>1.9554585953777175</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43">
         <v>1.02</v>
       </c>
-      <c r="C36">
+      <c r="C43">
         <v>-443.83179221601199</v>
       </c>
-      <c r="D36">
+      <c r="D43">
         <v>27.6927757182684</v>
       </c>
-      <c r="E36">
+      <c r="E43">
         <v>-0.42489489728332402</v>
       </c>
-      <c r="F36">
-        <f t="shared" ref="F36:F37" si="9">$F$10*B36</f>
+      <c r="F43">
+        <f t="shared" ref="F43:F44" si="16">$F$10*B43</f>
         <v>16.524000000000001</v>
       </c>
-      <c r="G36">
-        <f t="shared" ref="G36:G37" si="10">F36^3</f>
+      <c r="G43">
+        <f t="shared" ref="G43:G44" si="17">F43^3</f>
         <v>4511.7555258240009</v>
       </c>
-      <c r="H36">
-        <f t="shared" ref="H36:H37" si="11">$B$8/G36/(1E-24)</f>
+      <c r="H43">
+        <f t="shared" ref="H43:H44" si="18">$B$8/G43/(1E-24)</f>
         <v>1.8985071223325269</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
         <v>1.03</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="9"/>
+      <c r="C44">
+        <v>-441.62740005111101</v>
+      </c>
+      <c r="D44">
+        <v>28.182315555555501</v>
+      </c>
+      <c r="E44">
+        <v>-2.0814422222222202</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="16"/>
         <v>16.686</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="10"/>
+      <c r="G44">
+        <f t="shared" si="17"/>
         <v>4645.7594368560003</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="11"/>
+      <c r="H44">
+        <f t="shared" si="18"/>
         <v>1.8437459184922276</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I38">
-        <v>5524.7641893142254</v>
-      </c>
-      <c r="J38">
-        <f>I38^(1/3)</f>
-        <v>17.678194806102677</v>
-      </c>
-      <c r="K38" t="e">
-        <f>$L$5/(I38*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M38">
-        <f>L38/L40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K40" t="s">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <f>I45^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" t="e">
+        <f>$B$8/(I45*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45">
+        <f>L45/L47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
         <v>3</v>
       </c>
-      <c r="L40">
+      <c r="L47">
         <v>100</v>
       </c>
     </row>
@@ -1732,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EB486-C215-BA4A-94EA-40A0116C6EBC}">
-  <dimension ref="B2:M22"/>
+  <dimension ref="B2:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1822,7 +2004,8 @@
         <v>22</v>
       </c>
       <c r="F10">
-        <v>16.75</v>
+        <f>15.219832</f>
+        <v>15.219832</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -1896,15 +2079,15 @@
       </c>
       <c r="F15">
         <f>$F$10*B15</f>
-        <v>16.75</v>
+        <v>15.219832</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G22" si="0">F15^3</f>
-        <v>4699.421875</v>
+        <v>3525.5718984951031</v>
       </c>
       <c r="H15">
         <f>$B$8/G15/(1E-24)</f>
-        <v>1.4722832263277068</v>
+        <v>1.9624844420144538</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -1913,15 +2096,15 @@
       </c>
       <c r="F16">
         <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
-        <v>17.085000000000001</v>
+        <v>15.52422864</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>4987.0640891250014</v>
+        <v>3741.365103258192</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H22" si="2">$B$8/G16/(1E-24)</f>
-        <v>1.3873653669475792</v>
+        <v>1.849292920911314</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -1930,15 +2113,15 @@
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>17.252500000000001</v>
+        <v>15.676426960000001</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>5135.1851672031253</v>
+        <v>3852.4876039268588</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>1.3473477147793611</v>
+        <v>1.7959512687198669</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
@@ -1947,15 +2130,15 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>17.420000000000002</v>
+        <v>15.828625280000001</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>5286.2104880000024</v>
+        <v>3965.7889080287964</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>1.3088544271375973</v>
+        <v>1.7446415228991712</v>
       </c>
       <c r="I18">
         <v>5524.7641893142254</v>
@@ -1979,15 +2162,15 @@
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>17.587500000000002</v>
+        <v>15.980823600000001</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>5440.1682480468771</v>
+        <v>4081.2901689953947</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>1.2718136065890995</v>
+        <v>1.6952678475451493</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
@@ -1996,15 +2179,15 @@
       </c>
       <c r="F20">
         <f>$F$10*B20</f>
-        <v>17.755000000000003</v>
+        <v>16.133021920000001</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>5597.0866438750027</v>
+        <v>4199.0125402580443</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>1.2361573869097526</v>
+        <v>1.6477397801662226</v>
       </c>
       <c r="K20" t="s">
         <v>3</v>
@@ -2019,15 +2202,15 @@
       </c>
       <c r="F21">
         <f>$F$10*B21</f>
-        <v>17.922499999999999</v>
+        <v>16.285220240000001</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>5756.9938720156242</v>
+        <v>4318.9771752481374</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>1.201821671833321</v>
+        <v>1.6019718834477268</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
@@ -2036,15 +2219,21 @@
       </c>
       <c r="F22">
         <f>$F$10*B22</f>
-        <v>18.425000000000001</v>
+        <v>16.741815200000001</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>6254.9305156250011</v>
+        <v>4692.5361968969837</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>1.1061481790591334</v>
+        <v>1.4744436078245331</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <f>62481.309/3600</f>
+        <v>17.355919166666666</v>
       </c>
     </row>
   </sheetData>
@@ -2057,7 +2246,7 @@
   <dimension ref="B2:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2352,10 +2541,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54DDCEF-2A04-AC4A-B085-1BC5E6C44A8B}">
-  <dimension ref="B2:M38"/>
+  <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2398,7 +2587,7 @@
         <v>19</v>
       </c>
       <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E15:E20,G15:G20^{1,2})</f>
+        <f t="array" ref="J6">LINEST(E15:E22,G15:G22^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2448,7 +2637,7 @@
         <v>19</v>
       </c>
       <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E15:E20,C15:C20^{1,2})</f>
+        <f t="array" ref="J10">LINEST(E15:E22,C15:C22^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2528,7 +2717,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G17" si="0">F15^3</f>
+        <f t="shared" ref="G15:G18" si="0">F15^3</f>
         <v>4410.9439999999995</v>
       </c>
       <c r="H15">
@@ -2540,8 +2729,17 @@
       <c r="B16">
         <v>1.04</v>
       </c>
+      <c r="C16">
+        <v>-429.81277186668001</v>
+      </c>
+      <c r="D16">
+        <v>32.7938159701635</v>
+      </c>
+      <c r="E16">
+        <v>6.4868391520001296</v>
+      </c>
       <c r="F16">
-        <f t="shared" ref="F16:F17" si="1">$F$10*B16</f>
+        <f t="shared" ref="F16:F18" si="1">$F$10*B16</f>
         <v>17.055999999999997</v>
       </c>
       <c r="G16">
@@ -2549,300 +2747,381 @@
         <v>4961.7121116159979</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H17" si="2">$B$8/G16/(1E-24)</f>
+        <f t="shared" ref="H16:H18" si="2">$B$8/G16/(1E-24)</f>
         <v>1.9404592171842521</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F19" si="3">$F$10*B17</f>
+        <v>17.22</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G19" si="4">F17^3</f>
+        <v>5106.219047999999</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H19" si="5">$B$8/G17/(1E-24)</f>
+        <v>1.8855438651365908</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
         <v>1.06</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
+      <c r="C18">
+        <v>-425.81034450864598</v>
+      </c>
+      <c r="D18">
+        <v>33.238800140412202</v>
+      </c>
+      <c r="E18">
+        <v>2.5227040205614801</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
         <v>17.384</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
+      <c r="G18">
+        <f t="shared" si="4"/>
         <v>5253.5048791040008</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
+      <c r="H18">
+        <f t="shared" si="5"/>
         <v>1.8326812711825409</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J18">
-        <f>I18^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" t="e">
-        <f>$L$5/(I18*(10^-24))</f>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1.07</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>17.547999999999998</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>5403.5960705919979</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>1.7817764085658596</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <f>I20^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" t="e">
+        <f>$L$5/(I20*(10^-24))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18">
-        <f>L18/L20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K20" t="s">
+      <c r="M20">
+        <f>L20/L22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
         <v>3</v>
       </c>
-      <c r="L20">
+      <c r="L22">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23">
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H22" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G25" t="s">
         <v>28</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H25" t="s">
         <v>29</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I25" t="s">
         <v>30</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J25" t="s">
         <v>27</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K25" t="s">
         <v>29</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L25" t="s">
         <v>31</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M25" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>-435.90243129777798</v>
-      </c>
-      <c r="D24">
-        <v>30.9946511111111</v>
-      </c>
-      <c r="E24">
-        <v>17.841699999999999</v>
-      </c>
-      <c r="F24">
-        <f>$F$10*B24</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ref="G24:G26" si="3">F24^3</f>
-        <v>4410.9439999999995</v>
-      </c>
-      <c r="H24">
-        <f>$B$8/G24/(1E-24)</f>
-        <v>2.1827527168787459</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>1.04</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ref="F25:F26" si="4">$F$10*B25</f>
-        <v>17.055999999999997</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
-        <v>4961.7121116159979</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ref="H25:H26" si="5">$B$8/G25/(1E-24)</f>
-        <v>1.9404592171842521</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>1.06</v>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>-435.90243129777798</v>
+      </c>
+      <c r="D26">
+        <v>30.9946511111111</v>
+      </c>
+      <c r="E26">
+        <v>17.841699999999999</v>
       </c>
       <c r="F26">
-        <f t="shared" si="4"/>
-        <v>17.384</v>
+        <f>$F$10*B26</f>
+        <v>16.399999999999999</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
-        <v>5253.5048791040008</v>
+        <f t="shared" ref="G26:G28" si="6">F26^3</f>
+        <v>4410.9439999999995</v>
       </c>
       <c r="H26">
-        <f t="shared" si="5"/>
-        <v>1.8326812711825409</v>
+        <f>$B$8/G26/(1E-24)</f>
+        <v>2.1827527168787459</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J27">
-        <f>I27^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" t="e">
-        <f>$L$5/(I27*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M27">
-        <f>L27/L29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>-440.54883195999997</v>
-      </c>
-      <c r="D33">
-        <v>27.760117555555599</v>
-      </c>
-      <c r="E33">
-        <v>15.1803044444445</v>
-      </c>
-      <c r="F33">
-        <f>$F$10*B33</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ref="G33:G35" si="6">F33^3</f>
-        <v>4410.9439999999995</v>
-      </c>
-      <c r="H33">
-        <f>$B$8/G33/(1E-24)</f>
-        <v>2.1827527168787459</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34">
+      <c r="B27">
         <v>1.04</v>
       </c>
-      <c r="F34">
-        <f t="shared" ref="F34:F35" si="7">$F$10*B34</f>
+      <c r="C27">
+        <v>-431.03502818222199</v>
+      </c>
+      <c r="D27">
+        <v>31.144508444444501</v>
+      </c>
+      <c r="E27">
+        <v>4.6198866666666696</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F28" si="7">$F$10*B27</f>
         <v>17.055999999999997</v>
       </c>
-      <c r="G34">
+      <c r="G27">
         <f t="shared" si="6"/>
         <v>4961.7121116159979</v>
       </c>
-      <c r="H34">
-        <f t="shared" ref="H34:H35" si="8">$B$8/G34/(1E-24)</f>
+      <c r="H27">
+        <f t="shared" ref="H27:H28" si="8">$B$8/G27/(1E-24)</f>
         <v>1.9404592171842521</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1.05</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="7"/>
+        <v>17.22</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>5106.219047999999</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="8"/>
+        <v>1.8855438651365908</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1.06</v>
+      </c>
+      <c r="J29">
+        <f>I29^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" t="e">
+        <f>$L$5/(I29*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29">
+        <f>L29/L31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>1.06</v>
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>-440.54883195999997</v>
+      </c>
+      <c r="D35">
+        <v>27.760117555555599</v>
+      </c>
+      <c r="E35">
+        <v>15.1803044444445</v>
       </c>
       <c r="F35">
-        <f t="shared" si="7"/>
-        <v>17.384</v>
+        <f>$F$10*B35</f>
+        <v>16.399999999999999</v>
       </c>
       <c r="G35">
-        <f t="shared" si="6"/>
-        <v>5253.5048791040008</v>
+        <f t="shared" ref="G35:G38" si="9">F35^3</f>
+        <v>4410.9439999999995</v>
       </c>
       <c r="H35">
-        <f t="shared" si="8"/>
-        <v>1.8326812711825409</v>
+        <f>$B$8/G35/(1E-24)</f>
+        <v>2.1827527168787459</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J36">
-        <f>I36^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K36" t="e">
-        <f>$L$5/(I36*(10^-24))</f>
+      <c r="B36">
+        <v>1.03</v>
+      </c>
+      <c r="F36">
+        <f>$F$10*B36</f>
+        <v>16.891999999999999</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36" si="10">F36^3</f>
+        <v>4819.9576042879989</v>
+      </c>
+      <c r="H36">
+        <f>$B$8/G36/(1E-24)</f>
+        <v>1.997527943282033</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1.04</v>
+      </c>
+      <c r="C37">
+        <v>-433.92137409370702</v>
+      </c>
+      <c r="D37">
+        <v>28.372053240978499</v>
+      </c>
+      <c r="E37">
+        <v>2.6494049757868101</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37:F38" si="11">$F$10*B37</f>
+        <v>17.055999999999997</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="9"/>
+        <v>4961.7121116159979</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37:H38" si="12">$B$8/G37/(1E-24)</f>
+        <v>1.9404592171842521</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1.05</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="11"/>
+        <v>17.22</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="9"/>
+        <v>5106.219047999999</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="12"/>
+        <v>1.8855438651365908</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <f>I39^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" t="e">
+        <f>$L$5/(I39*(10^-24))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36">
-        <f>L36/L38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K38" t="s">
+      <c r="M39">
+        <f>L39/L41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
         <v>3</v>
       </c>
-      <c r="L38">
+      <c r="L41">
         <v>100</v>
       </c>
     </row>
@@ -2853,10 +3132,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93737921-4FC8-6E4E-AE09-E754D42F2BB1}">
-  <dimension ref="B2:M42"/>
+  <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2899,14 +3178,14 @@
         <v>19</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6:L6">LINEST(E35:E42,G35:G42^{1,2})</f>
-        <v>1.31775745885969E-4</v>
+        <f t="array" ref="J6:L6">LINEST(E42:E46,G42:G46^{1,2})</f>
+        <v>1.5068622765788563E-4</v>
       </c>
       <c r="K6">
-        <v>-0.69689430258352392</v>
+        <v>-0.79050693448073317</v>
       </c>
       <c r="L6">
-        <v>917.05659086576884</v>
+        <v>1033.107878357798</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -2918,11 +3197,11 @@
       </c>
       <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>2825.3565417096856</v>
+        <v>2778.6830338268428</v>
       </c>
       <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>2463.130333459098</v>
+        <v>2467.363315382197</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -2955,14 +3234,14 @@
         <v>19</v>
       </c>
       <c r="J10" cm="1">
-        <f t="array" ref="J10:L10">LINEST(E35:E42,C35:C42^{1,2})</f>
-        <v>2.4383955050257855</v>
+        <f t="array" ref="J10:L10">LINEST(E42:E46,C42:C46^{1,2})</f>
+        <v>0.58157520445539479</v>
       </c>
       <c r="K10">
-        <v>3415.3267741911313</v>
+        <v>812.4640443214505</v>
       </c>
       <c r="L10">
-        <v>1195911.6880260012</v>
+        <v>283753.28542862169</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -2971,11 +3250,11 @@
       </c>
       <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-699.12275650994809</v>
+        <v>-697.19253840857152</v>
       </c>
       <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-701.52236736425084</v>
+        <v>-699.81345169767326</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -3037,599 +3316,636 @@
         <v>10.5447066666667</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F17" si="0">$F$10*B15</f>
+        <f t="shared" ref="F15:F19" si="0">$F$10*B15</f>
         <v>13.365</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G17" si="1">F15^3</f>
+        <f t="shared" ref="G15:G19" si="1">F15^3</f>
         <v>2387.2994021250001</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H17" si="2">$B$8/G15/(1E-24)</f>
+        <f t="shared" ref="H15:H19" si="2">$B$8/G15/(1E-24)</f>
         <v>1.8079005910017869</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>694.08717864666596</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>33.302865111111103</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>5.7049977777777796</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>2460.375</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <f t="shared" si="2"/>
         <v>1.754204135548443</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
         <v>1.01</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>-692.75180078000096</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>33.314201555555599</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>1.75789111111111</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>13.635</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <f t="shared" si="1"/>
         <v>2534.9268228749997</v>
       </c>
-      <c r="H17">
+      <c r="H19">
         <f t="shared" si="2"/>
         <v>1.7026132514172492</v>
       </c>
-      <c r="J17">
-        <f>I17^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" t="e">
-        <f>$B$8/(I17*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17">
-        <f>L17/L19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18">
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1.0149999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21">
         <v>1.02</v>
       </c>
-      <c r="F18">
-        <f t="shared" ref="F18" si="3">$F$10*B18</f>
+      <c r="C21">
+        <v>-691.52824278000003</v>
+      </c>
+      <c r="D21">
+        <v>33.185202888888902</v>
+      </c>
+      <c r="E21">
+        <v>-1.23301777777778</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="3">$F$10*B21</f>
         <v>13.77</v>
       </c>
-      <c r="G18">
-        <f t="shared" ref="G18" si="4">F18^3</f>
+      <c r="G21">
+        <f t="shared" ref="G21" si="4">F21^3</f>
         <v>2610.9696329999997</v>
       </c>
-      <c r="H18">
-        <f t="shared" ref="H18" si="5">$B$8/G18/(1E-24)</f>
+      <c r="H21">
+        <f t="shared" ref="H21" si="5">$B$8/G21/(1E-24)</f>
         <v>1.653025736282089</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>1.04</v>
-      </c>
-      <c r="C19">
-        <v>-688.667408139999</v>
-      </c>
-      <c r="D19">
-        <v>33.481077555555501</v>
-      </c>
-      <c r="E19">
-        <v>-6.5132377777777704</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ref="F19:F20" si="6">$F$10*B19</f>
-        <v>14.040000000000001</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ref="G19:G20" si="7">F19^3</f>
-        <v>2767.5872640000007</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ref="H19:H20" si="8">$B$8/G19/(1E-24)</f>
-        <v>1.5594810888680253</v>
-      </c>
-      <c r="K19" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H20" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H23" t="s">
-        <v>23</v>
+        <v>1.04</v>
+      </c>
+      <c r="C22">
+        <v>-688.667408139999</v>
+      </c>
+      <c r="D22">
+        <v>33.481077555555501</v>
+      </c>
+      <c r="E22">
+        <v>-6.5132377777777704</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22" si="6">$F$10*B22</f>
+        <v>14.040000000000001</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22" si="7">F22^3</f>
+        <v>2767.5872640000007</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22" si="8">$B$8/G22/(1E-24)</f>
+        <v>1.5594810888680253</v>
+      </c>
+      <c r="J22">
+        <f>I22^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" t="e">
+        <f>$B$8/(I22*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22">
+        <f>L22/L24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" t="s">
-        <v>27</v>
-      </c>
       <c r="K24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
         <v>0.98</v>
       </c>
-      <c r="C25">
+      <c r="C28">
         <v>-699.62584646222194</v>
       </c>
-      <c r="D25">
+      <c r="D28">
         <v>30.5024388888889</v>
       </c>
-      <c r="E25">
+      <c r="E28">
         <v>12.4484311111111</v>
       </c>
-      <c r="F25">
-        <f t="shared" ref="F25:F26" si="9">$F$10*B25</f>
+      <c r="F28">
+        <f t="shared" ref="F28:F29" si="9">$F$10*B28</f>
         <v>13.23</v>
       </c>
-      <c r="G25">
-        <f t="shared" ref="G25:G26" si="10">F25^3</f>
+      <c r="G28">
+        <f t="shared" ref="G28:G29" si="10">F28^3</f>
         <v>2315.6852670000003</v>
       </c>
-      <c r="H25">
-        <f t="shared" ref="H25:H26" si="11">$B$8/G25/(1E-24)</f>
+      <c r="H28">
+        <f t="shared" ref="H28:H29" si="11">$B$8/G28/(1E-24)</f>
         <v>1.8638111411363918</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
         <v>0.99</v>
       </c>
-      <c r="C26">
+      <c r="C29">
         <v>-698.47967297555499</v>
       </c>
-      <c r="D26">
+      <c r="D29">
         <v>30.673683555555598</v>
       </c>
-      <c r="E26">
+      <c r="E29">
         <v>7.6796600000000002</v>
       </c>
-      <c r="F26">
+      <c r="F29">
         <f t="shared" si="9"/>
         <v>13.365</v>
       </c>
-      <c r="G26">
+      <c r="G29">
         <f t="shared" si="10"/>
         <v>2387.2994021250001</v>
       </c>
-      <c r="H26">
+      <c r="H29">
         <f t="shared" si="11"/>
         <v>1.8079005910017869</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="C27">
+      <c r="C31">
         <v>-696.99797902</v>
       </c>
-      <c r="D27">
+      <c r="D31">
         <v>31.145280444444399</v>
       </c>
-      <c r="E27">
+      <c r="E31">
         <v>2.74336</v>
       </c>
-      <c r="F27">
-        <f>$F$10*B27</f>
+      <c r="F31">
+        <f>$F$10*B31</f>
         <v>13.5</v>
       </c>
-      <c r="G27">
-        <f t="shared" ref="G27" si="12">F27^3</f>
+      <c r="G31">
+        <f t="shared" ref="G31" si="12">F31^3</f>
         <v>2460.375</v>
       </c>
-      <c r="H27">
-        <f>$B$8/G27/(1E-24)</f>
+      <c r="H31">
+        <f>$B$8/G31/(1E-24)</f>
         <v>1.754204135548443</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33">
         <v>1.01</v>
       </c>
-      <c r="F28">
-        <f t="shared" ref="F28:F29" si="13">$F$10*B28</f>
+      <c r="C33">
+        <v>-696.13161090666597</v>
+      </c>
+      <c r="D33">
+        <v>30.479128444444498</v>
+      </c>
+      <c r="E33">
+        <v>-0.52531111111111195</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F34" si="13">$F$10*B33</f>
         <v>13.635</v>
       </c>
-      <c r="G28">
-        <f t="shared" ref="G28:G29" si="14">F28^3</f>
+      <c r="G33">
+        <f t="shared" ref="G33:G34" si="14">F33^3</f>
         <v>2534.9268228749997</v>
       </c>
-      <c r="H28">
-        <f t="shared" ref="H28:H29" si="15">$B$8/G28/(1E-24)</f>
+      <c r="H33">
+        <f t="shared" ref="H33:H34" si="15">$B$8/G33/(1E-24)</f>
         <v>1.7026132514172492</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34">
         <v>1.04</v>
       </c>
-      <c r="C29">
+      <c r="C34">
         <v>-691.47853550000104</v>
       </c>
-      <c r="D29">
+      <c r="D34">
         <v>30.923824</v>
       </c>
-      <c r="E29">
+      <c r="E34">
         <v>-8.7507800000000007</v>
       </c>
-      <c r="F29">
+      <c r="F34">
         <f t="shared" si="13"/>
         <v>14.040000000000001</v>
       </c>
-      <c r="G29">
+      <c r="G34">
         <f t="shared" si="14"/>
         <v>2767.5872640000007</v>
       </c>
-      <c r="H29">
+      <c r="H34">
         <f t="shared" si="15"/>
         <v>1.5594810888680253</v>
       </c>
-      <c r="J29">
-        <f>I29^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" t="e">
-        <f>$B$8/(I29*(10^-24))</f>
+      <c r="J34">
+        <f>I34^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" t="e">
+        <f>$B$8/(I34*(10^-24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29">
-        <f>L29/L31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K31" t="s">
+      <c r="M34">
+        <f>L34/L36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
         <v>3</v>
       </c>
-      <c r="L31">
+      <c r="L36">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H33" t="s">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>24</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D39" t="s">
         <v>25</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E39" t="s">
         <v>26</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F39" t="s">
         <v>27</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G39" t="s">
         <v>28</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H39" t="s">
         <v>29</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I39" t="s">
         <v>30</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J39" t="s">
         <v>27</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K39" t="s">
         <v>29</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L39" t="s">
         <v>31</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40">
         <v>0.92</v>
       </c>
-      <c r="C35">
+      <c r="C40">
         <v>-705.24362527999995</v>
       </c>
-      <c r="D35">
+      <c r="D40">
         <v>28.197187777777799</v>
       </c>
-      <c r="E35">
+      <c r="E40">
         <v>65.867931111111105</v>
       </c>
-      <c r="F35">
-        <f>$F$10*B35</f>
+      <c r="F40">
+        <f>$F$10*B40</f>
         <v>12.42</v>
       </c>
-      <c r="G35">
-        <f t="shared" ref="G35:G36" si="16">F35^3</f>
+      <c r="G40">
+        <f t="shared" ref="G40:G41" si="16">F40^3</f>
         <v>1915.8644879999997</v>
       </c>
-      <c r="H35">
-        <f>$B$8/G35/(1E-24)</f>
+      <c r="H40">
+        <f>$B$8/G40/(1E-24)</f>
         <v>2.2527689338328614</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41">
         <v>0.96</v>
       </c>
-      <c r="C36">
+      <c r="C41">
         <v>-704.40935585333295</v>
       </c>
-      <c r="D36">
+      <c r="D41">
         <v>27.930180666666601</v>
       </c>
-      <c r="E36">
+      <c r="E41">
         <v>23.292300000000001</v>
       </c>
-      <c r="F36">
-        <f t="shared" ref="F36" si="17">$F$10*B36</f>
+      <c r="F41">
+        <f t="shared" ref="F41" si="17">$F$10*B41</f>
         <v>12.959999999999999</v>
       </c>
-      <c r="G36">
+      <c r="G41">
         <f t="shared" si="16"/>
         <v>2176.7823359999993</v>
       </c>
-      <c r="H36">
-        <f t="shared" ref="H36" si="18">$B$8/G36/(1E-24)</f>
+      <c r="H41">
+        <f t="shared" ref="H41" si="18">$B$8/G41/(1E-24)</f>
         <v>1.9827430279184339</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42">
         <v>0.98</v>
       </c>
-      <c r="C37">
+      <c r="C42">
         <v>-702.96171035333305</v>
       </c>
-      <c r="D37">
+      <c r="D42">
         <v>28.048037555555499</v>
       </c>
-      <c r="E37">
+      <c r="E42">
         <v>10.6015511111111</v>
       </c>
-      <c r="F37">
-        <f t="shared" ref="F37:F42" si="19">$F$10*B37</f>
+      <c r="F42">
+        <f t="shared" ref="F42:F47" si="19">$F$10*B42</f>
         <v>13.23</v>
       </c>
-      <c r="G37">
-        <f t="shared" ref="G37:G42" si="20">F37^3</f>
+      <c r="G42">
+        <f t="shared" ref="G42:G47" si="20">F42^3</f>
         <v>2315.6852670000003</v>
       </c>
-      <c r="H37">
-        <f t="shared" ref="H37:H42" si="21">$B$8/G37/(1E-24)</f>
+      <c r="H42">
+        <f t="shared" ref="H42:H47" si="21">$B$8/G42/(1E-24)</f>
         <v>1.8638111411363918</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43">
         <v>0.99</v>
       </c>
-      <c r="C38">
+      <c r="C43">
         <v>-701.46734017555502</v>
       </c>
-      <c r="D38">
+      <c r="D43">
         <v>28.026805555555601</v>
       </c>
-      <c r="E38">
+      <c r="E43">
         <v>4.7461599999999997</v>
       </c>
-      <c r="F38">
+      <c r="F43">
         <f t="shared" si="19"/>
         <v>13.365</v>
       </c>
-      <c r="G38">
+      <c r="G43">
         <f t="shared" si="20"/>
         <v>2387.2994021250001</v>
       </c>
-      <c r="H38">
+      <c r="H43">
         <f t="shared" si="21"/>
         <v>1.8079005910017869</v>
       </c>
-      <c r="J38">
-        <f>I38^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K38" t="e">
-        <f>$B$8/(I38*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38">
-        <f>L38/L42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39">
+      <c r="I43">
+        <v>2467.363315382197</v>
+      </c>
+      <c r="J43">
+        <f>I43^(1/3)</f>
+        <v>13.512769473054608</v>
+      </c>
+      <c r="K43">
+        <f>$B$8/(I43*(10^-24))</f>
+        <v>1.7492357015656799</v>
+      </c>
+      <c r="L43">
+        <v>-699.81345169767326</v>
+      </c>
+      <c r="M43">
+        <f>L43/L47</f>
+        <v>-6.9981345169767328</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
         <v>0.995</v>
       </c>
-      <c r="C39">
+      <c r="C44">
         <v>-701.160200117778</v>
       </c>
-      <c r="D39">
+      <c r="D44">
         <v>28.050979777777801</v>
       </c>
-      <c r="E39">
+      <c r="E44">
         <v>2.0782466666666601</v>
       </c>
-      <c r="F39">
+      <c r="F44">
         <f t="shared" si="19"/>
         <v>13.432499999999999</v>
       </c>
-      <c r="G39">
+      <c r="G44">
         <f t="shared" si="20"/>
         <v>2423.6535955781246</v>
       </c>
-      <c r="H39">
+      <c r="H44">
         <f t="shared" si="21"/>
         <v>1.7807825375187272</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45">
         <v>1</v>
       </c>
-      <c r="C40">
+      <c r="C45">
         <v>-699.59121627111097</v>
       </c>
-      <c r="D40">
+      <c r="D45">
         <v>28.620897111111098</v>
       </c>
-      <c r="E40">
+      <c r="E45">
         <v>0.68576888888888998</v>
       </c>
-      <c r="F40">
+      <c r="F45">
         <f t="shared" si="19"/>
         <v>13.5</v>
       </c>
-      <c r="G40">
+      <c r="G45">
         <f t="shared" si="20"/>
         <v>2460.375</v>
       </c>
-      <c r="H40">
+      <c r="H45">
         <f t="shared" si="21"/>
         <v>1.754204135548443</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46">
         <v>1.0049999999999999</v>
       </c>
-      <c r="C41">
+      <c r="C46">
         <v>-699.12959303777802</v>
       </c>
-      <c r="D41">
+      <c r="D46">
         <v>28.669852444444398</v>
       </c>
-      <c r="E41">
+      <c r="E46">
         <v>-1.40970666666666</v>
       </c>
-      <c r="F41">
+      <c r="F46">
         <f t="shared" si="19"/>
         <v>13.567499999999999</v>
       </c>
-      <c r="G41">
+      <c r="G46">
         <f t="shared" si="20"/>
         <v>2497.4654606718746</v>
       </c>
-      <c r="H41">
+      <c r="H46">
         <f t="shared" si="21"/>
         <v>1.7281520277116862</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47">
         <v>1.01</v>
       </c>
-      <c r="C42">
+      <c r="C47">
         <v>-699.04595599777804</v>
       </c>
-      <c r="D42">
+      <c r="D47">
         <v>28.119715777777799</v>
       </c>
-      <c r="E42">
+      <c r="E47">
         <v>-3.5288688888888902</v>
       </c>
-      <c r="F42">
+      <c r="F47">
         <f t="shared" si="19"/>
         <v>13.635</v>
       </c>
-      <c r="G42">
+      <c r="G47">
         <f t="shared" si="20"/>
         <v>2534.9268228749997</v>
       </c>
-      <c r="H42">
+      <c r="H47">
         <f t="shared" si="21"/>
         <v>1.7026132514172492</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K47" t="s">
         <v>3</v>
       </c>
-      <c r="L42">
+      <c r="L47">
         <v>100</v>
       </c>
     </row>
@@ -3640,10 +3956,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B548C73-2FA5-B24C-AF9E-AD3666FD99E2}">
-  <dimension ref="B2:M43"/>
+  <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3686,7 +4002,7 @@
         <v>19</v>
       </c>
       <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E15:E20,G15:G20^{1,2})</f>
+        <f t="array" ref="J6">LINEST(E15:E22,G15:G22^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3736,7 +4052,7 @@
         <v>19</v>
       </c>
       <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E15:E20,C15:C20^{1,2})</f>
+        <f t="array" ref="J10">LINEST(E15:E22,C15:C22^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3816,7 +4132,7 @@
         <v>14.8</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G18" si="0">F15^3</f>
+        <f t="shared" ref="G15" si="0">F15^3</f>
         <v>3241.7920000000004</v>
       </c>
       <c r="H15">
@@ -3826,395 +4142,487 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>1.03</v>
-      </c>
-      <c r="C16">
-        <v>-452.05961916888901</v>
-      </c>
-      <c r="D16">
-        <v>34.022918222222202</v>
-      </c>
-      <c r="E16">
-        <v>4.0414266666666601</v>
+        <v>1.02</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F18" si="1">$F$10*B16</f>
-        <v>15.244000000000002</v>
+        <f t="shared" ref="F16:F21" si="1">$F$10*B16</f>
+        <v>15.096000000000002</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>3542.3936467840012</v>
+        <f t="shared" ref="G16:G21" si="2">F16^3</f>
+        <v>3440.2156047360013</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H18" si="2">$B$8/G16/(1E-24)</f>
-        <v>1.9681607114244921</v>
+        <f t="shared" ref="H16:H21" si="3">$B$8/G16/(1E-24)</f>
+        <v>2.0266171662037515</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="C17">
-        <v>-450.90939835217</v>
+        <v>-452.05961916888901</v>
       </c>
       <c r="D17">
-        <v>33.399812848854502</v>
+        <v>34.022918222222202</v>
       </c>
       <c r="E17">
-        <v>1.39198673566862</v>
+        <v>4.0414266666666601</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>15.392000000000001</v>
+        <v>15.244000000000002</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>3646.575116288001</v>
+        <f t="shared" si="2"/>
+        <v>3542.3936467840012</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
-        <v>1.9119309976252696</v>
+        <f t="shared" si="3"/>
+        <v>1.9681607114244921</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>1.05</v>
+        <v>1.04</v>
+      </c>
+      <c r="C18">
+        <v>-450.90939835217</v>
+      </c>
+      <c r="D18">
+        <v>33.399812848854502</v>
+      </c>
+      <c r="E18">
+        <v>1.39198673566862</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
+        <v>15.392000000000001</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>3646.575116288001</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>1.9119309976252696</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>15.465999999999999</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>3699.4232146959994</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>1.8846181135220363</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>-449.55869401555498</v>
+      </c>
+      <c r="D20">
+        <v>33.490284222222201</v>
+      </c>
+      <c r="E20">
+        <v>-0.48584222222222401</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
         <v>15.540000000000001</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
+      <c r="G20">
+        <f t="shared" si="2"/>
         <v>3752.7794640000006</v>
       </c>
-      <c r="H18">
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>1.8578229994279247</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>15.613999999999999</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="2"/>
-        <v>1.8578229994279247</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J19">
-        <f>I19^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" t="e">
-        <f>$B$8/(I19*(10^-24))</f>
+        <v>3806.6462955439993</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>1.8315334440610664</v>
+      </c>
+      <c r="J21">
+        <f>I21^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" t="e">
+        <f>$B$8/(I21*(10^-24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19">
-        <f>L19/L21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K21" t="s">
+      <c r="M21">
+        <f>L21/L23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
         <v>3</v>
       </c>
-      <c r="L21">
+      <c r="L23">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H24" t="s">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>25</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>26</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F27" t="s">
         <v>27</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G27" t="s">
         <v>28</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H27" t="s">
         <v>29</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I27" t="s">
         <v>30</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J27" t="s">
         <v>27</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K27" t="s">
         <v>29</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L27" t="s">
         <v>31</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M27" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>-459.30742201555603</v>
-      </c>
-      <c r="D26">
-        <v>31.185650444444502</v>
-      </c>
-      <c r="E26">
-        <v>12.14148</v>
-      </c>
-      <c r="F26">
-        <f>$F$10*B26</f>
-        <v>14.8</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ref="G26:G29" si="3">F26^3</f>
-        <v>3241.7920000000004</v>
-      </c>
-      <c r="H26">
-        <f>$B$8/G26/(1E-24)</f>
-        <v>2.1506623497127517</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>1.03</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ref="F27:F29" si="4">$F$10*B27</f>
-        <v>15.244000000000002</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
-        <v>3542.3936467840012</v>
-      </c>
-      <c r="H27">
-        <f t="shared" ref="H27:H29" si="5">$B$8/G27/(1E-24)</f>
-        <v>1.9681607114244921</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>-453.66111071777698</v>
+        <v>-459.30742201555603</v>
       </c>
       <c r="D28">
-        <v>30.932819333333299</v>
+        <v>31.185650444444502</v>
       </c>
       <c r="E28">
-        <v>-0.94787777777778004</v>
+        <v>12.14148</v>
       </c>
       <c r="F28">
-        <f t="shared" si="4"/>
-        <v>15.392000000000001</v>
+        <f>$F$10*B28</f>
+        <v>14.8</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
-        <v>3646.575116288001</v>
+        <f t="shared" ref="G28:G32" si="4">F28^3</f>
+        <v>3241.7920000000004</v>
       </c>
       <c r="H28">
-        <f t="shared" si="5"/>
-        <v>1.9119309976252696</v>
+        <f>$B$8/G28/(1E-24)</f>
+        <v>2.1506623497127517</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="F29">
+        <f>$F$10*B29</f>
+        <v>15.096000000000002</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29" si="5">F29^3</f>
+        <v>3440.2156047360013</v>
+      </c>
+      <c r="H29">
+        <f>$B$8/G29/(1E-24)</f>
+        <v>2.0266171662037515</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1.03</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:F32" si="6">$F$10*B30</f>
+        <v>15.244000000000002</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="4"/>
-        <v>15.540000000000001</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="3"/>
-        <v>3752.7794640000006</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="5"/>
-        <v>1.8578229994279247</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J30">
-        <f>I30^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" t="e">
-        <f>$B$8/(I30*(10^-24))</f>
+        <v>3542.3936467840012</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H32" si="7">$B$8/G30/(1E-24)</f>
+        <v>1.9681607114244921</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1.04</v>
+      </c>
+      <c r="C31">
+        <v>-453.66111071777698</v>
+      </c>
+      <c r="D31">
+        <v>30.932819333333299</v>
+      </c>
+      <c r="E31">
+        <v>-0.94787777777778004</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
+        <v>15.392000000000001</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>3646.575116288001</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="7"/>
+        <v>1.9119309976252696</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30">
-        <f>L30/L32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K32" t="s">
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <f>I33^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" t="e">
+        <f>$B$8/(I33*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33">
+        <f>L33/L35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
         <v>3</v>
       </c>
-      <c r="L32">
+      <c r="L35">
         <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J36" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" t="s">
-        <v>31</v>
-      </c>
-      <c r="M36" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40">
         <v>1</v>
       </c>
-      <c r="C37">
+      <c r="C40">
         <v>-463.09234021111098</v>
       </c>
-      <c r="D37">
+      <c r="D40">
         <v>28.0646857777778</v>
       </c>
-      <c r="E37">
+      <c r="E40">
         <v>8.8197577777777791</v>
       </c>
-      <c r="F37">
-        <f>$F$10*B37</f>
+      <c r="F40">
+        <f>$F$10*B40</f>
         <v>14.8</v>
       </c>
-      <c r="G37">
-        <f t="shared" ref="G37:G40" si="6">F37^3</f>
+      <c r="G40">
+        <f t="shared" ref="G40:G44" si="8">F40^3</f>
         <v>3241.7920000000004</v>
       </c>
-      <c r="H37">
-        <f>$B$8/G37/(1E-24)</f>
+      <c r="H40">
+        <f>$B$8/G40/(1E-24)</f>
         <v>2.1506623497127517</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1.01</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41:F42" si="9">$F$10*B41</f>
+        <v>14.948</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:G42" si="10">F41^3</f>
+        <v>3340.0215393920002</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41:H42" si="11">$B$8/G41/(1E-24)</f>
+        <v>2.087411688150115</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>1.02</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="9"/>
+        <v>15.096000000000002</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="10"/>
+        <v>3440.2156047360013</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="11"/>
+        <v>2.0266171662037515</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43">
         <v>1.03</v>
       </c>
-      <c r="F38">
-        <f t="shared" ref="F38:F40" si="7">$F$10*B38</f>
+      <c r="F43">
+        <f t="shared" ref="F43:F44" si="12">$F$10*B43</f>
         <v>15.244000000000002</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="6"/>
+      <c r="G43">
+        <f t="shared" si="8"/>
         <v>3542.3936467840012</v>
       </c>
-      <c r="H38">
-        <f t="shared" ref="H38:H40" si="8">$B$8/G38/(1E-24)</f>
+      <c r="H43">
+        <f t="shared" ref="H43:H44" si="13">$B$8/G43/(1E-24)</f>
         <v>1.9681607114244921</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
         <v>1.04</v>
       </c>
-      <c r="C39">
+      <c r="C44">
         <v>-457.47333127111102</v>
       </c>
-      <c r="D39">
+      <c r="D44">
         <v>27.727814444444402</v>
       </c>
-      <c r="E39">
+      <c r="E44">
         <v>-3.47498222222222</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="7"/>
+      <c r="F44">
+        <f t="shared" si="12"/>
         <v>15.392000000000001</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="6"/>
+      <c r="G44">
+        <f t="shared" si="8"/>
         <v>3646.575116288001</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="8"/>
+      <c r="H44">
+        <f t="shared" si="13"/>
         <v>1.9119309976252696</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H40" t="e">
-        <f t="shared" si="8"/>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <f>I46^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K46" t="e">
+        <f>$B$8/(I46*(10^-24))</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J41">
-        <f>I41^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K41" t="e">
-        <f>$B$8/(I41*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41">
-        <f>L41/L43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K43" t="s">
+      <c r="M46">
+        <f>L46/L48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
         <v>3</v>
       </c>
-      <c r="L43">
+      <c r="L48">
         <v>100</v>
       </c>
     </row>

--- a/SALT/FLiNaK.xlsx
+++ b/SALT/FLiNaK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D3F784-E75D-5B41-BF97-003A2FBB9207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765D6434-86EB-6142-962D-D6C7B69BD9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="3740" windowWidth="21480" windowHeight="16940" activeTab="6" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
+    <workbookView xWindow="1920" yWindow="3740" windowWidth="21480" windowHeight="16940" activeTab="4" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="33">
   <si>
     <t>#atoms</t>
   </si>
@@ -197,8 +197,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1188,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C7C49-F970-6D42-8577-7333C5E83B75}">
-  <dimension ref="B2:M47"/>
+  <dimension ref="B2:M49"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="C40" sqref="C40:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1234,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E15:E22,G15:G22^{1,2})</f>
+        <f t="array" ref="J6">LINEST(E15:E24,G15:G24^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1284,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E15:E22,C15:C22^{1,2})</f>
+        <f t="array" ref="J10">LINEST(E15:E24,C15:C24^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1376,16 +1377,25 @@
       <c r="B16">
         <v>1.01</v>
       </c>
+      <c r="C16">
+        <v>-439.23685890222202</v>
+      </c>
+      <c r="D16">
+        <v>33.405543555555496</v>
+      </c>
+      <c r="E16">
+        <v>5.6275977777777699</v>
+      </c>
       <c r="F16">
-        <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
+        <f t="shared" ref="F16:F22" si="1">$F$10*B16</f>
         <v>16.361999999999998</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G19" si="2">F16^3</f>
+        <f t="shared" ref="G16:G22" si="2">F16^3</f>
         <v>4380.3535499279978</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H19" si="3">$B$8/G16/(1E-24)</f>
+        <f t="shared" ref="H16:H22" si="3">$B$8/G16/(1E-24)</f>
         <v>1.9554585953777175</v>
       </c>
     </row>
@@ -1417,493 +1427,569 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18" si="4">$F$10*B18</f>
+        <v>16.604999999999997</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18" si="5">F18^3</f>
+        <v>4578.4306451249968</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18" si="6">$B$8/G18/(1E-24)</f>
+        <v>1.8708593978857027</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
         <v>1.03</v>
       </c>
-      <c r="F18">
+      <c r="C19">
+        <v>-436.56556905333298</v>
+      </c>
+      <c r="D19">
+        <v>33.042876888888898</v>
+      </c>
+      <c r="E19">
+        <v>1.29860888888889</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="1"/>
         <v>16.686</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <f t="shared" si="2"/>
         <v>4645.7594368560003</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <f t="shared" si="3"/>
         <v>1.8437459184922276</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>16.766999999999999</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>4713.7450896629989</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>1.8171538420233886</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21">
         <v>1.04</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>-434.103625437375</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>33.503104868397301</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>-0.33508143055142697</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <f t="shared" si="1"/>
         <v>16.847999999999999</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <f t="shared" si="2"/>
         <v>4782.390792191999</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <f t="shared" si="3"/>
         <v>1.791070695014026</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J20">
-        <f>I20^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" t="e">
-        <f>$B$8/(I20*(10^-24))</f>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>16.928999999999998</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>4851.699733088999</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>1.7654843603741366</v>
+      </c>
+      <c r="J22">
+        <f>I22^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" t="e">
+        <f>$B$8/(I22*(10^-24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20">
-        <f>L20/L22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K22" t="s">
+      <c r="M22">
+        <f>L22/L24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
         <v>3</v>
       </c>
-      <c r="L22">
+      <c r="L24">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H24" t="s">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>25</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>26</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F27" t="s">
         <v>27</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G27" t="s">
         <v>28</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H27" t="s">
         <v>29</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I27" t="s">
         <v>30</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J27" t="s">
         <v>27</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K27" t="s">
         <v>29</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L27" t="s">
         <v>31</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M27" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>0.99</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ref="F26:F30" si="4">$F$10*B26</f>
-        <v>16.038</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ref="G26:G30" si="5">F26^3</f>
-        <v>4125.2533668719998</v>
-      </c>
-      <c r="H26">
-        <f t="shared" ref="H26:H30" si="6">$B$8/G26/(1E-24)</f>
-        <v>2.0763815548364541</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>-442.49450280000002</v>
-      </c>
-      <c r="D27">
-        <v>30.917687555555499</v>
-      </c>
-      <c r="E27">
-        <v>7.84042444444444</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="4"/>
-        <v>16.2</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="5"/>
-        <v>4251.5279999999993</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="6"/>
-        <v>2.0147109462762569</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>1.01</v>
+        <v>0.99</v>
+      </c>
+      <c r="C28">
+        <v>-445.23555676000001</v>
+      </c>
+      <c r="D28">
+        <v>30.511585555555602</v>
+      </c>
+      <c r="E28">
+        <v>10.257075555555501</v>
       </c>
       <c r="F28">
-        <f t="shared" si="4"/>
-        <v>16.361999999999998</v>
+        <f t="shared" ref="F28:F32" si="7">$F$10*B28</f>
+        <v>16.038</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
-        <v>4380.3535499279978</v>
+        <f t="shared" ref="G28:G32" si="8">F28^3</f>
+        <v>4125.2533668719998</v>
       </c>
       <c r="H28">
-        <f t="shared" si="6"/>
-        <v>1.9554585953777175</v>
+        <f t="shared" ref="H28:H32" si="9">$B$8/G28/(1E-24)</f>
+        <v>2.0763815548364541</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>-440.54632229777798</v>
+        <v>-442.49450280000002</v>
       </c>
       <c r="D29">
-        <v>30.533118444444401</v>
+        <v>30.917687555555499</v>
       </c>
       <c r="E29">
-        <v>1.7893622222222201</v>
+        <v>7.84042444444444</v>
       </c>
       <c r="F29">
-        <f t="shared" si="4"/>
-        <v>16.524000000000001</v>
+        <f t="shared" si="7"/>
+        <v>16.2</v>
       </c>
       <c r="G29">
-        <f t="shared" si="5"/>
-        <v>4511.7555258240009</v>
+        <f t="shared" si="8"/>
+        <v>4251.5279999999993</v>
       </c>
       <c r="H29">
-        <f t="shared" si="6"/>
-        <v>1.8985071223325269</v>
+        <f t="shared" si="9"/>
+        <v>2.0147109462762569</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F30">
-        <f t="shared" si="4"/>
-        <v>16.686</v>
+        <f t="shared" si="7"/>
+        <v>16.361999999999998</v>
       </c>
       <c r="G30">
-        <f t="shared" si="5"/>
-        <v>4645.7594368560003</v>
+        <f t="shared" si="8"/>
+        <v>4380.3535499279978</v>
       </c>
       <c r="H30">
-        <f t="shared" si="6"/>
-        <v>1.8437459184922276</v>
+        <f t="shared" si="9"/>
+        <v>1.9554585953777175</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31">
+        <v>1.02</v>
+      </c>
+      <c r="C31">
+        <v>-440.54632229777798</v>
+      </c>
+      <c r="D31">
+        <v>30.533118444444401</v>
+      </c>
+      <c r="E31">
+        <v>1.7893622222222201</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="7"/>
+        <v>16.524000000000001</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="8"/>
+        <v>4511.7555258240009</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="9"/>
+        <v>1.8985071223325269</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1.03</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="7"/>
+        <v>16.686</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="8"/>
+        <v>4645.7594368560003</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="9"/>
+        <v>1.8437459184922276</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33">
         <v>1.04</v>
       </c>
-      <c r="C31">
+      <c r="C33">
         <v>-436.74929478666701</v>
       </c>
-      <c r="D31">
+      <c r="D33">
         <v>30.2445744444444</v>
       </c>
-      <c r="E31">
+      <c r="E33">
         <v>-1.8707377777777801</v>
       </c>
-      <c r="F31">
-        <f t="shared" ref="F31" si="7">$F$10*B31</f>
+      <c r="F33">
+        <f t="shared" ref="F33" si="10">$F$10*B33</f>
         <v>16.847999999999999</v>
       </c>
-      <c r="G31">
-        <f t="shared" ref="G31" si="8">F31^3</f>
+      <c r="G33">
+        <f t="shared" ref="G33" si="11">F33^3</f>
         <v>4782.390792191999</v>
       </c>
-      <c r="H31">
-        <f t="shared" ref="H31" si="9">$B$8/G31/(1E-24)</f>
+      <c r="H33">
+        <f t="shared" ref="H33" si="12">$B$8/G33/(1E-24)</f>
         <v>1.791070695014026</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J32">
-        <f>I32^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" t="e">
-        <f>$B$8/(I32*(10^-24))</f>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <f>I34^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" t="e">
+        <f>$B$8/(I34*(10^-24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M32">
-        <f>L32/L34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K34" t="s">
+      <c r="M34">
+        <f>L34/L36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
         <v>3</v>
       </c>
-      <c r="L34">
+      <c r="L36">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37">
         <v>1100</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H36" t="s">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>24</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>25</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" t="s">
         <v>26</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F39" t="s">
         <v>27</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G39" t="s">
         <v>28</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H39" t="s">
         <v>29</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I39" t="s">
         <v>30</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J39" t="s">
         <v>27</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K39" t="s">
         <v>29</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L39" t="s">
         <v>31</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M39" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>0.98</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ref="F38:F41" si="10">$F$10*B38</f>
-        <v>15.875999999999999</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ref="G38:G41" si="11">F38^3</f>
-        <v>4001.5041413759996</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ref="H38:H41" si="12">$B$8/G38/(1E-24)</f>
-        <v>2.140595060600023</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>0.99</v>
-      </c>
-      <c r="C39">
-        <v>-447.13562957777799</v>
-      </c>
-      <c r="D39">
-        <v>28.242089555555498</v>
-      </c>
-      <c r="E39">
-        <v>8.3225088888888905</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="10"/>
-        <v>16.038</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="11"/>
-        <v>4125.2533668719998</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="12"/>
-        <v>2.0763815548364541</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C40">
-        <v>-445.691887340721</v>
+        <v>-448.75641621555599</v>
       </c>
       <c r="D40">
-        <v>28.201312872461799</v>
+        <v>28.217237333333301</v>
       </c>
       <c r="E40">
-        <v>4.7563745106091702</v>
+        <v>11.769157777777799</v>
       </c>
       <c r="F40">
-        <f t="shared" si="10"/>
-        <v>16.2</v>
+        <f t="shared" ref="F40:F43" si="13">$F$10*B40</f>
+        <v>15.875999999999999</v>
       </c>
       <c r="G40">
-        <f t="shared" si="11"/>
-        <v>4251.5279999999993</v>
+        <f t="shared" ref="G40:G43" si="14">F40^3</f>
+        <v>4001.5041413759996</v>
       </c>
       <c r="H40">
-        <f t="shared" si="12"/>
-        <v>2.0147109462762569</v>
+        <f t="shared" ref="H40:H43" si="15">$B$8/G40/(1E-24)</f>
+        <v>2.140595060600023</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>1.0049999999999999</v>
+        <v>0.99</v>
+      </c>
+      <c r="C41">
+        <v>-447.13562957777799</v>
+      </c>
+      <c r="D41">
+        <v>28.242089555555498</v>
+      </c>
+      <c r="E41">
+        <v>8.3225088888888905</v>
       </c>
       <c r="F41">
-        <f t="shared" si="10"/>
-        <v>16.280999999999999</v>
+        <f t="shared" si="13"/>
+        <v>16.038</v>
       </c>
       <c r="G41">
-        <f t="shared" si="11"/>
-        <v>4315.6203160409987</v>
+        <f t="shared" si="14"/>
+        <v>4125.2533668719998</v>
       </c>
       <c r="H41">
-        <f t="shared" si="12"/>
-        <v>1.9847899890919476</v>
+        <f t="shared" si="15"/>
+        <v>2.0763815548364541</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>-445.50560360444399</v>
+        <v>-445.691887340721</v>
       </c>
       <c r="D42">
-        <v>27.994037777777798</v>
+        <v>28.201312872461799</v>
       </c>
       <c r="E42">
-        <v>1.8669133333333301</v>
+        <v>4.7563745106091702</v>
       </c>
       <c r="F42">
-        <f t="shared" ref="F39:F42" si="13">$F$10*B42</f>
-        <v>16.361999999999998</v>
+        <f t="shared" si="13"/>
+        <v>16.2</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G39:G42" si="14">F42^3</f>
-        <v>4380.3535499279978</v>
+        <f t="shared" si="14"/>
+        <v>4251.5279999999993</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H39:H42" si="15">$B$8/G42/(1E-24)</f>
-        <v>1.9554585953777175</v>
+        <f t="shared" si="15"/>
+        <v>2.0147109462762569</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>1.02</v>
-      </c>
-      <c r="C43">
-        <v>-443.83179221601199</v>
-      </c>
-      <c r="D43">
-        <v>27.6927757182684</v>
-      </c>
-      <c r="E43">
-        <v>-0.42489489728332402</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F44" si="16">$F$10*B43</f>
-        <v>16.524000000000001</v>
+        <f t="shared" si="13"/>
+        <v>16.280999999999999</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43:G44" si="17">F43^3</f>
-        <v>4511.7555258240009</v>
+        <f t="shared" si="14"/>
+        <v>4315.6203160409987</v>
       </c>
       <c r="H43">
-        <f t="shared" ref="H43:H44" si="18">$B$8/G43/(1E-24)</f>
-        <v>1.8985071223325269</v>
+        <f t="shared" si="15"/>
+        <v>1.9847899890919476</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44">
+        <v>1.01</v>
+      </c>
+      <c r="C44">
+        <v>-445.50560360444399</v>
+      </c>
+      <c r="D44">
+        <v>27.994037777777798</v>
+      </c>
+      <c r="E44">
+        <v>1.8669133333333301</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44" si="16">$F$10*B44</f>
+        <v>16.361999999999998</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44" si="17">F44^3</f>
+        <v>4380.3535499279978</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44" si="18">$B$8/G44/(1E-24)</f>
+        <v>1.9554585953777175</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>1.02</v>
+      </c>
+      <c r="C45">
+        <v>-443.83179221601199</v>
+      </c>
+      <c r="D45">
+        <v>27.6927757182684</v>
+      </c>
+      <c r="E45">
+        <v>-0.42489489728332402</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45:F46" si="19">$F$10*B45</f>
+        <v>16.524000000000001</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45:G46" si="20">F45^3</f>
+        <v>4511.7555258240009</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45:H46" si="21">$B$8/G45/(1E-24)</f>
+        <v>1.8985071223325269</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46">
         <v>1.03</v>
       </c>
-      <c r="C44">
+      <c r="C46">
         <v>-441.62740005111101</v>
       </c>
-      <c r="D44">
+      <c r="D46">
         <v>28.182315555555501</v>
       </c>
-      <c r="E44">
+      <c r="E46">
         <v>-2.0814422222222202</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="16"/>
+      <c r="F46">
+        <f t="shared" si="19"/>
         <v>16.686</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="17"/>
+      <c r="G46">
+        <f t="shared" si="20"/>
         <v>4645.7594368560003</v>
       </c>
-      <c r="H44">
-        <f t="shared" si="18"/>
+      <c r="H46">
+        <f t="shared" si="21"/>
         <v>1.8437459184922276</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J45">
-        <f>I45^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K45" t="e">
-        <f>$B$8/(I45*(10^-24))</f>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <f>I47^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" t="e">
+        <f>$B$8/(I47*(10^-24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M45">
-        <f>L45/L47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K47" t="s">
+      <c r="M47">
+        <f>L47/L49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
         <v>3</v>
       </c>
-      <c r="L47">
+      <c r="L49">
         <v>100</v>
       </c>
     </row>
@@ -1914,10 +2000,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EB486-C215-BA4A-94EA-40A0116C6EBC}">
-  <dimension ref="B2:M28"/>
+  <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2082,7 +2168,7 @@
         <v>15.219832</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G22" si="0">F15^3</f>
+        <f t="shared" ref="G15" si="0">F15^3</f>
         <v>3525.5718984951031</v>
       </c>
       <c r="H15">
@@ -2090,62 +2176,10 @@
         <v>1.9624844420144538</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>1.02</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
-        <v>15.52422864</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>3741.365103258192</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16:H22" si="2">$B$8/G16/(1E-24)</f>
-        <v>1.849292920911314</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>1.03</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>15.676426960000001</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>3852.4876039268588</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>1.7959512687198669</v>
-      </c>
-    </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>1.04</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>15.828625280000001</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>3965.7889080287964</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>1.7446415228991712</v>
-      </c>
-      <c r="I18">
-        <v>5524.7641893142254</v>
-      </c>
       <c r="J18">
         <f>I18^(1/3)</f>
-        <v>17.678194806102677</v>
+        <v>0</v>
       </c>
       <c r="K18" t="e">
         <f>$L$5/(I18*(10^-24))</f>
@@ -2156,39 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>1.05</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>15.980823600000001</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>4081.2901689953947</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>1.6952678475451493</v>
-      </c>
-    </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>1.06</v>
-      </c>
-      <c r="F20">
-        <f>$F$10*B20</f>
-        <v>16.133021920000001</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>4199.0125402580443</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>1.6477397801662226</v>
-      </c>
       <c r="K20" t="s">
         <v>3</v>
       </c>
@@ -2196,44 +2198,215 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>1.07</v>
-      </c>
-      <c r="F21">
-        <f>$F$10*B21</f>
-        <v>16.285220240000001</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>4318.9771752481374</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>1.6019718834477268</v>
-      </c>
-    </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F22">
-        <f>$F$10*B22</f>
-        <v>16.741815200000001</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>4692.5361968969837</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
-        <v>1.4744436078245331</v>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f>$F$10*B25</f>
+        <v>15.219832</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G30" si="1">F25^3</f>
+        <v>3525.5718984951031</v>
+      </c>
+      <c r="H25">
+        <f>$B$8/G25/(1E-24)</f>
+        <v>1.9624844420144538</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L28">
-        <f>62481.309/3600</f>
-        <v>17.355919166666666</v>
+      <c r="J28">
+        <f>I28^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" t="e">
+        <f>$L$5/(I28*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28">
+        <f>L28/L30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>0.99</v>
+      </c>
+      <c r="F35">
+        <f>$F$10*B35</f>
+        <v>15.06763368</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35" si="2">F35^3</f>
+        <v>3420.8588875379</v>
+      </c>
+      <c r="H35">
+        <f>$B$8/G35/(1E-24)</f>
+        <v>2.0225563893340652</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>-577.20431783111098</v>
+      </c>
+      <c r="D36">
+        <v>28.048759555555598</v>
+      </c>
+      <c r="E36">
+        <v>6.8639311111111203</v>
+      </c>
+      <c r="F36">
+        <f>$F$10*B36</f>
+        <v>15.219832</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G41" si="3">F36^3</f>
+        <v>3525.5718984951031</v>
+      </c>
+      <c r="H36">
+        <f>$B$8/G36/(1E-24)</f>
+        <v>1.9624844420144538</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1.01</v>
+      </c>
+      <c r="F37">
+        <f>$F$10*B37</f>
+        <v>15.37203032</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37" si="4">F37^3</f>
+        <v>3632.4002525914034</v>
+      </c>
+      <c r="H37">
+        <f>$B$8/G37/(1E-24)</f>
+        <v>1.9047680648805094</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <f>I39^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" t="e">
+        <f>$L$5/(I39*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M39">
+        <f>L39/L41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2541,20 +2714,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54DDCEF-2A04-AC4A-B085-1BC5E6C44A8B}">
-  <dimension ref="B2:M41"/>
+  <dimension ref="B2:Q47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:H19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -2563,12 +2736,12 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="J5" t="s">
         <v>15</v>
       </c>
@@ -2579,7 +2752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -2591,7 +2764,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -2607,7 +2780,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>9.628E-21</v>
       </c>
@@ -2615,7 +2788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
         <v>15</v>
       </c>
@@ -2626,7 +2799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>22</v>
       </c>
@@ -2641,7 +2814,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
         <v>20</v>
       </c>
@@ -2653,18 +2826,38 @@
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O11" s="1">
+        <v>1.3281999999999999E-5</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-0.14873</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>415.46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1300</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12">
+        <f>(-P11+SQRT(P11^2-4*O11*Q11))/(2*O11)</f>
+        <v>5859.8893499363649</v>
+      </c>
+      <c r="Q12">
+        <f>(-P11-SQRT(P11^2-4*O11*Q11))/(2*O11)</f>
+        <v>5337.9724178696897</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>24</v>
       </c>
@@ -2699,7 +2892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>1</v>
       </c>
@@ -2717,7 +2910,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G18" si="0">F15^3</f>
+        <f t="shared" ref="G15:G16" si="0">F15^3</f>
         <v>4410.9439999999995</v>
       </c>
       <c r="H15">
@@ -2725,7 +2918,7 @@
         <v>2.1827527168787459</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>1.04</v>
       </c>
@@ -2739,7 +2932,7 @@
         <v>6.4868391520001296</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F18" si="1">$F$10*B16</f>
+        <f t="shared" ref="F16" si="1">$F$10*B16</f>
         <v>17.055999999999997</v>
       </c>
       <c r="G16">
@@ -2747,7 +2940,7 @@
         <v>4961.7121116159979</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H18" si="2">$B$8/G16/(1E-24)</f>
+        <f t="shared" ref="H16" si="2">$B$8/G16/(1E-24)</f>
         <v>1.9404592171842521</v>
       </c>
     </row>
@@ -2896,7 +3089,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:G28" si="6">F26^3</f>
+        <f t="shared" ref="G26:G29" si="6">F26^3</f>
         <v>4410.9439999999995</v>
       </c>
       <c r="H26">
@@ -2906,222 +3099,348 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27">
+        <v>1.03</v>
+      </c>
+      <c r="F27">
+        <f>$F$10*B27</f>
+        <v>16.891999999999999</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27" si="7">F27^3</f>
+        <v>4819.9576042879989</v>
+      </c>
+      <c r="H27">
+        <f>$B$8/G27/(1E-24)</f>
+        <v>1.997527943282033</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
         <v>1.04</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>-431.03502818222199</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>31.144508444444501</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>4.6198866666666696</v>
       </c>
-      <c r="F27">
-        <f t="shared" ref="F27:F28" si="7">$F$10*B27</f>
+      <c r="F28">
+        <f t="shared" ref="F28:F29" si="8">$F$10*B28</f>
         <v>17.055999999999997</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <f t="shared" si="6"/>
         <v>4961.7121116159979</v>
       </c>
-      <c r="H27">
-        <f t="shared" ref="H27:H28" si="8">$B$8/G27/(1E-24)</f>
+      <c r="H28">
+        <f t="shared" ref="H28:H29" si="9">$B$8/G28/(1E-24)</f>
         <v>1.9404592171842521</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
         <v>1.05</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="7"/>
+      <c r="C29">
+        <v>-430.39521584444401</v>
+      </c>
+      <c r="D29">
+        <v>30.508274666666701</v>
+      </c>
+      <c r="E29">
+        <v>2.1457177777777798</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
         <v>17.22</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <f t="shared" si="6"/>
         <v>5106.219047999999</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="8"/>
+      <c r="H29">
+        <f t="shared" si="9"/>
         <v>1.8855438651365908</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
         <v>1.06</v>
       </c>
-      <c r="J29">
-        <f>I29^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" t="e">
-        <f>$L$5/(I29*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M29">
-        <f>L29/L31</f>
-        <v>0</v>
+      <c r="C30">
+        <v>-429.11686279111098</v>
+      </c>
+      <c r="D30">
+        <v>30.364003555555598</v>
+      </c>
+      <c r="E30">
+        <v>0.77020666666666704</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:F31" si="10">$F$10*B30</f>
+        <v>17.384</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30:G31" si="11">F30^3</f>
+        <v>5253.5048791040008</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H31" si="12">$B$8/G30/(1E-24)</f>
+        <v>1.8326812711825409</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K31" t="s">
+      <c r="B31">
+        <v>1.07</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="10"/>
+        <v>17.547999999999998</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="11"/>
+        <v>5403.5960705919979</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="12"/>
+        <v>1.7817764085658596</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <f>I32^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" t="e">
+        <f>$B$8/(I32*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32">
+        <f>L32/L34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
         <v>3</v>
       </c>
-      <c r="L31">
+      <c r="L34">
         <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" t="s">
-        <v>30</v>
-      </c>
-      <c r="J34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" t="s">
-        <v>31</v>
-      </c>
-      <c r="M34" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>-440.54883195999997</v>
-      </c>
-      <c r="D35">
-        <v>27.760117555555599</v>
-      </c>
-      <c r="E35">
-        <v>15.1803044444445</v>
-      </c>
-      <c r="F35">
-        <f>$F$10*B35</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ref="G35:G38" si="9">F35^3</f>
-        <v>4410.9439999999995</v>
-      </c>
-      <c r="H35">
-        <f>$B$8/G35/(1E-24)</f>
-        <v>2.1827527168787459</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>1.03</v>
-      </c>
-      <c r="F36">
-        <f>$F$10*B36</f>
-        <v>16.891999999999999</v>
-      </c>
-      <c r="G36">
-        <f t="shared" ref="G36" si="10">F36^3</f>
-        <v>4819.9576042879989</v>
-      </c>
-      <c r="H36">
-        <f>$B$8/G36/(1E-24)</f>
-        <v>1.997527943282033</v>
+      <c r="H36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>1.04</v>
-      </c>
-      <c r="C37">
-        <v>-433.92137409370702</v>
-      </c>
-      <c r="D37">
-        <v>28.372053240978499</v>
-      </c>
-      <c r="E37">
-        <v>2.6494049757868101</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ref="F37:F38" si="11">$F$10*B37</f>
-        <v>17.055999999999997</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="9"/>
-        <v>4961.7121116159979</v>
-      </c>
-      <c r="H37">
-        <f t="shared" ref="H37:H38" si="12">$B$8/G37/(1E-24)</f>
-        <v>1.9404592171842521</v>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>-440.54883195999997</v>
+      </c>
+      <c r="D38">
+        <v>27.760117555555599</v>
+      </c>
+      <c r="E38">
+        <v>15.1803044444445</v>
+      </c>
+      <c r="F38">
+        <f>$F$10*B38</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G44" si="13">F38^3</f>
+        <v>4410.9439999999995</v>
+      </c>
+      <c r="H38">
+        <f>$B$8/G38/(1E-24)</f>
+        <v>2.1827527168787459</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1.03</v>
+      </c>
+      <c r="F39">
+        <f>$F$10*B39</f>
+        <v>16.891999999999999</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39" si="14">F39^3</f>
+        <v>4819.9576042879989</v>
+      </c>
+      <c r="H39">
+        <f>$B$8/G39/(1E-24)</f>
+        <v>1.997527943282033</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40:F42" si="15">$F$10*B40</f>
+        <v>16.973999999999997</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40:G42" si="16">F40^3</f>
+        <v>4890.492458423997</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40:H42" si="17">$B$8/G40/(1E-24)</f>
+        <v>1.9687178912658434</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1.04</v>
+      </c>
+      <c r="C41">
+        <v>-433.92137409370702</v>
+      </c>
+      <c r="D41">
+        <v>28.372053240978499</v>
+      </c>
+      <c r="E41">
+        <v>2.6494049757868101</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="15"/>
+        <v>17.055999999999997</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="16"/>
+        <v>4961.7121116159979</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="17"/>
+        <v>1.9404592171842521</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="15"/>
+        <v>17.137999999999998</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="16"/>
+        <v>5033.6198720719985</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="17"/>
+        <v>1.9127387932924718</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43">
         <v>1.05</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="11"/>
+      <c r="C43">
+        <v>-432.84289661068698</v>
+      </c>
+      <c r="D43">
+        <v>28.192274234669298</v>
+      </c>
+      <c r="E43">
+        <v>0.70008494379443598</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43:F44" si="18">$F$10*B43</f>
         <v>17.22</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="9"/>
+      <c r="G43">
+        <f t="shared" si="13"/>
         <v>5106.219047999999</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="12"/>
+      <c r="H43">
+        <f t="shared" ref="H43:H44" si="19">$B$8/G43/(1E-24)</f>
         <v>1.8855438651365908</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J39">
-        <f>I39^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K39" t="e">
-        <f>$L$5/(I39*(10^-24))</f>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>1.06</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="18"/>
+        <v>17.384</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="13"/>
+        <v>5253.5048791040008</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="19"/>
+        <v>1.8326812711825409</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <f>I45^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" t="e">
+        <f>$L$5/(I45*(10^-24))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39">
-        <f>L39/L41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K41" t="s">
+      <c r="M45">
+        <f>L45/L47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
         <v>3</v>
       </c>
-      <c r="L41">
+      <c r="L47">
         <v>100</v>
       </c>
     </row>
@@ -3134,8 +3453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93737921-4FC8-6E4E-AE09-E754D42F2BB1}">
   <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3316,15 +3635,15 @@
         <v>10.5447066666667</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F19" si="0">$F$10*B15</f>
+        <f t="shared" ref="F15" si="0">$F$10*B15</f>
         <v>13.365</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G19" si="1">F15^3</f>
+        <f t="shared" ref="G15" si="1">F15^3</f>
         <v>2387.2994021250001</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H19" si="2">$B$8/G15/(1E-24)</f>
+        <f t="shared" ref="H15" si="2">$B$8/G15/(1E-24)</f>
         <v>1.8079005910017869</v>
       </c>
     </row>
@@ -3332,6 +3651,18 @@
       <c r="B16">
         <v>0.995</v>
       </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F21" si="3">$F$10*B16</f>
+        <v>13.432499999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G21" si="4">F16^3</f>
+        <v>2423.6535955781246</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H21" si="5">$B$8/G16/(1E-24)</f>
+        <v>1.7807825375187272</v>
+      </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
@@ -3347,15 +3678,15 @@
         <v>5.7049977777777796</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2460.375</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.754204135548443</v>
       </c>
     </row>
@@ -3363,6 +3694,18 @@
       <c r="B18">
         <v>1.0049999999999999</v>
       </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>13.567499999999999</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>2497.4654606718746</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>1.7281520277116862</v>
+      </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19">
@@ -3378,15 +3721,15 @@
         <v>1.75789111111111</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13.635</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2534.9268228749997</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.7026132514172492</v>
       </c>
     </row>
@@ -3394,6 +3737,18 @@
       <c r="B20">
         <v>1.0149999999999999</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>13.702499999999999</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>2572.7609318906243</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>1.6775752253157605</v>
+      </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21">
@@ -3409,15 +3764,15 @@
         <v>-1.23301777777778</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21" si="3">$F$10*B21</f>
+        <f t="shared" si="3"/>
         <v>13.77</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21" si="4">F21^3</f>
+        <f t="shared" si="4"/>
         <v>2610.9696329999997</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21" si="5">$B$8/G21/(1E-24)</f>
+        <f t="shared" si="5"/>
         <v>1.653025736282089</v>
       </c>
     </row>
@@ -3568,6 +3923,18 @@
       <c r="B30">
         <v>0.995</v>
       </c>
+      <c r="F30">
+        <f t="shared" ref="F30:F34" si="12">$F$10*B30</f>
+        <v>13.432499999999999</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30:G34" si="13">F30^3</f>
+        <v>2423.6535955781246</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H34" si="14">$B$8/G30/(1E-24)</f>
+        <v>1.7807825375187272</v>
+      </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31">
@@ -3583,15 +3950,15 @@
         <v>2.74336</v>
       </c>
       <c r="F31">
-        <f>$F$10*B31</f>
+        <f t="shared" si="12"/>
         <v>13.5</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31" si="12">F31^3</f>
+        <f t="shared" si="13"/>
         <v>2460.375</v>
       </c>
       <c r="H31">
-        <f>$B$8/G31/(1E-24)</f>
+        <f t="shared" si="14"/>
         <v>1.754204135548443</v>
       </c>
     </row>
@@ -3599,6 +3966,18 @@
       <c r="B32">
         <v>1.0049999999999999</v>
       </c>
+      <c r="F32">
+        <f t="shared" si="12"/>
+        <v>13.567499999999999</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="13"/>
+        <v>2497.4654606718746</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="14"/>
+        <v>1.7281520277116862</v>
+      </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33">
@@ -3614,15 +3993,15 @@
         <v>-0.52531111111111195</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F34" si="13">$F$10*B33</f>
+        <f t="shared" si="12"/>
         <v>13.635</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G34" si="14">F33^3</f>
+        <f t="shared" si="13"/>
         <v>2534.9268228749997</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H34" si="15">$B$8/G33/(1E-24)</f>
+        <f t="shared" si="14"/>
         <v>1.7026132514172492</v>
       </c>
     </row>
@@ -3640,15 +4019,15 @@
         <v>-8.7507800000000007</v>
       </c>
       <c r="F34">
+        <f t="shared" si="12"/>
+        <v>14.040000000000001</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="13"/>
-        <v>14.040000000000001</v>
-      </c>
-      <c r="G34">
+        <v>2767.5872640000007</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="14"/>
-        <v>2767.5872640000007</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="15"/>
         <v>1.5594810888680253</v>
       </c>
       <c r="J34">
@@ -3735,7 +4114,7 @@
         <v>12.42</v>
       </c>
       <c r="G40">
-        <f t="shared" ref="G40:G41" si="16">F40^3</f>
+        <f t="shared" ref="G40:G41" si="15">F40^3</f>
         <v>1915.8644879999997</v>
       </c>
       <c r="H40">
@@ -3757,15 +4136,15 @@
         <v>23.292300000000001</v>
       </c>
       <c r="F41">
-        <f t="shared" ref="F41" si="17">$F$10*B41</f>
+        <f t="shared" ref="F41" si="16">$F$10*B41</f>
         <v>12.959999999999999</v>
       </c>
       <c r="G41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2176.7823359999993</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41" si="18">$B$8/G41/(1E-24)</f>
+        <f t="shared" ref="H41" si="17">$B$8/G41/(1E-24)</f>
         <v>1.9827430279184339</v>
       </c>
     </row>
@@ -3783,15 +4162,15 @@
         <v>10.6015511111111</v>
       </c>
       <c r="F42">
-        <f t="shared" ref="F42:F47" si="19">$F$10*B42</f>
+        <f t="shared" ref="F42:F47" si="18">$F$10*B42</f>
         <v>13.23</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G47" si="20">F42^3</f>
+        <f t="shared" ref="G42:G47" si="19">F42^3</f>
         <v>2315.6852670000003</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H42:H47" si="21">$B$8/G42/(1E-24)</f>
+        <f t="shared" ref="H42:H47" si="20">$B$8/G42/(1E-24)</f>
         <v>1.8638111411363918</v>
       </c>
     </row>
@@ -3809,15 +4188,15 @@
         <v>4.7461599999999997</v>
       </c>
       <c r="F43">
+        <f t="shared" si="18"/>
+        <v>13.365</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="19"/>
-        <v>13.365</v>
-      </c>
-      <c r="G43">
+        <v>2387.2994021250001</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="20"/>
-        <v>2387.2994021250001</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="21"/>
         <v>1.8079005910017869</v>
       </c>
       <c r="I43">
@@ -3853,15 +4232,15 @@
         <v>2.0782466666666601</v>
       </c>
       <c r="F44">
+        <f t="shared" si="18"/>
+        <v>13.432499999999999</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="19"/>
-        <v>13.432499999999999</v>
-      </c>
-      <c r="G44">
+        <v>2423.6535955781246</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="20"/>
-        <v>2423.6535955781246</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="21"/>
         <v>1.7807825375187272</v>
       </c>
     </row>
@@ -3879,15 +4258,15 @@
         <v>0.68576888888888998</v>
       </c>
       <c r="F45">
+        <f t="shared" si="18"/>
+        <v>13.5</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="19"/>
-        <v>13.5</v>
-      </c>
-      <c r="G45">
+        <v>2460.375</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="20"/>
-        <v>2460.375</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="21"/>
         <v>1.754204135548443</v>
       </c>
     </row>
@@ -3905,15 +4284,15 @@
         <v>-1.40970666666666</v>
       </c>
       <c r="F46">
+        <f t="shared" si="18"/>
+        <v>13.567499999999999</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="19"/>
-        <v>13.567499999999999</v>
-      </c>
-      <c r="G46">
+        <v>2497.4654606718746</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="20"/>
-        <v>2497.4654606718746</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="21"/>
         <v>1.7281520277116862</v>
       </c>
     </row>
@@ -3931,15 +4310,15 @@
         <v>-3.5288688888888902</v>
       </c>
       <c r="F47">
+        <f t="shared" si="18"/>
+        <v>13.635</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="19"/>
-        <v>13.635</v>
-      </c>
-      <c r="G47">
+        <v>2534.9268228749997</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="20"/>
-        <v>2534.9268228749997</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="21"/>
         <v>1.7026132514172492</v>
       </c>
       <c r="K47" t="s">
@@ -3958,11 +4337,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B548C73-2FA5-B24C-AF9E-AD3666FD99E2}">
   <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
@@ -4001,9 +4383,15 @@
       <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E15:E22,G15:G22^{1,2})</f>
-        <v>#VALUE!</v>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6:L6">LINEST(E15:E21,G15:G21^{1,2})</f>
+        <v>2.8814351933797289E-5</v>
+      </c>
+      <c r="K6">
+        <v>-0.2318544706138537</v>
+      </c>
+      <c r="L6">
+        <v>463.97065484735128</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -4013,13 +4401,13 @@
       <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="K7" t="e">
+      <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>4313.8369380198519</v>
+      </c>
+      <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
+        <v>3732.6556968502064</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -4051,22 +4439,28 @@
       <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E15:E22,C15:C22^{1,2})</f>
-        <v>#VALUE!</v>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10:L10">LINEST(E15:E21,C15:C21^{1,2})</f>
+        <v>6.9645949910021071E-2</v>
+      </c>
+      <c r="K10">
+        <v>61.116033094751373</v>
+      </c>
+      <c r="L10">
+        <v>13399.703588073315</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="e">
+      <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="e">
+        <v>-428.04352195240619</v>
+      </c>
+      <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
+        <v>-449.48106021942283</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -4144,6 +4538,15 @@
       <c r="B16">
         <v>1.02</v>
       </c>
+      <c r="C16">
+        <v>-453.33315140222197</v>
+      </c>
+      <c r="D16">
+        <v>33.6092355555556</v>
+      </c>
+      <c r="E16">
+        <v>7.7300800000000001</v>
+      </c>
       <c r="F16">
         <f t="shared" ref="F16:F21" si="1">$F$10*B16</f>
         <v>15.096000000000002</v>
@@ -4208,11 +4611,38 @@
         <f t="shared" si="3"/>
         <v>1.9119309976252696</v>
       </c>
+      <c r="I18">
+        <v>3732.6556968502064</v>
+      </c>
+      <c r="J18">
+        <f>I18^(1/3)</f>
+        <v>15.512173159079465</v>
+      </c>
+      <c r="K18">
+        <f>$B$8/(I18*(10^-24))</f>
+        <v>1.8678390310371533</v>
+      </c>
+      <c r="L18">
+        <v>-449.48106021942283</v>
+      </c>
+      <c r="M18">
+        <f>L18/L20</f>
+        <v>-4.494810602194228</v>
+      </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>1.0449999999999999</v>
       </c>
+      <c r="C19">
+        <v>-449.54346788666697</v>
+      </c>
+      <c r="D19">
+        <v>33.970033333333397</v>
+      </c>
+      <c r="E19">
+        <v>0.78375111111111195</v>
+      </c>
       <c r="F19">
         <f t="shared" si="1"/>
         <v>15.465999999999999</v>
@@ -4251,11 +4681,26 @@
         <f t="shared" si="3"/>
         <v>1.8578229994279247</v>
       </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>1.0549999999999999</v>
       </c>
+      <c r="C21">
+        <v>-448.613515631111</v>
+      </c>
+      <c r="D21">
+        <v>33.475776666666697</v>
+      </c>
+      <c r="E21">
+        <v>-0.93541777777777901</v>
+      </c>
       <c r="F21">
         <f t="shared" si="1"/>
         <v>15.613999999999999</v>
@@ -4268,302 +4713,411 @@
         <f t="shared" si="3"/>
         <v>1.8315334440610664</v>
       </c>
-      <c r="J21">
-        <f>I21^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" t="e">
-        <f>$B$8/(I21*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21">
-        <f>L21/L23</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K23" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>100</v>
+      <c r="B23">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>1200</v>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H26" t="s">
-        <v>23</v>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>-459.30742201555603</v>
+      </c>
+      <c r="D26">
+        <v>31.185650444444502</v>
+      </c>
+      <c r="E26">
+        <v>12.14148</v>
+      </c>
+      <c r="F26">
+        <f>$F$10*B26</f>
+        <v>14.8</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26" si="4">F26^3</f>
+        <v>3241.7920000000004</v>
+      </c>
+      <c r="H26">
+        <f>$B$8/G26/(1E-24)</f>
+        <v>2.1506623497127517</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" t="s">
-        <v>32</v>
+      <c r="B27">
+        <v>1.01</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F32" si="5">$F$10*B27</f>
+        <v>14.948</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G32" si="6">F27^3</f>
+        <v>3340.0215393920002</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H32" si="7">$B$8/G27/(1E-24)</f>
+        <v>2.087411688150115</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="C28">
-        <v>-459.30742201555603</v>
+        <v>-457.205277226666</v>
       </c>
       <c r="D28">
-        <v>31.185650444444502</v>
+        <v>30.983483555555601</v>
       </c>
       <c r="E28">
-        <v>12.14148</v>
+        <v>4.8706044444444503</v>
       </c>
       <c r="F28">
-        <f>$F$10*B28</f>
-        <v>14.8</v>
+        <f t="shared" si="5"/>
+        <v>15.096000000000002</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:G32" si="4">F28^3</f>
-        <v>3241.7920000000004</v>
+        <f t="shared" si="6"/>
+        <v>3440.2156047360013</v>
       </c>
       <c r="H28">
-        <f>$B$8/G28/(1E-24)</f>
-        <v>2.1506623497127517</v>
+        <f t="shared" si="7"/>
+        <v>2.0266171662037515</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>1.02</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="F29">
-        <f>$F$10*B29</f>
-        <v>15.096000000000002</v>
+        <f t="shared" si="5"/>
+        <v>15.17</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29" si="5">F29^3</f>
-        <v>3440.2156047360013</v>
+        <f t="shared" si="6"/>
+        <v>3491.0554129999996</v>
       </c>
       <c r="H29">
-        <f>$B$8/G29/(1E-24)</f>
-        <v>2.0266171662037515</v>
+        <f t="shared" si="7"/>
+        <v>1.997103791030544</v>
+      </c>
+      <c r="J29">
+        <f>I29^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" t="e">
+        <f>$B$8/(I29*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29">
+        <f>L29/L31</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>1.03</v>
       </c>
+      <c r="C30">
+        <v>-456.27936116444403</v>
+      </c>
+      <c r="D30">
+        <v>30.471348222222201</v>
+      </c>
+      <c r="E30">
+        <v>1.63444888888889</v>
+      </c>
       <c r="F30">
-        <f t="shared" ref="F30:F32" si="6">$F$10*B30</f>
+        <f t="shared" si="5"/>
         <v>15.244000000000002</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3542.3936467840012</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H32" si="7">$B$8/G30/(1E-24)</f>
+        <f t="shared" si="7"/>
         <v>1.9681607114244921</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>1.04</v>
-      </c>
-      <c r="C31">
-        <v>-453.66111071777698</v>
-      </c>
-      <c r="D31">
-        <v>30.932819333333299</v>
-      </c>
-      <c r="E31">
-        <v>-0.94787777777778004</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="F31">
+        <f t="shared" si="5"/>
+        <v>15.318</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="6"/>
-        <v>15.392000000000001</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="4"/>
-        <v>3646.575116288001</v>
+        <v>3594.2327374319998</v>
       </c>
       <c r="H31">
         <f t="shared" si="7"/>
+        <v>1.9397742186782656</v>
+      </c>
+      <c r="K31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1.04</v>
+      </c>
+      <c r="C32">
+        <v>-453.66111071777698</v>
+      </c>
+      <c r="D32">
+        <v>30.932819333333299</v>
+      </c>
+      <c r="E32">
+        <v>-0.94787777777778004</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>15.392000000000001</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>3646.575116288001</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="7"/>
         <v>1.9119309976252696</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H32" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J33">
-        <f>I33^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" t="e">
-        <f>$B$8/(I33*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33">
-        <f>L33/L35</f>
-        <v>0</v>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1100</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K35" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>100</v>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>1100</v>
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>-463.09234021111098</v>
+      </c>
+      <c r="D37">
+        <v>28.0646857777778</v>
+      </c>
+      <c r="E37">
+        <v>8.8197577777777791</v>
+      </c>
+      <c r="F37">
+        <f>$F$10*B37</f>
+        <v>14.8</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37:G44" si="8">F37^3</f>
+        <v>3241.7920000000004</v>
+      </c>
+      <c r="H37">
+        <f>$B$8/G37/(1E-24)</f>
+        <v>2.1506623497127517</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H38" t="s">
-        <v>23</v>
+      <c r="B38">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:F42" si="9">$F$10*B38</f>
+        <v>14.873999999999999</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G42" si="10">F38^3</f>
+        <v>3290.6624196239991</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38:H42" si="11">$B$8/G38/(1E-24)</f>
+        <v>2.118722345513838</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I39" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" t="s">
-        <v>32</v>
+      <c r="B39">
+        <v>1.01</v>
+      </c>
+      <c r="C39">
+        <v>-461.83821386666602</v>
+      </c>
+      <c r="D39">
+        <v>28.355676222222201</v>
+      </c>
+      <c r="E39">
+        <v>5.7836466666666704</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="9"/>
+        <v>14.948</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="10"/>
+        <v>3340.0215393920002</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="11"/>
+        <v>2.087411688150115</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>-463.09234021111098</v>
-      </c>
-      <c r="D40">
-        <v>28.0646857777778</v>
-      </c>
-      <c r="E40">
-        <v>8.8197577777777791</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="F40">
-        <f>$F$10*B40</f>
-        <v>14.8</v>
+        <f t="shared" si="9"/>
+        <v>15.021999999999998</v>
       </c>
       <c r="G40">
-        <f t="shared" ref="G40:G44" si="8">F40^3</f>
-        <v>3241.7920000000004</v>
+        <f t="shared" si="10"/>
+        <v>3389.8717906479988</v>
       </c>
       <c r="H40">
-        <f>$B$8/G40/(1E-24)</f>
-        <v>2.1506623497127517</v>
+        <f t="shared" si="11"/>
+        <v>2.0567149528293083</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>1.01</v>
+        <v>1.02</v>
+      </c>
+      <c r="C41">
+        <v>-459.86124477777798</v>
+      </c>
+      <c r="D41">
+        <v>28.303054444444498</v>
+      </c>
+      <c r="E41">
+        <v>2.5470222222222199</v>
       </c>
       <c r="F41">
-        <f t="shared" ref="F41:F42" si="9">$F$10*B41</f>
-        <v>14.948</v>
+        <f t="shared" si="9"/>
+        <v>15.096000000000002</v>
       </c>
       <c r="G41">
-        <f t="shared" ref="G41:G42" si="10">F41^3</f>
-        <v>3340.0215393920002</v>
+        <f t="shared" si="10"/>
+        <v>3440.2156047360013</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41:H42" si="11">$B$8/G41/(1E-24)</f>
-        <v>2.087411688150115</v>
+        <f t="shared" si="11"/>
+        <v>2.0266171662037515</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>1.02</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="F42">
         <f t="shared" si="9"/>
-        <v>15.096000000000002</v>
+        <v>15.17</v>
       </c>
       <c r="G42">
         <f t="shared" si="10"/>
-        <v>3440.2156047360013</v>
+        <v>3491.0554129999996</v>
       </c>
       <c r="H42">
         <f t="shared" si="11"/>
-        <v>2.0266171662037515</v>
+        <v>1.997103791030544</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>1.03</v>
+      </c>
+      <c r="C43">
+        <v>-458.12369049111101</v>
+      </c>
+      <c r="D43">
+        <v>28.531715777777801</v>
+      </c>
+      <c r="E43">
+        <v>-0.51951111111111103</v>
       </c>
       <c r="F43">
         <f t="shared" ref="F43:F44" si="12">$F$10*B43</f>

--- a/SALT/FLiNaK.xlsx
+++ b/SALT/FLiNaK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700DC072-A201-A04F-9FED-9F30C645E8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F020377-F1E4-F144-ACEA-5F39EC6A01F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="3740" windowWidth="24520" windowHeight="21220" activeTab="7" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="24520" windowHeight="20760" activeTab="8" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="0.40.60" sheetId="2" r:id="rId3"/>
     <sheet name="51.0.49" sheetId="3" r:id="rId4"/>
     <sheet name="61.39.0" sheetId="4" r:id="rId5"/>
-    <sheet name="KF" sheetId="5" r:id="rId6"/>
-    <sheet name="LiF" sheetId="6" r:id="rId7"/>
-    <sheet name="NaF" sheetId="7" r:id="rId8"/>
+    <sheet name="LiF" sheetId="6" r:id="rId6"/>
+    <sheet name="NaF" sheetId="7" r:id="rId7"/>
+    <sheet name="KF" sheetId="5" r:id="rId8"/>
     <sheet name="summary" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="42">
   <si>
     <t>#atoms</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>61.39.0</t>
+  </si>
+  <si>
+    <t>100.0.0</t>
+  </si>
+  <si>
+    <t>0.100.0</t>
+  </si>
+  <si>
+    <t>0.0.100</t>
   </si>
 </sst>
 </file>
@@ -4074,7 +4083,7 @@
   <dimension ref="B2:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I43" activeCellId="3" sqref="I14:M14 I18:M18 I30:M30 I43:M43"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4933,10 +4942,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EB486-C215-BA4A-94EA-40A0116C6EBC}">
-  <dimension ref="B2:M41"/>
+  <dimension ref="B2:M42"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4979,7 +4988,7 @@
         <v>19</v>
       </c>
       <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E15:E20,G15:G20^{1,2})</f>
+        <f t="array" ref="J6">LINEST(E15:E21,G15:G21^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -5030,7 +5039,7 @@
         <v>19</v>
       </c>
       <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E15:E20,C15:C20^{1,2})</f>
+        <f t="array" ref="J10">LINEST(E15:E21,C15:C21^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -5096,6 +5105,15 @@
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>-569.64009864666605</v>
+      </c>
+      <c r="D15">
+        <v>33.392528888888897</v>
+      </c>
+      <c r="E15">
+        <v>12.4579511111111</v>
+      </c>
       <c r="F15">
         <f>$F$10*B15</f>
         <v>15.219832</v>
@@ -5109,246 +5127,321 @@
         <v>1.9624844420144538</v>
       </c>
     </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1.01</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F18" si="1">$F$10*B16</f>
+        <v>15.37203032</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G18" si="2">F16^3</f>
+        <v>3632.4002525914034</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H18" si="3">$B$8/G16/(1E-24)</f>
+        <v>1.9047680648805094</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>15.52422864</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>3741.365103258192</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>1.849292920911314</v>
+      </c>
+    </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J18">
-        <f>I18^(1/3)</f>
+      <c r="B18">
+        <v>1.03</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>15.676426960000001</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>3852.4876039268588</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>1.7959512687198669</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f>I19^(1/3)</f>
         <v>0</v>
       </c>
-      <c r="K18" t="e">
-        <f>$L$5/(I18*(10^-24))</f>
+      <c r="K19" t="e">
+        <f>$L$5/(I19*(10^-24))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18">
-        <f>L18/L20</f>
+      <c r="M19">
+        <f>L19/L21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K20" t="s">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
         <v>3</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H23" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>28</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H25" t="s">
         <v>29</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I25" t="s">
         <v>30</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J25" t="s">
         <v>27</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K25" t="s">
         <v>29</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L25" t="s">
         <v>31</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M25" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <f>$F$10*B25</f>
-        <v>15.219832</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ref="G25" si="1">F25^3</f>
-        <v>3525.5718984951031</v>
-      </c>
-      <c r="H25">
-        <f>$B$8/G25/(1E-24)</f>
-        <v>1.9624844420144538</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>1.01</v>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f>$F$10*B26</f>
+        <v>15.219832</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26" si="4">F26^3</f>
+        <v>3525.5718984951031</v>
+      </c>
+      <c r="H26">
+        <f>$B$8/G26/(1E-24)</f>
+        <v>1.9624844420144538</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27">
+        <v>1.01</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F28" si="5">$F$10*B27</f>
+        <v>15.37203032</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G28" si="6">F27^3</f>
+        <v>3632.4002525914034</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H28" si="7">$B$8/G27/(1E-24)</f>
+        <v>1.9047680648805094</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J28">
-        <f>I28^(1/3)</f>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>15.52422864</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>3741.365103258192</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
+        <v>1.849292920911314</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <f>I29^(1/3)</f>
         <v>0</v>
       </c>
-      <c r="K28" t="e">
-        <f>$L$5/(I28*(10^-24))</f>
+      <c r="K29" t="e">
+        <f>$L$5/(I29*(10^-24))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28">
-        <f>L28/L30</f>
+      <c r="M29">
+        <f>L29/L31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K30" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
         <v>3</v>
       </c>
-      <c r="L30">
+      <c r="L31">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H33" t="s">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>24</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>25</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>26</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>27</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>28</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H35" t="s">
         <v>29</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I35" t="s">
         <v>30</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J35" t="s">
         <v>27</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K35" t="s">
         <v>29</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L35" t="s">
         <v>31</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M35" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>0.99</v>
-      </c>
-      <c r="F35">
-        <f>$F$10*B35</f>
-        <v>15.06763368</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ref="G35" si="2">F35^3</f>
-        <v>3420.8588875379</v>
-      </c>
-      <c r="H35">
-        <f>$B$8/G35/(1E-24)</f>
-        <v>2.0225563893340652</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>-577.20431783111098</v>
-      </c>
-      <c r="D36">
-        <v>28.048759555555598</v>
-      </c>
-      <c r="E36">
-        <v>6.8639311111111203</v>
+        <v>0.99</v>
       </c>
       <c r="F36">
         <f>$F$10*B36</f>
-        <v>15.219832</v>
+        <v>15.06763368</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36" si="3">F36^3</f>
-        <v>3525.5718984951031</v>
+        <f t="shared" ref="G36" si="8">F36^3</f>
+        <v>3420.8588875379</v>
       </c>
       <c r="H36">
         <f>$B$8/G36/(1E-24)</f>
-        <v>1.9624844420144538</v>
+        <v>2.0225563893340652</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>1.01</v>
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>-577.20431783111098</v>
+      </c>
+      <c r="D37">
+        <v>28.048759555555598</v>
+      </c>
+      <c r="E37">
+        <v>6.8639311111111203</v>
       </c>
       <c r="F37">
         <f>$F$10*B37</f>
-        <v>15.37203032</v>
+        <v>15.219832</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37" si="4">F37^3</f>
-        <v>3632.4002525914034</v>
+        <f t="shared" ref="G37" si="9">F37^3</f>
+        <v>3525.5718984951031</v>
       </c>
       <c r="H37">
         <f>$B$8/G37/(1E-24)</f>
+        <v>1.9624844420144538</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1.01</v>
+      </c>
+      <c r="F38">
+        <f>$F$10*B38</f>
+        <v>15.37203032</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38" si="10">F38^3</f>
+        <v>3632.4002525914034</v>
+      </c>
+      <c r="H38">
+        <f>$B$8/G38/(1E-24)</f>
         <v>1.9047680648805094</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J39">
-        <f>I39^(1/3)</f>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <f>I40^(1/3)</f>
         <v>0</v>
       </c>
-      <c r="K39" t="e">
-        <f>$L$5/(I39*(10^-24))</f>
+      <c r="K40" t="e">
+        <f>$L$5/(I40*(10^-24))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39">
-        <f>L39/L41</f>
+      <c r="M40">
+        <f>L40/L42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K41" t="s">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
         <v>3</v>
       </c>
-      <c r="L41">
+      <c r="L42">
         <v>100</v>
       </c>
     </row>
@@ -5359,10 +5452,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350EA8ED-C68E-1740-8FFB-D44F1BF7B044}">
-  <dimension ref="B2:M43"/>
+  <dimension ref="B2:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5405,7 +5498,7 @@
         <v>19</v>
       </c>
       <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E15:E20,G15:G20^{1,2})</f>
+        <f t="array" ref="J6">LINEST(E16:E21,G16:G21^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -5455,7 +5548,7 @@
         <v>19</v>
       </c>
       <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E15:E20,C15:C20^{1,2})</f>
+        <f t="array" ref="J10">LINEST(E16:E21,C16:C21^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -5519,255 +5612,407 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15">
+        <v>0.99</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F16" si="0">$F$10*B15</f>
+        <v>16.5825</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G16" si="1">F15^3</f>
+        <v>4559.8443458906249</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H16" si="2">$B$8/G15/(1E-24)</f>
+        <v>1.1736891863037231</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="F15">
-        <f>$F$10*B15</f>
+      <c r="C16">
+        <v>-601.87902972474399</v>
+      </c>
+      <c r="D16">
+        <v>33.424890251745502</v>
+      </c>
+      <c r="E16">
+        <v>5.8614093476959903</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
         <v>16.75</v>
       </c>
-      <c r="G15">
-        <f t="shared" ref="G15:G16" si="0">F15^3</f>
+      <c r="G16">
+        <f t="shared" si="1"/>
         <v>4699.421875</v>
       </c>
-      <c r="H15">
-        <f>$B$8/G15/(1E-24)</f>
+      <c r="H16">
+        <f t="shared" si="2"/>
         <v>1.1388294437813162</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F16">
-        <f t="shared" ref="F16" si="1">$F$10*B16</f>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1.01</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17" si="3">$F$10*B17</f>
+        <v>16.9175</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17" si="4">F17^3</f>
+        <v>4841.8190572343756</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17" si="5">$B$8/G17/(1E-24)</f>
+        <v>1.1053366383040646</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18" si="6">$F$10*B18</f>
+        <v>17.085000000000001</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18" si="7">F18^3</f>
+        <v>4987.0640891250014</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18" si="8">$B$8/G18/(1E-24)</f>
+        <v>1.0731444201149216</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f>I19^(1/3)</f>
         <v>0</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
+      <c r="K19" t="e">
+        <f>$B$8/(I19*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19">
+        <f>L19/L21</f>
         <v>0</v>
       </c>
-      <c r="H16" t="e">
-        <f t="shared" ref="H16" si="2">$B$8/G16/(1E-24)</f>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>0.98</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:F27" si="9">$F$10*B26</f>
+        <v>16.414999999999999</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G27" si="10">F26^3</f>
+        <v>4423.0582733749998</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:H27" si="11">$B$8/G26/(1E-24)</f>
+        <v>1.2099863192433811</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>0.99</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="9"/>
+        <v>16.5825</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="10"/>
+        <v>4559.8443458906249</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="11"/>
+        <v>1.1736891863037231</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>-605.25256366444501</v>
+      </c>
+      <c r="D28">
+        <v>30.706834666666602</v>
+      </c>
+      <c r="E28">
+        <v>2.65153111111111</v>
+      </c>
+      <c r="F28">
+        <f>$F$10*B28</f>
+        <v>16.75</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:G29" si="12">F28^3</f>
+        <v>4699.421875</v>
+      </c>
+      <c r="H28">
+        <f>$B$8/G28/(1E-24)</f>
+        <v>1.1388294437813162</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1.01</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29" si="13">$F$10*B29</f>
+        <v>16.9175</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="12"/>
+        <v>4841.8190572343756</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29" si="14">$B$8/G29/(1E-24)</f>
+        <v>1.1053366383040646</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <f>I31^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" t="e">
+        <f>$B$8/(I31*(10^-24))</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J18">
-        <f>I18^(1/3)</f>
+      <c r="M31">
+        <f>L31/L33</f>
         <v>0</v>
       </c>
-      <c r="K18" t="e">
-        <f>$B$8/(I18*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18">
-        <f>L18/L20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K20" t="s">
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
         <v>3</v>
       </c>
-      <c r="L20">
+      <c r="L33">
         <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <f>$F$10*B25</f>
-        <v>16.75</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ref="G25:G26" si="3">F25^3</f>
-        <v>4699.421875</v>
-      </c>
-      <c r="H25">
-        <f>$B$8/G25/(1E-24)</f>
-        <v>1.1388294437813162</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F26">
-        <f t="shared" ref="F26" si="4">$F$10*B26</f>
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H26" t="e">
-        <f t="shared" ref="H26" si="5">$B$8/G26/(1E-24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J28">
-        <f>I28^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" t="e">
-        <f>$B$8/(I28*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28">
-        <f>L28/L30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K30" t="s">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" t="s">
-        <v>30</v>
-      </c>
-      <c r="J34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" t="s">
-        <v>31</v>
-      </c>
-      <c r="M34" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>0.97</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:F40" si="15">$F$10*B38</f>
+        <v>16.247499999999999</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G40" si="16">F38^3</f>
+        <v>4289.0354609218739</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38:H40" si="17">$B$8/G38/(1E-24)</f>
+        <v>1.2477956987675942</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>0.98</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="15"/>
+        <v>16.414999999999999</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="16"/>
+        <v>4423.0582733749998</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="17"/>
+        <v>1.2099863192433811</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>0.99</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="15"/>
+        <v>16.5825</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="16"/>
+        <v>4559.8443458906249</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="17"/>
+        <v>1.1736891863037231</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41">
         <v>1</v>
       </c>
-      <c r="F35">
-        <f>$F$10*B35</f>
+      <c r="C41">
+        <v>-607.80930280222196</v>
+      </c>
+      <c r="D41">
+        <v>28.271678444444401</v>
+      </c>
+      <c r="E41">
+        <v>-0.50625111111111099</v>
+      </c>
+      <c r="F41">
+        <f>$F$10*B41</f>
         <v>16.75</v>
       </c>
-      <c r="G35">
-        <f t="shared" ref="G35:G36" si="6">F35^3</f>
+      <c r="G41">
+        <f t="shared" ref="G41:G42" si="18">F41^3</f>
         <v>4699.421875</v>
       </c>
-      <c r="H35">
-        <f>$B$8/G35/(1E-24)</f>
+      <c r="H41">
+        <f>$B$8/G41/(1E-24)</f>
         <v>1.1388294437813162</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F36">
-        <f t="shared" ref="F36" si="7">$F$10*B36</f>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <f t="shared" ref="F42" si="19">$F$10*B42</f>
         <v>0</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="6"/>
+      <c r="G42">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H36" t="e">
-        <f t="shared" ref="H36" si="8">$B$8/G36/(1E-24)</f>
+      <c r="H42" t="e">
+        <f t="shared" ref="H42" si="20">$B$8/G42/(1E-24)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J38">
-        <f>I38^(1/3)</f>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <f>I44^(1/3)</f>
         <v>0</v>
       </c>
-      <c r="K38" t="e">
-        <f>$B$8/(I38*(10^-24))</f>
+      <c r="K44" t="e">
+        <f>$B$8/(I44*(10^-24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38">
-        <f>L38/L40</f>
+      <c r="M44">
+        <f>L44/L46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K40" t="s">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
         <v>3</v>
       </c>
-      <c r="L40">
+      <c r="L46">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M43">
+    <row r="49" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M49">
         <f>67351.986/3600</f>
         <v>18.708885000000002</v>
       </c>
@@ -5778,819 +6023,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54DDCEF-2A04-AC4A-B085-1BC5E6C44A8B}">
-  <dimension ref="B2:Q49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <f>857+273</f>
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E15:E23,G15:G23^{1,2})</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="e">
-        <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
-        <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>9.628E-21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E15:E23,C15:C23^{1,2})</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" t="e">
-        <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="e">
-        <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1.3281999999999999E-5</v>
-      </c>
-      <c r="P11" s="1">
-        <v>-0.14873</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>415.46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>1300</v>
-      </c>
-      <c r="O12" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12">
-        <f>(-P11+SQRT(P11^2-4*O11*Q11))/(2*O11)</f>
-        <v>5859.8893499363649</v>
-      </c>
-      <c r="Q12">
-        <f>(-P11-SQRT(P11^2-4*O11*Q11))/(2*O11)</f>
-        <v>5337.9724178696897</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>-432.27106012444398</v>
-      </c>
-      <c r="D15">
-        <v>33.883338444444398</v>
-      </c>
-      <c r="E15">
-        <v>21.5077844444444</v>
-      </c>
-      <c r="F15">
-        <f>$F$10*B15</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ref="G15:G16" si="0">F15^3</f>
-        <v>4410.9439999999995</v>
-      </c>
-      <c r="H15">
-        <f>$B$8/G15/(1E-24)</f>
-        <v>2.1827527168787459</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>1.04</v>
-      </c>
-      <c r="C16">
-        <v>-429.81277186668001</v>
-      </c>
-      <c r="D16">
-        <v>32.7938159701635</v>
-      </c>
-      <c r="E16">
-        <v>6.4868391520001296</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ref="F16" si="1">$F$10*B16</f>
-        <v>17.055999999999997</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>4961.7121116159979</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16" si="2">$B$8/G16/(1E-24)</f>
-        <v>1.9404592171842521</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>1.05</v>
-      </c>
-      <c r="C17">
-        <v>-427.05048400444502</v>
-      </c>
-      <c r="D17">
-        <v>33.306976888888897</v>
-      </c>
-      <c r="E17">
-        <v>4.0284088888888903</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F20" si="3">$F$10*B17</f>
-        <v>17.22</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ref="G17:G20" si="4">F17^3</f>
-        <v>5106.219047999999</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ref="H17:H20" si="5">$B$8/G17/(1E-24)</f>
-        <v>1.8855438651365908</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>1.06</v>
-      </c>
-      <c r="C18">
-        <v>-425.81034450864598</v>
-      </c>
-      <c r="D18">
-        <v>33.238800140412202</v>
-      </c>
-      <c r="E18">
-        <v>2.5227040205614801</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>17.384</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>5253.5048791040008</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="5"/>
-        <v>1.8326812711825409</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>1.07</v>
-      </c>
-      <c r="C19">
-        <v>-424.11519674444497</v>
-      </c>
-      <c r="D19">
-        <v>33.075399555555499</v>
-      </c>
-      <c r="E19">
-        <v>0.544993333333332</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="3"/>
-        <v>17.547999999999998</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>5403.5960705919979</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="5"/>
-        <v>1.7817764085658596</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>1.08</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="3"/>
-        <v>17.712</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
-        <v>5556.5190881279996</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="5"/>
-        <v>1.7327394808327186</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J21">
-        <f>I21^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" t="e">
-        <f>$L$5/(I21*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M21">
-        <f>L21/L23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K23" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>-435.90243129777798</v>
-      </c>
-      <c r="D27">
-        <v>30.9946511111111</v>
-      </c>
-      <c r="E27">
-        <v>17.841699999999999</v>
-      </c>
-      <c r="F27">
-        <f>$F$10*B27</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ref="G27:G31" si="6">F27^3</f>
-        <v>4410.9439999999995</v>
-      </c>
-      <c r="H27">
-        <f>$B$8/G27/(1E-24)</f>
-        <v>2.1827527168787459</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>1.03</v>
-      </c>
-      <c r="C29">
-        <v>-432.78837558222199</v>
-      </c>
-      <c r="D29">
-        <v>30.797200222222202</v>
-      </c>
-      <c r="E29">
-        <v>7.5340422222222196</v>
-      </c>
-      <c r="F29">
-        <f>$F$10*B29</f>
-        <v>16.891999999999999</v>
-      </c>
-      <c r="G29">
-        <f t="shared" ref="G29" si="7">F29^3</f>
-        <v>4819.9576042879989</v>
-      </c>
-      <c r="H29">
-        <f>$B$8/G29/(1E-24)</f>
-        <v>1.997527943282033</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>1.04</v>
-      </c>
-      <c r="C30">
-        <v>-431.03502818222199</v>
-      </c>
-      <c r="D30">
-        <v>31.144508444444501</v>
-      </c>
-      <c r="E30">
-        <v>4.6198866666666696</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ref="F30:F31" si="8">$F$10*B30</f>
-        <v>17.055999999999997</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="6"/>
-        <v>4961.7121116159979</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ref="H30:H31" si="9">$B$8/G30/(1E-24)</f>
-        <v>1.9404592171842521</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>1.05</v>
-      </c>
-      <c r="C31">
-        <v>-430.39521584444401</v>
-      </c>
-      <c r="D31">
-        <v>30.508274666666701</v>
-      </c>
-      <c r="E31">
-        <v>2.1457177777777798</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="8"/>
-        <v>17.22</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="6"/>
-        <v>5106.219047999999</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="9"/>
-        <v>1.8855438651365908</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>1.06</v>
-      </c>
-      <c r="C32">
-        <v>-429.11686279111098</v>
-      </c>
-      <c r="D32">
-        <v>30.364003555555598</v>
-      </c>
-      <c r="E32">
-        <v>0.77020666666666704</v>
-      </c>
-      <c r="F32">
-        <f t="shared" ref="F32:F33" si="10">$F$10*B32</f>
-        <v>17.384</v>
-      </c>
-      <c r="G32">
-        <f t="shared" ref="G32:G33" si="11">F32^3</f>
-        <v>5253.5048791040008</v>
-      </c>
-      <c r="H32">
-        <f t="shared" ref="H32:H33" si="12">$B$8/G32/(1E-24)</f>
-        <v>1.8326812711825409</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>1.07</v>
-      </c>
-      <c r="C33">
-        <v>-426.53361657777799</v>
-      </c>
-      <c r="D33">
-        <v>30.749323111111099</v>
-      </c>
-      <c r="E33">
-        <v>-0.85436888888888896</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="10"/>
-        <v>17.547999999999998</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="11"/>
-        <v>5403.5960705919979</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="12"/>
-        <v>1.7817764085658596</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J34">
-        <f>I34^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" t="e">
-        <f>$B$8/(I34*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34">
-        <f>L34/L36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I39" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K39" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>-440.54883195999997</v>
-      </c>
-      <c r="D40">
-        <v>27.760117555555599</v>
-      </c>
-      <c r="E40">
-        <v>15.1803044444445</v>
-      </c>
-      <c r="F40">
-        <f>$F$10*B40</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G40">
-        <f t="shared" ref="G40:G46" si="13">F40^3</f>
-        <v>4410.9439999999995</v>
-      </c>
-      <c r="H40">
-        <f>$B$8/G40/(1E-24)</f>
-        <v>2.1827527168787459</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41">
-        <v>1.03</v>
-      </c>
-      <c r="C41">
-        <v>-436.32251206246201</v>
-      </c>
-      <c r="D41">
-        <v>27.818644237776599</v>
-      </c>
-      <c r="E41">
-        <v>5.4871186468344497</v>
-      </c>
-      <c r="F41">
-        <f>$F$10*B41</f>
-        <v>16.891999999999999</v>
-      </c>
-      <c r="G41">
-        <f t="shared" ref="G41" si="14">F41^3</f>
-        <v>4819.9576042879989</v>
-      </c>
-      <c r="H41">
-        <f>$B$8/G41/(1E-24)</f>
-        <v>1.997527943282033</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42">
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="F42">
-        <f t="shared" ref="F42:F44" si="15">$F$10*B42</f>
-        <v>16.973999999999997</v>
-      </c>
-      <c r="G42">
-        <f t="shared" ref="G42:G44" si="16">F42^3</f>
-        <v>4890.492458423997</v>
-      </c>
-      <c r="H42">
-        <f t="shared" ref="H42:H44" si="17">$B$8/G42/(1E-24)</f>
-        <v>1.9687178912658434</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <v>1.04</v>
-      </c>
-      <c r="C43">
-        <v>-433.92137409370702</v>
-      </c>
-      <c r="D43">
-        <v>28.372053240978499</v>
-      </c>
-      <c r="E43">
-        <v>2.6494049757868101</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="15"/>
-        <v>17.055999999999997</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="16"/>
-        <v>4961.7121116159979</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="17"/>
-        <v>1.9404592171842521</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="15"/>
-        <v>17.137999999999998</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="16"/>
-        <v>5033.6198720719985</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="17"/>
-        <v>1.9127387932924718</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B45">
-        <v>1.05</v>
-      </c>
-      <c r="C45">
-        <v>-432.84289661068698</v>
-      </c>
-      <c r="D45">
-        <v>28.192274234669298</v>
-      </c>
-      <c r="E45">
-        <v>0.70008494379443598</v>
-      </c>
-      <c r="F45">
-        <f t="shared" ref="F45:F46" si="18">$F$10*B45</f>
-        <v>17.22</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="13"/>
-        <v>5106.219047999999</v>
-      </c>
-      <c r="H45">
-        <f t="shared" ref="H45:H46" si="19">$B$8/G45/(1E-24)</f>
-        <v>1.8855438651365908</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <v>1.06</v>
-      </c>
-      <c r="C46">
-        <v>-431.64412071999999</v>
-      </c>
-      <c r="D46">
-        <v>28.267058666666699</v>
-      </c>
-      <c r="E46">
-        <v>-1.0107666666666699</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="18"/>
-        <v>17.384</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="13"/>
-        <v>5253.5048791040008</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="19"/>
-        <v>1.8326812711825409</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J47">
-        <f>I47^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K47" t="e">
-        <f>$L$5/(I47*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M47">
-        <f>L47/L49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K49" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93737921-4FC8-6E4E-AE09-E754D42F2BB1}">
   <dimension ref="B2:M47"/>
   <sheetViews>
@@ -7588,12 +7020,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B548C73-2FA5-B24C-AF9E-AD3666FD99E2}">
   <dimension ref="B2:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I29" activeCellId="1" sqref="I18:M18 I29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8514,12 +7946,889 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54DDCEF-2A04-AC4A-B085-1BC5E6C44A8B}">
+  <dimension ref="B2:Q51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41:H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <f>857+273</f>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="e" cm="1">
+        <f t="array" ref="J6">LINEST(E15:E24,G15:G24^{1,2})</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="e">
+        <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" t="e">
+        <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>9.628E-21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="e" cm="1">
+        <f t="array" ref="J10">LINEST(E15:E24,C15:C24^{1,2})</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="e">
+        <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" t="e">
+        <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.3281999999999999E-5</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-0.14873</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>415.46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1300</v>
+      </c>
+      <c r="O12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12">
+        <f>(-P11+SQRT(P11^2-4*O11*Q11))/(2*O11)</f>
+        <v>5859.8893499363649</v>
+      </c>
+      <c r="Q12">
+        <f>(-P11-SQRT(P11^2-4*O11*Q11))/(2*O11)</f>
+        <v>5337.9724178696897</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>-432.27106012444398</v>
+      </c>
+      <c r="D15">
+        <v>33.883338444444398</v>
+      </c>
+      <c r="E15">
+        <v>21.5077844444444</v>
+      </c>
+      <c r="F15">
+        <f>$F$10*B15</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G17" si="0">F15^3</f>
+        <v>4410.9439999999995</v>
+      </c>
+      <c r="H15">
+        <f>$B$8/G15/(1E-24)</f>
+        <v>2.1827527168787459</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1.03</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F17" si="1">$F$10*B16</f>
+        <v>16.891999999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G17" si="2">F16^3</f>
+        <v>4819.9576042879989</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H17" si="3">$B$8/G16/(1E-24)</f>
+        <v>1.997527943282033</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1.04</v>
+      </c>
+      <c r="C17">
+        <v>-429.81277186668001</v>
+      </c>
+      <c r="D17">
+        <v>32.7938159701635</v>
+      </c>
+      <c r="E17">
+        <v>6.4868391520001296</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>17.055999999999997</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>4961.7121116159979</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>1.9404592171842521</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>-427.05048400444502</v>
+      </c>
+      <c r="D18">
+        <v>33.306976888888897</v>
+      </c>
+      <c r="E18">
+        <v>4.0284088888888903</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F21" si="4">$F$10*B18</f>
+        <v>17.22</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G21" si="5">F18^3</f>
+        <v>5106.219047999999</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H21" si="6">$B$8/G18/(1E-24)</f>
+        <v>1.8855438651365908</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1.06</v>
+      </c>
+      <c r="C19">
+        <v>-425.81034450864598</v>
+      </c>
+      <c r="D19">
+        <v>33.238800140412202</v>
+      </c>
+      <c r="E19">
+        <v>2.5227040205614801</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>17.384</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>5253.5048791040008</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>1.8326812711825409</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1.07</v>
+      </c>
+      <c r="C20">
+        <v>-424.11519674444497</v>
+      </c>
+      <c r="D20">
+        <v>33.075399555555499</v>
+      </c>
+      <c r="E20">
+        <v>0.544993333333332</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>17.547999999999998</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>5403.5960705919979</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>1.7817764085658596</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1.08</v>
+      </c>
+      <c r="C21">
+        <v>-422.91024989555598</v>
+      </c>
+      <c r="D21">
+        <v>33.079129777777702</v>
+      </c>
+      <c r="E21">
+        <v>-0.99261333333333202</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>17.712</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>5556.5190881279996</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>1.7327394808327186</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <f>I22^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" t="e">
+        <f>$L$5/(I22*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M22">
+        <f>L22/L24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>-435.90243129777798</v>
+      </c>
+      <c r="D28">
+        <v>30.9946511111111</v>
+      </c>
+      <c r="E28">
+        <v>17.841699999999999</v>
+      </c>
+      <c r="F28">
+        <f>$F$10*B28</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:G32" si="7">F28^3</f>
+        <v>4410.9439999999995</v>
+      </c>
+      <c r="H28">
+        <f>$B$8/G28/(1E-24)</f>
+        <v>2.1827527168787459</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1.02</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F30" si="8">$F$10*B29</f>
+        <v>16.727999999999998</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G30" si="9">F29^3</f>
+        <v>4680.9290603519985</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H30" si="10">$B$8/G29/(1E-24)</f>
+        <v>2.0568566359080842</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1.03</v>
+      </c>
+      <c r="C30">
+        <v>-432.78837558222199</v>
+      </c>
+      <c r="D30">
+        <v>30.797200222222202</v>
+      </c>
+      <c r="E30">
+        <v>7.5340422222222196</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="8"/>
+        <v>16.891999999999999</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="9"/>
+        <v>4819.9576042879989</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="10"/>
+        <v>1.997527943282033</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1.04</v>
+      </c>
+      <c r="C31">
+        <v>-431.03502818222199</v>
+      </c>
+      <c r="D31">
+        <v>31.144508444444501</v>
+      </c>
+      <c r="E31">
+        <v>4.6198866666666696</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F32" si="11">$F$10*B31</f>
+        <v>17.055999999999997</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="7"/>
+        <v>4961.7121116159979</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H32" si="12">$B$8/G31/(1E-24)</f>
+        <v>1.9404592171842521</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1.05</v>
+      </c>
+      <c r="C32">
+        <v>-430.39521584444401</v>
+      </c>
+      <c r="D32">
+        <v>30.508274666666701</v>
+      </c>
+      <c r="E32">
+        <v>2.1457177777777798</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="11"/>
+        <v>17.22</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="7"/>
+        <v>5106.219047999999</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="12"/>
+        <v>1.8855438651365908</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1.06</v>
+      </c>
+      <c r="C33">
+        <v>-429.11686279111098</v>
+      </c>
+      <c r="D33">
+        <v>30.364003555555598</v>
+      </c>
+      <c r="E33">
+        <v>0.77020666666666704</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F34" si="13">$F$10*B33</f>
+        <v>17.384</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G34" si="14">F33^3</f>
+        <v>5253.5048791040008</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H34" si="15">$B$8/G33/(1E-24)</f>
+        <v>1.8326812711825409</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1.07</v>
+      </c>
+      <c r="C34">
+        <v>-426.53361657777799</v>
+      </c>
+      <c r="D34">
+        <v>30.749323111111099</v>
+      </c>
+      <c r="E34">
+        <v>-0.85436888888888896</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="13"/>
+        <v>17.547999999999998</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="14"/>
+        <v>5403.5960705919979</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="15"/>
+        <v>1.7817764085658596</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <f>I35^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" t="e">
+        <f>$B$8/(I35*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35">
+        <f>L35/L37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>-440.54883195999997</v>
+      </c>
+      <c r="D41">
+        <v>27.760117555555599</v>
+      </c>
+      <c r="E41">
+        <v>15.1803044444445</v>
+      </c>
+      <c r="F41">
+        <f>$F$10*B41</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:G48" si="16">F41^3</f>
+        <v>4410.9439999999995</v>
+      </c>
+      <c r="H41">
+        <f>$B$8/G41/(1E-24)</f>
+        <v>2.1827527168787459</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>1.02</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42:F43" si="17">$F$10*B42</f>
+        <v>16.727999999999998</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ref="G42:G43" si="18">F42^3</f>
+        <v>4680.9290603519985</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42:H43" si="19">$B$8/G42/(1E-24)</f>
+        <v>2.0568566359080842</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>1.03</v>
+      </c>
+      <c r="C43">
+        <v>-436.32251206246201</v>
+      </c>
+      <c r="D43">
+        <v>27.818644237776599</v>
+      </c>
+      <c r="E43">
+        <v>5.4871186468344497</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="17"/>
+        <v>16.891999999999999</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="18"/>
+        <v>4819.9576042879989</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="19"/>
+        <v>1.997527943282033</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="C44">
+        <v>-435.34930121333298</v>
+      </c>
+      <c r="D44">
+        <v>28.071345555555599</v>
+      </c>
+      <c r="E44">
+        <v>4.11740444444444</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:F46" si="20">$F$10*B44</f>
+        <v>16.973999999999997</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44:G46" si="21">F44^3</f>
+        <v>4890.492458423997</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:H46" si="22">$B$8/G44/(1E-24)</f>
+        <v>1.9687178912658434</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>1.04</v>
+      </c>
+      <c r="C45">
+        <v>-433.92137409370702</v>
+      </c>
+      <c r="D45">
+        <v>28.372053240978499</v>
+      </c>
+      <c r="E45">
+        <v>2.6494049757868101</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="20"/>
+        <v>17.055999999999997</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="21"/>
+        <v>4961.7121116159979</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="22"/>
+        <v>1.9404592171842521</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="20"/>
+        <v>17.137999999999998</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="21"/>
+        <v>5033.6198720719985</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="22"/>
+        <v>1.9127387932924718</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>1.05</v>
+      </c>
+      <c r="C47">
+        <v>-432.84289661068698</v>
+      </c>
+      <c r="D47">
+        <v>28.192274234669298</v>
+      </c>
+      <c r="E47">
+        <v>0.70008494379443598</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47:F48" si="23">$F$10*B47</f>
+        <v>17.22</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="16"/>
+        <v>5106.219047999999</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ref="H47:H48" si="24">$B$8/G47/(1E-24)</f>
+        <v>1.8855438651365908</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>1.06</v>
+      </c>
+      <c r="C48">
+        <v>-431.64412071999999</v>
+      </c>
+      <c r="D48">
+        <v>28.267058666666699</v>
+      </c>
+      <c r="E48">
+        <v>-1.0107666666666699</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="23"/>
+        <v>17.384</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="16"/>
+        <v>5253.5048791040008</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="24"/>
+        <v>1.8326812711825409</v>
+      </c>
+    </row>
+    <row r="49" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <f>I49^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" t="e">
+        <f>$L$5/(I49*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M49">
+        <f>L49/L51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="K51" t="s">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418B7CB-32AB-6A4E-A2B4-00CC08061BC5}">
-  <dimension ref="B5:G39"/>
+  <dimension ref="A5:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8643,12 +8952,12 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -8665,27 +8974,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>1300</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
       <c r="B23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -8702,27 +9014,75 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>1300</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>2581.5804088422565</v>
+      </c>
+      <c r="D25">
+        <v>13.718139625769327</v>
+      </c>
+      <c r="E25">
+        <v>1.671844109607094</v>
+      </c>
+      <c r="F25">
+        <v>-691.54626535596321</v>
+      </c>
+      <c r="G25">
+        <v>-6.915462653559632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>1200</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>2521.3529193271552</v>
+      </c>
+      <c r="D26">
+        <v>13.610619083982041</v>
+      </c>
+      <c r="E26">
+        <v>1.711779404983798</v>
+      </c>
+      <c r="F26">
+        <v>-696.0788016990648</v>
+      </c>
+      <c r="G26">
+        <v>-6.960788016990648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>1100</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>2467.363315382197</v>
+      </c>
+      <c r="D27">
+        <v>13.512769473054608</v>
+      </c>
+      <c r="E27">
+        <v>1.7492357015656799</v>
+      </c>
+      <c r="F27">
+        <v>-699.81345169767326</v>
+      </c>
+      <c r="G27">
+        <v>-6.9981345169767328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
       <c r="B29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>30</v>
       </c>
@@ -8739,72 +9099,60 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>1300</v>
       </c>
       <c r="C31">
-        <v>2581.5804088422565</v>
+        <v>3732.6556968502064</v>
       </c>
       <c r="D31">
-        <v>13.718139625769327</v>
+        <v>15.512173159079465</v>
       </c>
       <c r="E31">
-        <v>1.671844109607094</v>
+        <v>1.8678390310371533</v>
       </c>
       <c r="F31">
-        <v>-691.54626535596321</v>
+        <v>-449.48106021942283</v>
       </c>
       <c r="G31">
-        <v>-6.915462653559632</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+        <v>-4.494810602194228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>1200</v>
       </c>
       <c r="C32">
-        <v>2521.3529193271552</v>
+        <v>3609.3715029974123</v>
       </c>
       <c r="D32">
-        <v>13.610619083982041</v>
+        <v>15.339476145183413</v>
       </c>
       <c r="E32">
-        <v>1.711779404983798</v>
+        <v>1.9316382351359742</v>
       </c>
       <c r="F32">
-        <v>-696.0788016990648</v>
+        <v>-454.8282640788716</v>
       </c>
       <c r="G32">
-        <v>-6.960788016990648</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+        <v>-4.5482826407887158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>1100</v>
       </c>
-      <c r="C33">
-        <v>2467.363315382197</v>
-      </c>
-      <c r="D33">
-        <v>13.512769473054608</v>
-      </c>
-      <c r="E33">
-        <v>1.7492357015656799</v>
-      </c>
-      <c r="F33">
-        <v>-699.81345169767326</v>
-      </c>
-      <c r="G33">
-        <v>-6.9981345169767328</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
       <c r="B35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>30</v>
       </c>
@@ -8821,17 +9169,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>1300</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>1200</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>1100</v>
       </c>

--- a/SALT/FLiNaK.xlsx
+++ b/SALT/FLiNaK.xlsx
@@ -5,23 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F020377-F1E4-F144-ACEA-5F39EC6A01F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C831E56-EEAB-7340-8650-CF949DC02E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="24520" windowHeight="20760" activeTab="8" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
+    <workbookView xWindow="1060" yWindow="2220" windowWidth="24520" windowHeight="20760" activeTab="3" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="46.12.42" sheetId="8" r:id="rId2"/>
-    <sheet name="0.40.60" sheetId="2" r:id="rId3"/>
-    <sheet name="51.0.49" sheetId="3" r:id="rId4"/>
-    <sheet name="61.39.0" sheetId="4" r:id="rId5"/>
-    <sheet name="LiF" sheetId="6" r:id="rId6"/>
-    <sheet name="NaF" sheetId="7" r:id="rId7"/>
-    <sheet name="KF" sheetId="5" r:id="rId8"/>
-    <sheet name="summary" sheetId="9" r:id="rId9"/>
+    <sheet name="0.40.60" sheetId="2" r:id="rId2"/>
+    <sheet name="51.0.49" sheetId="3" r:id="rId3"/>
+    <sheet name="61.39.0" sheetId="4" r:id="rId4"/>
+    <sheet name="LiF" sheetId="6" r:id="rId5"/>
+    <sheet name="NaF" sheetId="7" r:id="rId6"/>
+    <sheet name="KF" sheetId="5" r:id="rId7"/>
+    <sheet name="summary" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="45">
   <si>
     <t>#atoms</t>
   </si>
@@ -191,6 +190,15 @@
   </si>
   <si>
     <t>0.0.100</t>
+  </si>
+  <si>
+    <t>Veronica</t>
+  </si>
+  <si>
+    <t>temps</t>
+  </si>
+  <si>
+    <t>900, 1000, 1100, 1200, 1300</t>
   </si>
 </sst>
 </file>
@@ -888,37 +896,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -966,60 +944,72 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>NaF!$G$38:$G$44</c:f>
+              <c:f>NaF!$G$37:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>3145.5075358080007</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3241.7920000000004</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3290.6624196239991</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3340.0215393920002</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3389.8717906479988</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3440.2156047360013</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3491.0554129999996</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3542.3936467840012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3646.575116288001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>NaF!$E$38:$E$44</c:f>
+              <c:f>NaF!$E$37:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>14.9675422222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.8197577777777791</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>7.3193377777777799</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.7836466666666704</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.4592688888888903</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.5470222222222199</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1.5525933333333299</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>-0.51951111111111103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.47498222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1028,6 +1018,332 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0EF1-3D43-AFBA-DFFCE4F91100}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1641832672"/>
+        <c:axId val="1641127056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1641832672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641127056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1641127056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641832672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NaF!$C$37:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-464.49877475555598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-463.09234021111098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-462.78172719333298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-461.83821386666602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-460.68908510444402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-459.86124477777798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-458.56226809555602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-458.12369049111101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-457.47333127111102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NaF!$E$37:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14.9675422222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8197577777777791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3193377777777799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7836466666666704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4592688888888903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5470222222222199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5525933333333299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.51951111111111103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.47498222222222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D033-6443-934A-EC162175AD1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1338,6 +1654,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2371,6 +2727,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2998,6 +3870,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C05CB0-3005-7745-A35A-08E13DCCA097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4067,23 +4977,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605933FB-9948-924B-8D3E-CC3C844DD888}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C7C49-F970-6D42-8577-7333C5E83B75}">
+  <dimension ref="B2:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C7C49-F970-6D42-8577-7333C5E83B75}">
-  <dimension ref="B2:M46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4935,17 +5833,147 @@
         <v>1.8437459184922276</v>
       </c>
     </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>0.98</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51" si="22">$F$10*B51</f>
+        <v>15.875999999999999</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ref="G51" si="23">F51^3</f>
+        <v>4001.5041413759996</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ref="H51" si="24">$B$8/G51/(1E-24)</f>
+        <v>2.140595060600023</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>0.99</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52:F55" si="25">$F$10*B52</f>
+        <v>16.038</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ref="G52:G55" si="26">F52^3</f>
+        <v>4125.2533668719998</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ref="H52:H55" si="27">$B$8/G52/(1E-24)</f>
+        <v>2.0763815548364541</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="25"/>
+        <v>16.2</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="26"/>
+        <v>4251.5279999999993</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="27"/>
+        <v>2.0147109462762569</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>1.01</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="25"/>
+        <v>16.361999999999998</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="26"/>
+        <v>4380.3535499279978</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="27"/>
+        <v>1.9554585953777175</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>1.02</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="25"/>
+        <v>16.524000000000001</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="26"/>
+        <v>4511.7555258240009</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="27"/>
+        <v>1.8985071223325269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EB486-C215-BA4A-94EA-40A0116C6EBC}">
-  <dimension ref="B2:M42"/>
+  <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5249,6 +6277,15 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>-574.18171071555503</v>
+      </c>
+      <c r="D26">
+        <v>30.776235111111099</v>
+      </c>
+      <c r="E26">
+        <v>10.480877777777801</v>
+      </c>
       <c r="F26">
         <f>$F$10*B26</f>
         <v>15.219832</v>
@@ -5266,6 +6303,15 @@
       <c r="B27">
         <v>1.01</v>
       </c>
+      <c r="C27">
+        <v>-572.94664726888902</v>
+      </c>
+      <c r="D27">
+        <v>30.639093111111201</v>
+      </c>
+      <c r="E27">
+        <v>5.5050266666666703</v>
+      </c>
       <c r="F27">
         <f t="shared" ref="F27:F28" si="5">$F$10*B27</f>
         <v>15.37203032</v>
@@ -5283,6 +6329,15 @@
       <c r="B28">
         <v>1.02</v>
       </c>
+      <c r="C28">
+        <v>-571.20458736444505</v>
+      </c>
+      <c r="D28">
+        <v>30.532009777777802</v>
+      </c>
+      <c r="E28">
+        <v>3.1602222222222198</v>
+      </c>
       <c r="F28">
         <f t="shared" si="5"/>
         <v>15.52422864</v>
@@ -5297,6 +6352,21 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1.03</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29" si="8">$F$10*B29</f>
+        <v>15.676426960000001</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29" si="9">F29^3</f>
+        <v>3852.4876039268588</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29" si="10">$B$8/G29/(1E-24)</f>
+        <v>1.7959512687198669</v>
+      </c>
       <c r="J29">
         <f>I29^(1/3)</f>
         <v>0</v>
@@ -5367,12 +6437,21 @@
       <c r="B36">
         <v>0.99</v>
       </c>
+      <c r="C36">
+        <v>-577.37128468000003</v>
+      </c>
+      <c r="D36">
+        <v>29.219238222222199</v>
+      </c>
+      <c r="E36">
+        <v>11.9336511111111</v>
+      </c>
       <c r="F36">
         <f>$F$10*B36</f>
         <v>15.06763368</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36" si="8">F36^3</f>
+        <f t="shared" ref="G36" si="11">F36^3</f>
         <v>3420.8588875379</v>
       </c>
       <c r="H36">
@@ -5398,7 +6477,7 @@
         <v>15.219832</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37" si="9">F37^3</f>
+        <f t="shared" ref="G37" si="12">F37^3</f>
         <v>3525.5718984951031</v>
       </c>
       <c r="H37">
@@ -5410,12 +6489,21 @@
       <c r="B38">
         <v>1.01</v>
       </c>
+      <c r="C38">
+        <v>-576.05313280444398</v>
+      </c>
+      <c r="D38">
+        <v>28.318164222222201</v>
+      </c>
+      <c r="E38">
+        <v>3.2460844444444499</v>
+      </c>
       <c r="F38">
         <f>$F$10*B38</f>
         <v>15.37203032</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38" si="10">F38^3</f>
+        <f t="shared" ref="G38" si="13">F38^3</f>
         <v>3632.4002525914034</v>
       </c>
       <c r="H38">
@@ -5423,7 +6511,39 @@
         <v>1.9047680648805094</v>
       </c>
     </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1.02</v>
+      </c>
+      <c r="F39">
+        <f>$F$10*B39</f>
+        <v>15.52422864</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39:G40" si="14">F39^3</f>
+        <v>3741.365103258192</v>
+      </c>
+      <c r="H39">
+        <f>$B$8/G39/(1E-24)</f>
+        <v>1.849292920911314</v>
+      </c>
+    </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1.03</v>
+      </c>
+      <c r="F40">
+        <f>$F$10*B40</f>
+        <v>15.676426960000001</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="14"/>
+        <v>3852.4876039268588</v>
+      </c>
+      <c r="H40">
+        <f>$B$8/G40/(1E-24)</f>
+        <v>1.7959512687198669</v>
+      </c>
       <c r="J40">
         <f>I40^(1/3)</f>
         <v>0</v>
@@ -5443,6 +6563,136 @@
       </c>
       <c r="L42">
         <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>0.98</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47:F51" si="15">$F$10*B47</f>
+        <v>14.91543536</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ref="G47:G51" si="16">F47^3</f>
+        <v>3318.2400662884033</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ref="H47:H51" si="17">$B$8/G47/(1E-24)</f>
+        <v>2.0851053154026529</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>0.99</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="15"/>
+        <v>15.06763368</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="16"/>
+        <v>3420.8588875379</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="17"/>
+        <v>2.0225563893340652</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="15"/>
+        <v>15.219832</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="16"/>
+        <v>3525.5718984951031</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="17"/>
+        <v>1.9624844420144538</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>1.01</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="15"/>
+        <v>15.37203032</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="16"/>
+        <v>3632.4002525914034</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="17"/>
+        <v>1.9047680648805094</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>1.02</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="15"/>
+        <v>15.52422864</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="16"/>
+        <v>3741.365103258192</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="17"/>
+        <v>1.849292920911314</v>
       </c>
     </row>
   </sheetData>
@@ -5450,12 +6700,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350EA8ED-C68E-1740-8FFB-D44F1BF7B044}">
-  <dimension ref="B2:M49"/>
+  <dimension ref="B2:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5614,6 +6864,15 @@
       <c r="B15">
         <v>0.99</v>
       </c>
+      <c r="C15">
+        <v>-603.39408408444399</v>
+      </c>
+      <c r="D15">
+        <v>33.355782222222203</v>
+      </c>
+      <c r="E15">
+        <v>9.8729866666666606</v>
+      </c>
       <c r="F15">
         <f t="shared" ref="F15:F16" si="0">$F$10*B15</f>
         <v>16.5825</v>
@@ -6011,10 +7270,134 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M49">
-        <f>67351.986/3600</f>
-        <v>18.708885000000002</v>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>0.98</v>
+      </c>
+      <c r="F51">
+        <f>$F$10*B51</f>
+        <v>16.414999999999999</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ref="G51:G55" si="21">F51^3</f>
+        <v>4423.0582733749998</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ref="H51:H55" si="22">$B$8/G51/(1E-24)</f>
+        <v>1.2099863192433811</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>0.99</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F51:F55" si="23">$F$10*B52</f>
+        <v>16.5825</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="21"/>
+        <v>4559.8443458906249</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="22"/>
+        <v>1.1736891863037231</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="23"/>
+        <v>16.75</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="21"/>
+        <v>4699.421875</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="22"/>
+        <v>1.1388294437813162</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>1.01</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="23"/>
+        <v>16.9175</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="21"/>
+        <v>4841.8190572343756</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="22"/>
+        <v>1.1053366383040646</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>1.02</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="23"/>
+        <v>17.085000000000001</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="21"/>
+        <v>4987.0640891250014</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="22"/>
+        <v>1.0731444201149216</v>
       </c>
     </row>
   </sheetData>
@@ -6022,11 +7405,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93737921-4FC8-6E4E-AE09-E754D42F2BB1}">
   <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I43" activeCellId="2" sqref="I19:M19 I31:M31 I43:M43"/>
     </sheetView>
   </sheetViews>
@@ -7020,12 +8403,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B548C73-2FA5-B24C-AF9E-AD3666FD99E2}">
   <dimension ref="B2:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I29" activeCellId="1" sqref="I18:M18 I29:M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I41" activeCellId="2" sqref="I18:M18 I29:M29 I41:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7071,14 +8454,14 @@
         <v>19</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6:L6">LINEST(E38:E44,G38:G44^{1,2})</f>
-        <v>-3.3931421059981109E-6</v>
+        <f t="array" ref="J6:L6">LINEST(E37:E45,G37:G45^{1,2})</f>
+        <v>2.6937804951692049E-5</v>
       </c>
       <c r="K6">
-        <v>-7.4857080870914614E-3</v>
+        <v>-0.21742036089760239</v>
       </c>
       <c r="L6">
-        <v>68.711441969356727</v>
+        <v>431.57274622549176</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -7090,11 +8473,11 @@
       </c>
       <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>-5736.2968536075969</v>
+        <v>4550.3603041840315</v>
       </c>
       <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>3530.168181938097</v>
+        <v>3520.8378237816814</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -7127,14 +8510,14 @@
         <v>19</v>
       </c>
       <c r="J10" cm="1">
-        <f t="array" ref="J10:L10">LINEST(E38:E44,C38:C44^{1,2})</f>
-        <v>3.044638316899765E-2</v>
+        <f t="array" ref="J10:L10">LINEST(E37:E45,C37:C45^{1,2})</f>
+        <v>0.12495101252712336</v>
       </c>
       <c r="K10">
-        <v>26.391826004710708</v>
+        <v>113.00477102096715</v>
       </c>
       <c r="L10">
-        <v>5700.8047629955709</v>
+        <v>25544.925732269265</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -7143,11 +8526,11 @@
       </c>
       <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-408.7652679824933</v>
+        <v>-445.71804280610269</v>
       </c>
       <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-458.0643274482199</v>
+        <v>-458.67455662511031</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -7701,6 +9084,15 @@
       <c r="B37">
         <v>0.99</v>
       </c>
+      <c r="C37">
+        <v>-464.49877475555598</v>
+      </c>
+      <c r="D37">
+        <v>28.648210888888901</v>
+      </c>
+      <c r="E37">
+        <v>14.9675422222222</v>
+      </c>
       <c r="F37">
         <f>$F$10*B37</f>
         <v>14.652000000000001</v>
@@ -7817,17 +9209,23 @@
         <f t="shared" si="12"/>
         <v>2.0567149528293083</v>
       </c>
+      <c r="I41">
+        <v>3520.8378237816814</v>
+      </c>
       <c r="J41">
         <f>I41^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K41" t="e">
+        <v>15.213016642763073</v>
+      </c>
+      <c r="K41">
         <f>$B$8/(I41*(10^-24))</f>
-        <v>#DIV/0!</v>
+        <v>1.9802104922036636</v>
+      </c>
+      <c r="L41">
+        <v>-458.67455662511031</v>
       </c>
       <c r="M41">
         <f>L41/L43</f>
-        <v>0</v>
+        <v>-4.5867455662511034</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
@@ -7946,12 +9344,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54DDCEF-2A04-AC4A-B085-1BC5E6C44A8B}">
   <dimension ref="B2:Q51"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41:H43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8144,7 +9542,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G17" si="0">F15^3</f>
+        <f t="shared" ref="G15" si="0">F15^3</f>
         <v>4410.9439999999995</v>
       </c>
       <c r="H15">
@@ -8155,6 +9553,15 @@
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>1.03</v>
+      </c>
+      <c r="C16">
+        <v>-429.83200138666598</v>
+      </c>
+      <c r="D16">
+        <v>33.316189777777801</v>
+      </c>
+      <c r="E16">
+        <v>9.9614266666666804</v>
       </c>
       <c r="F16">
         <f t="shared" ref="F16:F17" si="1">$F$10*B16</f>
@@ -8396,6 +9803,15 @@
       <c r="B29">
         <v>1.02</v>
       </c>
+      <c r="C29">
+        <v>-434.49655702888901</v>
+      </c>
+      <c r="D29">
+        <v>30.5783857777778</v>
+      </c>
+      <c r="E29">
+        <v>10.3021955555555</v>
+      </c>
       <c r="F29">
         <f t="shared" ref="F29:F30" si="8">$F$10*B29</f>
         <v>16.727999999999998</v>
@@ -8635,6 +10051,15 @@
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>1.02</v>
+      </c>
+      <c r="C42">
+        <v>-437.529480546667</v>
+      </c>
+      <c r="D42">
+        <v>27.882424888888899</v>
+      </c>
+      <c r="E42">
+        <v>8.5769022222222198</v>
       </c>
       <c r="F42">
         <f t="shared" ref="F42:F43" si="17">$F$10*B42</f>
@@ -8823,22 +10248,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418B7CB-32AB-6A4E-A2B4-00CC08061BC5}">
-  <dimension ref="A5:G39"/>
+  <dimension ref="A5:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -8855,7 +10280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1300</v>
       </c>
@@ -8875,7 +10300,7 @@
         <v>-4.3472255967163722</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1200</v>
       </c>
@@ -8895,7 +10320,7 @@
         <v>-4.3858877413377702</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1100</v>
       </c>
@@ -8915,12 +10340,15 @@
         <v>-4.4406128865530237</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>30</v>
       </c>
@@ -8936,18 +10364,24 @@
       <c r="G12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1300</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>1100</v>
       </c>
@@ -9142,6 +10576,21 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>1100</v>
+      </c>
+      <c r="C33">
+        <v>3520.8378237816814</v>
+      </c>
+      <c r="D33">
+        <v>15.213016642763073</v>
+      </c>
+      <c r="E33">
+        <v>1.9802104922036636</v>
+      </c>
+      <c r="F33">
+        <v>-458.67455662511031</v>
+      </c>
+      <c r="G33">
+        <v>-4.5867455662511034</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">

--- a/SALT/FLiNaK.xlsx
+++ b/SALT/FLiNaK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C831E56-EEAB-7340-8650-CF949DC02E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F643D3-C175-D744-8B63-657C3BAAF704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2220" windowWidth="24520" windowHeight="20760" activeTab="3" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="24520" windowHeight="20760" activeTab="1" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="45">
   <si>
     <t>#atoms</t>
   </si>
@@ -1534,6 +1534,314 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>KF!$C$16:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-429.83200138666598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-429.81277186668001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-427.05048400444502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-425.81034450864598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-424.11519674444497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-422.91024989555598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>KF!$E$16:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.9614266666666804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4868391520001296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0284088888888903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5227040205614801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.544993333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.99261333333333202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-264E-0247-B0CF-0CB9C941CE5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1760118143"/>
+        <c:axId val="1760119791"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1760118143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1760119791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1760119791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1760118143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1694,6 +2002,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3243,6 +3591,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3908,6 +4772,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C18D60EB-F5BD-39C5-8DE2-9E8B5819A538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4980,8 +5885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C7C49-F970-6D42-8577-7333C5E83B75}">
   <dimension ref="B2:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:M55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5972,8 +6877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EB486-C215-BA4A-94EA-40A0116C6EBC}">
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:M51"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6159,16 +7064,25 @@
       <c r="B16">
         <v>1.01</v>
       </c>
+      <c r="C16">
+        <v>-569.12074164222201</v>
+      </c>
+      <c r="D16">
+        <v>33.9307651111111</v>
+      </c>
+      <c r="E16">
+        <v>8.3188555555555599</v>
+      </c>
       <c r="F16">
-        <f t="shared" ref="F16:F18" si="1">$F$10*B16</f>
+        <f t="shared" ref="F16:F20" si="1">$F$10*B16</f>
         <v>15.37203032</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G18" si="2">F16^3</f>
+        <f t="shared" ref="G16:G20" si="2">F16^3</f>
         <v>3632.4002525914034</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H18" si="3">$B$8/G16/(1E-24)</f>
+        <f t="shared" ref="H16:H20" si="3">$B$8/G16/(1E-24)</f>
         <v>1.9047680648805094</v>
       </c>
     </row>
@@ -6176,6 +7090,15 @@
       <c r="B17">
         <v>1.02</v>
       </c>
+      <c r="C17">
+        <v>-567.58927564222199</v>
+      </c>
+      <c r="D17">
+        <v>33.479208444444502</v>
+      </c>
+      <c r="E17">
+        <v>5.1836311111111097</v>
+      </c>
       <c r="F17">
         <f t="shared" si="1"/>
         <v>15.52422864</v>
@@ -6193,6 +7116,15 @@
       <c r="B18">
         <v>1.03</v>
       </c>
+      <c r="C18">
+        <v>-566.57734213777803</v>
+      </c>
+      <c r="D18">
+        <v>34.0751197777778</v>
+      </c>
+      <c r="E18">
+        <v>3.6485644444444398</v>
+      </c>
       <c r="F18">
         <f t="shared" si="1"/>
         <v>15.676426960000001</v>
@@ -6207,6 +7139,21 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1.04</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>15.828625280000001</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>3965.7889080287964</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>1.7446415228991712</v>
+      </c>
       <c r="J19">
         <f>I19^(1/3)</f>
         <v>0</v>
@@ -6220,6 +7167,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>15.980823600000001</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>4081.2901689953947</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>1.6952678475451493</v>
+      </c>
+    </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K21" t="s">
         <v>3</v>
@@ -6355,16 +7319,25 @@
       <c r="B29">
         <v>1.03</v>
       </c>
+      <c r="C29">
+        <v>-569.77942082222296</v>
+      </c>
+      <c r="D29">
+        <v>31.010850666666698</v>
+      </c>
+      <c r="E29">
+        <v>1.5358799999999999</v>
+      </c>
       <c r="F29">
-        <f t="shared" ref="F29" si="8">$F$10*B29</f>
+        <f t="shared" ref="F29:F30" si="8">$F$10*B29</f>
         <v>15.676426960000001</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29" si="9">F29^3</f>
+        <f t="shared" ref="G29:G30" si="9">F29^3</f>
         <v>3852.4876039268588</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29" si="10">$B$8/G29/(1E-24)</f>
+        <f t="shared" ref="H29:H30" si="10">$B$8/G29/(1E-24)</f>
         <v>1.7959512687198669</v>
       </c>
       <c r="J29">
@@ -6380,6 +7353,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1.04</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="8"/>
+        <v>15.828625280000001</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="9"/>
+        <v>3965.7889080287964</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="10"/>
+        <v>1.7446415228991712</v>
+      </c>
+    </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K31" t="s">
         <v>3</v>
@@ -6515,12 +7505,21 @@
       <c r="B39">
         <v>1.02</v>
       </c>
+      <c r="C39">
+        <v>-574.52211748888897</v>
+      </c>
+      <c r="D39">
+        <v>28.503266888888898</v>
+      </c>
+      <c r="E39">
+        <v>1.23244222222222</v>
+      </c>
       <c r="F39">
         <f>$F$10*B39</f>
         <v>15.52422864</v>
       </c>
       <c r="G39">
-        <f t="shared" ref="G39:G40" si="14">F39^3</f>
+        <f t="shared" ref="G39:G41" si="14">F39^3</f>
         <v>3741.365103258192</v>
       </c>
       <c r="H39">
@@ -6532,6 +7531,15 @@
       <c r="B40">
         <v>1.03</v>
       </c>
+      <c r="C40">
+        <v>-572.10804927555603</v>
+      </c>
+      <c r="D40">
+        <v>29.047026444444398</v>
+      </c>
+      <c r="E40">
+        <v>-0.59429111111111099</v>
+      </c>
       <c r="F40">
         <f>$F$10*B40</f>
         <v>15.676426960000001</v>
@@ -6555,6 +7563,23 @@
       <c r="M40">
         <f>L40/L42</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1.04</v>
+      </c>
+      <c r="F41">
+        <f>$F$10*B41</f>
+        <v>15.828625280000001</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="14"/>
+        <v>3965.7889080287964</v>
+      </c>
+      <c r="H41">
+        <f>$B$8/G41/(1E-24)</f>
+        <v>1.7446415228991712</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
@@ -6702,10 +7727,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350EA8ED-C68E-1740-8FFB-D44F1BF7B044}">
-  <dimension ref="B2:M55"/>
+  <dimension ref="B2:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6748,7 +7773,7 @@
         <v>19</v>
       </c>
       <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E16:E21,G16:G21^{1,2})</f>
+        <f t="array" ref="J6">LINEST(E16:E23,G16:G23^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6792,13 +7817,13 @@
         <v>22</v>
       </c>
       <c r="F10">
-        <v>16.75</v>
+        <v>14.2</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
       </c>
       <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E16:E21,C16:C21^{1,2})</f>
+        <f t="array" ref="J10">LINEST(E16:E23,C16:C23^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6875,15 +7900,15 @@
       </c>
       <c r="F15">
         <f t="shared" ref="F15:F16" si="0">$F$10*B15</f>
-        <v>16.5825</v>
+        <v>14.058</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G16" si="1">F15^3</f>
-        <v>4559.8443458906249</v>
+        <v>2778.2454831119999</v>
       </c>
       <c r="H15">
         <f t="shared" ref="H15:H16" si="2">$B$8/G15/(1E-24)</f>
-        <v>1.1736891863037231</v>
+        <v>1.9263380549098332</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -6901,503 +7926,666 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>16.75</v>
+        <v>14.2</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>4699.421875</v>
+        <v>2863.2879999999996</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>1.1388294437813162</v>
+        <v>1.8691238883409569</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>1.01</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17" si="3">$F$10*B17</f>
-        <v>16.9175</v>
+        <f t="shared" ref="F17:F19" si="3">$F$10*B17</f>
+        <v>14.270999999999997</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17" si="4">F17^3</f>
-        <v>4841.8190572343756</v>
+        <f t="shared" ref="G17:G19" si="4">F17^3</f>
+        <v>2906.4524245109983</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17" si="5">$B$8/G17/(1E-24)</f>
-        <v>1.1053366383040646</v>
+        <f t="shared" ref="H17:H19" si="5">$B$8/G17/(1E-24)</f>
+        <v>1.8413650795954215</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18">
+        <v>1.01</v>
+      </c>
+      <c r="C18">
+        <v>-600.67473306888905</v>
+      </c>
+      <c r="D18">
+        <v>33.042980222222198</v>
+      </c>
+      <c r="E18">
+        <v>1.54493777777778</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>14.341999999999999</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>2950.0484896879993</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>1.8141532312799433</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>14.412999999999998</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>2994.0783429969993</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>1.7874749378277586</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
         <v>1.02</v>
       </c>
-      <c r="F18">
-        <f t="shared" ref="F18" si="6">$F$10*B18</f>
-        <v>17.085000000000001</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ref="G18" si="7">F18^3</f>
-        <v>4987.0640891250014</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ref="H18" si="8">$B$8/G18/(1E-24)</f>
-        <v>1.0731444201149216</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J19">
-        <f>I19^(1/3)</f>
+      <c r="C20">
+        <v>-599.40760894666698</v>
+      </c>
+      <c r="D20">
+        <v>33.133292222222202</v>
+      </c>
+      <c r="E20">
+        <v>-0.90337999999999996</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:F21" si="6">$F$10*B20</f>
+        <v>14.484</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G21" si="7">F20^3</f>
+        <v>3038.5441319040001</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:H21" si="8">$B$8/G20/(1E-24)</f>
+        <v>1.761317186019099</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="6"/>
+        <v>14.554999999999998</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>3083.4480038749989</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="8"/>
+        <v>1.7356673416494428</v>
+      </c>
+      <c r="J21">
+        <f>I21^(1/3)</f>
         <v>0</v>
       </c>
-      <c r="K19" t="e">
-        <f>$B$8/(I19*(10^-24))</f>
+      <c r="K21" t="e">
+        <f>$B$8/(I21*(10^-24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19">
-        <f>L19/L21</f>
+      <c r="M21">
+        <f>L21/L23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K21" t="s">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
         <v>3</v>
       </c>
-      <c r="L21">
+      <c r="L23">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H24" t="s">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>25</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>26</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F27" t="s">
         <v>27</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G27" t="s">
         <v>28</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H27" t="s">
         <v>29</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I27" t="s">
         <v>30</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J27" t="s">
         <v>27</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K27" t="s">
         <v>29</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L27" t="s">
         <v>31</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M27" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>0.98</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ref="F26:F27" si="9">$F$10*B26</f>
-        <v>16.414999999999999</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ref="G26:G27" si="10">F26^3</f>
-        <v>4423.0582733749998</v>
-      </c>
-      <c r="H26">
-        <f t="shared" ref="H26:H27" si="11">$B$8/G26/(1E-24)</f>
-        <v>1.2099863192433811</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>0.99</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="9"/>
-        <v>16.5825</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="10"/>
-        <v>4559.8443458906249</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="11"/>
-        <v>1.1736891863037231</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>-605.25256366444501</v>
-      </c>
-      <c r="D28">
-        <v>30.706834666666602</v>
-      </c>
-      <c r="E28">
-        <v>2.65153111111111</v>
+        <v>0.98</v>
       </c>
       <c r="F28">
-        <f>$F$10*B28</f>
-        <v>16.75</v>
+        <f t="shared" ref="F28:F29" si="9">$F$10*B28</f>
+        <v>13.915999999999999</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:G29" si="12">F28^3</f>
-        <v>4699.421875</v>
+        <f t="shared" ref="G28:G29" si="10">F28^3</f>
+        <v>2694.9037592959994</v>
       </c>
       <c r="H28">
-        <f>$B$8/G28/(1E-24)</f>
-        <v>1.1388294437813162</v>
+        <f t="shared" ref="H28:H29" si="11">$B$8/G28/(1E-24)</f>
+        <v>1.9859113638247634</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29">
+        <v>0.99</v>
+      </c>
+      <c r="C29">
+        <v>-605.87116253999898</v>
+      </c>
+      <c r="D29">
+        <v>30.829143333333299</v>
+      </c>
+      <c r="E29">
+        <v>6.90611333333334</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="9"/>
+        <v>14.058</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="10"/>
+        <v>2778.2454831119999</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="11"/>
+        <v>1.9263380549098332</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>-605.25256366444501</v>
+      </c>
+      <c r="D30">
+        <v>30.706834666666602</v>
+      </c>
+      <c r="E30">
+        <v>2.65153111111111</v>
+      </c>
+      <c r="F30">
+        <f>$F$10*B30</f>
+        <v>14.2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30:G33" si="12">F30^3</f>
+        <v>2863.2879999999996</v>
+      </c>
+      <c r="H30">
+        <f>$B$8/G30/(1E-24)</f>
+        <v>1.8691238883409569</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F31">
+        <f>$F$10*B31</f>
+        <v>14.270999999999997</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31" si="13">F31^3</f>
+        <v>2906.4524245109983</v>
+      </c>
+      <c r="H31">
+        <f>$B$8/G31/(1E-24)</f>
+        <v>1.8413650795954215</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
         <v>1.01</v>
       </c>
-      <c r="F29">
-        <f t="shared" ref="F29" si="13">$F$10*B29</f>
-        <v>16.9175</v>
-      </c>
-      <c r="G29">
+      <c r="C32">
+        <v>-603.28089783333405</v>
+      </c>
+      <c r="D32">
+        <v>30.886264000000001</v>
+      </c>
+      <c r="E32">
+        <v>5.0288888888888598E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F33" si="14">$F$10*B32</f>
+        <v>14.341999999999999</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="12"/>
-        <v>4841.8190572343756</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ref="H29" si="14">$B$8/G29/(1E-24)</f>
-        <v>1.1053366383040646</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J31">
-        <f>I31^(1/3)</f>
+        <v>2950.0484896879993</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32:H33" si="15">$B$8/G32/(1E-24)</f>
+        <v>1.8141532312799433</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="14"/>
+        <v>14.412999999999998</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="12"/>
+        <v>2994.0783429969993</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="15"/>
+        <v>1.7874749378277586</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <f>I34^(1/3)</f>
         <v>0</v>
       </c>
-      <c r="K31" t="e">
-        <f>$B$8/(I31*(10^-24))</f>
+      <c r="K34" t="e">
+        <f>$B$8/(I34*(10^-24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31">
-        <f>L31/L33</f>
+      <c r="M34">
+        <f>L34/L36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K33" t="s">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
         <v>3</v>
       </c>
-      <c r="L33">
+      <c r="L36">
         <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" t="s">
-        <v>27</v>
-      </c>
-      <c r="K37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" t="s">
-        <v>31</v>
-      </c>
-      <c r="M37" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>0.97</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ref="F38:F40" si="15">$F$10*B38</f>
-        <v>16.247499999999999</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ref="G38:G40" si="16">F38^3</f>
-        <v>4289.0354609218739</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ref="H38:H40" si="17">$B$8/G38/(1E-24)</f>
-        <v>1.2477956987675942</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>0.98</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="15"/>
-        <v>16.414999999999999</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="16"/>
-        <v>4423.0582733749998</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="17"/>
-        <v>1.2099863192433811</v>
+      <c r="H39" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>0.99</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="15"/>
-        <v>16.5825</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="16"/>
-        <v>4559.8443458906249</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="17"/>
-        <v>1.1736891863037231</v>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41">
+        <v>0.97</v>
+      </c>
+      <c r="C41">
+        <v>-611.50414431111096</v>
+      </c>
+      <c r="D41">
+        <v>28.410137333333299</v>
+      </c>
+      <c r="E41">
+        <v>13.02936</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41:F43" si="16">$F$10*B41</f>
+        <v>13.773999999999999</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:G43" si="17">F41^3</f>
+        <v>2613.2456488239995</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41:H43" si="18">$B$8/G41/(1E-24)</f>
+        <v>2.0479666740891389</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>0.98</v>
+      </c>
+      <c r="C42">
+        <v>-610.88391847999901</v>
+      </c>
+      <c r="D42">
+        <v>28.106403333333301</v>
+      </c>
+      <c r="E42">
+        <v>7.8005088888888903</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="16"/>
+        <v>13.915999999999999</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="17"/>
+        <v>2694.9037592959994</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="18"/>
+        <v>1.9859113638247634</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>0.99</v>
+      </c>
+      <c r="C43">
+        <v>-609.69099178444401</v>
+      </c>
+      <c r="D43">
+        <v>27.889015333333301</v>
+      </c>
+      <c r="E43">
+        <v>3.1113311111111099</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="16"/>
+        <v>14.058</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="17"/>
+        <v>2778.2454831119999</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="18"/>
+        <v>1.9263380549098332</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>0.995</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44" si="19">$F$10*B44</f>
+        <v>14.129</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44" si="20">F44^3</f>
+        <v>2820.5530686889997</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44" si="21">$B$8/G44/(1E-24)</f>
+        <v>1.8974434693007032</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45">
         <v>1</v>
       </c>
-      <c r="C41">
+      <c r="C45">
         <v>-607.80930280222196</v>
       </c>
-      <c r="D41">
+      <c r="D45">
         <v>28.271678444444401</v>
       </c>
-      <c r="E41">
+      <c r="E45">
         <v>-0.50625111111111099</v>
       </c>
-      <c r="F41">
-        <f>$F$10*B41</f>
-        <v>16.75</v>
-      </c>
-      <c r="G41">
-        <f t="shared" ref="G41:G42" si="18">F41^3</f>
-        <v>4699.421875</v>
-      </c>
-      <c r="H41">
-        <f>$B$8/G41/(1E-24)</f>
-        <v>1.1388294437813162</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F42">
-        <f t="shared" ref="F42" si="19">$F$10*B42</f>
+      <c r="F45">
+        <f>$F$10*B45</f>
+        <v>14.2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45:G46" si="22">F45^3</f>
+        <v>2863.2879999999996</v>
+      </c>
+      <c r="H45">
+        <f>$B$8/G45/(1E-24)</f>
+        <v>1.8691238883409569</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ref="F46" si="23">$F$10*B46</f>
+        <v>14.270999999999997</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="22"/>
+        <v>2906.4524245109983</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ref="H46" si="24">$B$8/G46/(1E-24)</f>
+        <v>1.8413650795954215</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <f>I48^(1/3)</f>
         <v>0</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="18"/>
+      <c r="K48" t="e">
+        <f>$B$8/(I48*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M48">
+        <f>L48/L50</f>
         <v>0</v>
       </c>
-      <c r="H42" t="e">
-        <f t="shared" ref="H42" si="20">$B$8/G42/(1E-24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J44">
-        <f>I44^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K44" t="e">
-        <f>$B$8/(I44*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M44">
-        <f>L44/L46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K46" t="s">
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
         <v>3</v>
       </c>
-      <c r="L46">
+      <c r="L50">
         <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B48">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" t="s">
-        <v>30</v>
-      </c>
-      <c r="J50" t="s">
-        <v>27</v>
-      </c>
-      <c r="K50" t="s">
-        <v>29</v>
-      </c>
-      <c r="L50" t="s">
-        <v>31</v>
-      </c>
-      <c r="M50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51">
-        <v>0.98</v>
-      </c>
-      <c r="F51">
-        <f>$F$10*B51</f>
-        <v>16.414999999999999</v>
-      </c>
-      <c r="G51">
-        <f t="shared" ref="G51:G55" si="21">F51^3</f>
-        <v>4423.0582733749998</v>
-      </c>
-      <c r="H51">
-        <f t="shared" ref="H51:H55" si="22">$B$8/G51/(1E-24)</f>
-        <v>1.2099863192433811</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52">
-        <v>0.99</v>
-      </c>
-      <c r="F52">
-        <f t="shared" ref="F51:F55" si="23">$F$10*B52</f>
-        <v>16.5825</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="21"/>
-        <v>4559.8443458906249</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="22"/>
-        <v>1.1736891863037231</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="23"/>
-        <v>16.75</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="21"/>
-        <v>4699.421875</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="22"/>
-        <v>1.1388294437813162</v>
+      <c r="H53" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B54">
-        <v>1.01</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="23"/>
-        <v>16.9175</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="21"/>
-        <v>4841.8190572343756</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="22"/>
-        <v>1.1053366383040646</v>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L54" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="F55">
-        <f t="shared" si="23"/>
-        <v>17.085000000000001</v>
+        <f>$F$10*B55</f>
+        <v>13.632</v>
       </c>
       <c r="G55">
-        <f t="shared" si="21"/>
-        <v>4987.0640891250014</v>
+        <f t="shared" ref="G55:G59" si="25">F55^3</f>
+        <v>2533.2539719679999</v>
       </c>
       <c r="H55">
-        <f t="shared" si="22"/>
-        <v>1.0731444201149216</v>
+        <f t="shared" ref="H55:H59" si="26">$B$8/G55/(1E-24)</f>
+        <v>2.1126346032499597</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>0.97</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56:F59" si="27">$F$10*B56</f>
+        <v>13.773999999999999</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="25"/>
+        <v>2613.2456488239995</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="26"/>
+        <v>2.0479666740891389</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>0.98</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="27"/>
+        <v>13.915999999999999</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="25"/>
+        <v>2694.9037592959994</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="26"/>
+        <v>1.9859113638247634</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>0.99</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="27"/>
+        <v>14.058</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="25"/>
+        <v>2778.2454831119999</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="26"/>
+        <v>1.9263380549098332</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -9346,13 +10534,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54DDCEF-2A04-AC4A-B085-1BC5E6C44A8B}">
-  <dimension ref="B2:Q51"/>
+  <dimension ref="B2:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I44" activeCellId="2" sqref="I18:M18 I31:M31 I44:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
@@ -9391,9 +10582,15 @@
       <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E15:E24,G15:G24^{1,2})</f>
-        <v>#VALUE!</v>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6:L6">LINEST(E16:E21,G16:G21^{1,2})</f>
+        <v>1.0372606533811203E-5</v>
+      </c>
+      <c r="K6">
+        <v>-0.12196869108272576</v>
+      </c>
+      <c r="L6">
+        <v>356.62978965647369</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
@@ -9403,13 +10600,13 @@
       <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="K7" t="e">
+      <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>6309.5421657523812</v>
+      </c>
+      <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
+        <v>5449.188938637717</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
@@ -9441,48 +10638,37 @@
       <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E15:E24,C15:C24^{1,2})</f>
-        <v>#VALUE!</v>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10:L10">LINEST(E15:E21,C15:C21^{1,2})</f>
+        <v>0.28591238518461887</v>
+      </c>
+      <c r="K10">
+        <v>242.40137504815951</v>
+      </c>
+      <c r="L10">
+        <v>51377.987878217267</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="e">
+      <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="e">
+        <v>-423.69875047834716</v>
+      </c>
+      <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1.3281999999999999E-5</v>
-      </c>
-      <c r="P11" s="1">
-        <v>-0.14873</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>415.46</v>
-      </c>
+        <v>-424.11822985860641</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1300</v>
       </c>
-      <c r="O12" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12">
-        <f>(-P11+SQRT(P11^2-4*O11*Q11))/(2*O11)</f>
-        <v>5859.8893499363649</v>
-      </c>
-      <c r="Q12">
-        <f>(-P11-SQRT(P11^2-4*O11*Q11))/(2*O11)</f>
-        <v>5337.9724178696897</v>
-      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H13" t="s">
@@ -9627,6 +10813,24 @@
         <f t="shared" ref="H18:H21" si="6">$B$8/G18/(1E-24)</f>
         <v>1.8855438651365908</v>
       </c>
+      <c r="I18">
+        <v>5447.6876656779723</v>
+      </c>
+      <c r="J18">
+        <f>I18^(1/3)</f>
+        <v>17.595599435361585</v>
+      </c>
+      <c r="K18">
+        <f>$B$8/(I18*(10^-24))</f>
+        <v>1.7673553608183556</v>
+      </c>
+      <c r="L18">
+        <v>-423.69875047834716</v>
+      </c>
+      <c r="M18">
+        <f>L18/L20</f>
+        <v>-4.236987504783472</v>
+      </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19">
@@ -9679,6 +10883,12 @@
         <f t="shared" si="6"/>
         <v>1.7817764085658596</v>
       </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21">
@@ -9706,28 +10916,6 @@
         <v>1.7327394808327186</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J22">
-        <f>I22^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" t="e">
-        <f>$L$5/(I22*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M22">
-        <f>L22/L24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>100</v>
-      </c>
-    </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>1200</v>
@@ -9876,6 +11064,24 @@
         <f t="shared" ref="H31:H32" si="12">$B$8/G31/(1E-24)</f>
         <v>1.9404592171842521</v>
       </c>
+      <c r="I31">
+        <v>5308.4009707059085</v>
+      </c>
+      <c r="J31">
+        <f>I31^(1/3)</f>
+        <v>17.444341228234276</v>
+      </c>
+      <c r="K31">
+        <f>$B$8/(I31*(10^-24))</f>
+        <v>1.8137288522723771</v>
+      </c>
+      <c r="L31">
+        <v>-428.2395466718927</v>
+      </c>
+      <c r="M31">
+        <f>L31/L33</f>
+        <v>-4.2823954667189268</v>
+      </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32">
@@ -9928,6 +11134,12 @@
         <f t="shared" ref="H33:H34" si="15">$B$8/G33/(1E-24)</f>
         <v>1.8326812711825409</v>
       </c>
+      <c r="K33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34">
@@ -9955,28 +11167,6 @@
         <v>1.7817764085658596</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J35">
-        <f>I35^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" t="e">
-        <f>$B$8/(I35*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35">
-        <f>L35/L37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K37" t="s">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>100</v>
-      </c>
-    </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>1100</v>
@@ -10125,6 +11315,24 @@
         <f t="shared" ref="H44:H46" si="22">$B$8/G44/(1E-24)</f>
         <v>1.9687178912658434</v>
       </c>
+      <c r="I44">
+        <v>5163.9561802676308</v>
+      </c>
+      <c r="J44">
+        <f>I44^(1/3)</f>
+        <v>17.284660331144565</v>
+      </c>
+      <c r="K44">
+        <f>$B$8/(I44*(10^-24))</f>
+        <v>1.8644619868755377</v>
+      </c>
+      <c r="L44">
+        <v>-432.38987869690806</v>
+      </c>
+      <c r="M44">
+        <f>L44/L46</f>
+        <v>-4.3238987869690808</v>
+      </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45">
@@ -10156,6 +11364,15 @@
       <c r="B46">
         <v>1.0449999999999999</v>
       </c>
+      <c r="C46">
+        <v>-434.22865984444502</v>
+      </c>
+      <c r="D46">
+        <v>28.267116444444401</v>
+      </c>
+      <c r="E46">
+        <v>2.0485600000000002</v>
+      </c>
       <c r="F46">
         <f t="shared" si="20"/>
         <v>17.137999999999998</v>
@@ -10168,6 +11385,12 @@
         <f t="shared" si="22"/>
         <v>1.9127387932924718</v>
       </c>
+      <c r="K46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>100</v>
+      </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47">
@@ -10221,43 +11444,35 @@
         <v>1.8326812711825409</v>
       </c>
     </row>
-    <row r="49" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J49">
-        <f>I49^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K49" t="e">
-        <f>$L$5/(I49*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M49">
-        <f>L49/L51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="K51" t="s">
-        <v>3</v>
-      </c>
-      <c r="L51">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418B7CB-32AB-6A4E-A2B4-00CC08061BC5}">
-  <dimension ref="A5:J39"/>
+  <dimension ref="A2:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>36</v>
@@ -10344,9 +11559,6 @@
       <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="J11" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
@@ -10364,12 +11576,6 @@
       <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="I12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13">
@@ -10622,15 +11828,60 @@
       <c r="B37">
         <v>1300</v>
       </c>
+      <c r="C37">
+        <v>5447.6876656779723</v>
+      </c>
+      <c r="D37">
+        <v>17.595599435361585</v>
+      </c>
+      <c r="E37">
+        <v>1.7673553608183556</v>
+      </c>
+      <c r="F37">
+        <v>-423.69875047834716</v>
+      </c>
+      <c r="G37">
+        <v>-4.236987504783472</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>1200</v>
       </c>
+      <c r="C38">
+        <v>5308.4009707059085</v>
+      </c>
+      <c r="D38">
+        <v>17.444341228234276</v>
+      </c>
+      <c r="E38">
+        <v>1.8137288522723771</v>
+      </c>
+      <c r="F38">
+        <v>-428.2395466718927</v>
+      </c>
+      <c r="G38">
+        <v>-4.2823954667189268</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>1100</v>
+      </c>
+      <c r="C39">
+        <v>5163.9561802676308</v>
+      </c>
+      <c r="D39">
+        <v>17.284660331144565</v>
+      </c>
+      <c r="E39">
+        <v>1.8644619868755377</v>
+      </c>
+      <c r="F39">
+        <v>-432.38987869690806</v>
+      </c>
+      <c r="G39">
+        <v>-4.3238987869690808</v>
       </c>
     </row>
   </sheetData>

--- a/SALT/FLiNaK.xlsx
+++ b/SALT/FLiNaK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F643D3-C175-D744-8B63-657C3BAAF704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31982B1C-6026-5E45-9868-EC8AED9D8772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="24520" windowHeight="20760" activeTab="1" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
+    <workbookView xWindow="4040" yWindow="3240" windowWidth="24520" windowHeight="20760" activeTab="1" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5885,8 +5885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C7C49-F970-6D42-8577-7333C5E83B75}">
   <dimension ref="B2:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6877,8 +6877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EB486-C215-BA4A-94EA-40A0116C6EBC}">
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7142,6 +7142,15 @@
       <c r="B19">
         <v>1.04</v>
       </c>
+      <c r="C19">
+        <v>-565.42472985777795</v>
+      </c>
+      <c r="D19">
+        <v>33.339208888888898</v>
+      </c>
+      <c r="E19">
+        <v>0.53318666666666703</v>
+      </c>
       <c r="F19">
         <f t="shared" si="1"/>
         <v>15.828625280000001</v>
@@ -7171,6 +7180,15 @@
       <c r="B20">
         <v>1.05</v>
       </c>
+      <c r="C20">
+        <v>-563.51811899999905</v>
+      </c>
+      <c r="D20">
+        <v>33.533421111111103</v>
+      </c>
+      <c r="E20">
+        <v>-0.77076444444444503</v>
+      </c>
       <c r="F20">
         <f t="shared" si="1"/>
         <v>15.980823600000001</v>
@@ -7357,6 +7375,15 @@
       <c r="B30">
         <v>1.04</v>
       </c>
+      <c r="C30">
+        <v>-567.82604233111101</v>
+      </c>
+      <c r="D30">
+        <v>31.350301111111101</v>
+      </c>
+      <c r="E30">
+        <v>-1.5702866666666599</v>
+      </c>
       <c r="F30">
         <f t="shared" si="8"/>
         <v>15.828625280000001</v>
@@ -7437,15 +7464,15 @@
         <v>11.9336511111111</v>
       </c>
       <c r="F36">
-        <f>$F$10*B36</f>
+        <f t="shared" ref="F36:F41" si="11">$F$10*B36</f>
         <v>15.06763368</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36" si="11">F36^3</f>
+        <f t="shared" ref="G36" si="12">F36^3</f>
         <v>3420.8588875379</v>
       </c>
       <c r="H36">
-        <f>$B$8/G36/(1E-24)</f>
+        <f t="shared" ref="H36:H41" si="13">$B$8/G36/(1E-24)</f>
         <v>2.0225563893340652</v>
       </c>
     </row>
@@ -7463,15 +7490,15 @@
         <v>6.8639311111111203</v>
       </c>
       <c r="F37">
-        <f>$F$10*B37</f>
+        <f t="shared" si="11"/>
         <v>15.219832</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37" si="12">F37^3</f>
+        <f t="shared" ref="G37" si="14">F37^3</f>
         <v>3525.5718984951031</v>
       </c>
       <c r="H37">
-        <f>$B$8/G37/(1E-24)</f>
+        <f t="shared" si="13"/>
         <v>1.9624844420144538</v>
       </c>
     </row>
@@ -7489,15 +7516,15 @@
         <v>3.2460844444444499</v>
       </c>
       <c r="F38">
-        <f>$F$10*B38</f>
+        <f t="shared" si="11"/>
         <v>15.37203032</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38" si="13">F38^3</f>
+        <f t="shared" ref="G38" si="15">F38^3</f>
         <v>3632.4002525914034</v>
       </c>
       <c r="H38">
-        <f>$B$8/G38/(1E-24)</f>
+        <f t="shared" si="13"/>
         <v>1.9047680648805094</v>
       </c>
     </row>
@@ -7515,15 +7542,15 @@
         <v>1.23244222222222</v>
       </c>
       <c r="F39">
-        <f>$F$10*B39</f>
+        <f t="shared" si="11"/>
         <v>15.52422864</v>
       </c>
       <c r="G39">
-        <f t="shared" ref="G39:G41" si="14">F39^3</f>
+        <f t="shared" ref="G39:G41" si="16">F39^3</f>
         <v>3741.365103258192</v>
       </c>
       <c r="H39">
-        <f>$B$8/G39/(1E-24)</f>
+        <f t="shared" si="13"/>
         <v>1.849292920911314</v>
       </c>
     </row>
@@ -7541,15 +7568,15 @@
         <v>-0.59429111111111099</v>
       </c>
       <c r="F40">
-        <f>$F$10*B40</f>
+        <f t="shared" si="11"/>
         <v>15.676426960000001</v>
       </c>
       <c r="G40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3852.4876039268588</v>
       </c>
       <c r="H40">
-        <f>$B$8/G40/(1E-24)</f>
+        <f t="shared" si="13"/>
         <v>1.7959512687198669</v>
       </c>
       <c r="J40">
@@ -7570,15 +7597,15 @@
         <v>1.04</v>
       </c>
       <c r="F41">
-        <f>$F$10*B41</f>
+        <f t="shared" si="11"/>
         <v>15.828625280000001</v>
       </c>
       <c r="G41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3965.7889080287964</v>
       </c>
       <c r="H41">
-        <f>$B$8/G41/(1E-24)</f>
+        <f t="shared" si="13"/>
         <v>1.7446415228991712</v>
       </c>
     </row>
@@ -7640,15 +7667,15 @@
         <v>0.98</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:F51" si="15">$F$10*B47</f>
+        <f t="shared" ref="F47:F51" si="17">$F$10*B47</f>
         <v>14.91543536</v>
       </c>
       <c r="G47">
-        <f t="shared" ref="G47:G51" si="16">F47^3</f>
+        <f t="shared" ref="G47:G51" si="18">F47^3</f>
         <v>3318.2400662884033</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47:H51" si="17">$B$8/G47/(1E-24)</f>
+        <f t="shared" ref="H47:H51" si="19">$B$8/G47/(1E-24)</f>
         <v>2.0851053154026529</v>
       </c>
     </row>
@@ -7657,15 +7684,15 @@
         <v>0.99</v>
       </c>
       <c r="F48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>15.06763368</v>
       </c>
       <c r="G48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3420.8588875379</v>
       </c>
       <c r="H48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.0225563893340652</v>
       </c>
     </row>
@@ -7674,15 +7701,15 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>15.219832</v>
       </c>
       <c r="G49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3525.5718984951031</v>
       </c>
       <c r="H49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.9624844420144538</v>
       </c>
     </row>
@@ -7691,15 +7718,15 @@
         <v>1.01</v>
       </c>
       <c r="F50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>15.37203032</v>
       </c>
       <c r="G50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3632.4002525914034</v>
       </c>
       <c r="H50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.9047680648805094</v>
       </c>
     </row>
@@ -7708,15 +7735,15 @@
         <v>1.02</v>
       </c>
       <c r="F51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>15.52422864</v>
       </c>
       <c r="G51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3741.365103258192</v>
       </c>
       <c r="H51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.849292920911314</v>
       </c>
     </row>
@@ -7729,8 +7756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350EA8ED-C68E-1740-8FFB-D44F1BF7B044}">
   <dimension ref="B2:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7941,6 +7968,15 @@
       <c r="B17">
         <v>1.0049999999999999</v>
       </c>
+      <c r="C17">
+        <v>-601.14057541777697</v>
+      </c>
+      <c r="D17">
+        <v>33.217767111111101</v>
+      </c>
+      <c r="E17">
+        <v>3.6723911111111098</v>
+      </c>
       <c r="F17">
         <f t="shared" ref="F17:F19" si="3">$F$10*B17</f>
         <v>14.270999999999997</v>
@@ -7984,6 +8020,15 @@
       <c r="B19">
         <v>1.0149999999999999</v>
       </c>
+      <c r="C19">
+        <v>-600.22778648889005</v>
+      </c>
+      <c r="D19">
+        <v>33.166473777777803</v>
+      </c>
+      <c r="E19">
+        <v>0.345546666666666</v>
+      </c>
       <c r="F19">
         <f t="shared" si="3"/>
         <v>14.412999999999998</v>
@@ -8027,6 +8072,15 @@
       <c r="B21">
         <v>1.0249999999999999</v>
       </c>
+      <c r="C21">
+        <v>-599.08673015777799</v>
+      </c>
+      <c r="D21">
+        <v>33.057203333333298</v>
+      </c>
+      <c r="E21">
+        <v>-2.4525755555555602</v>
+      </c>
       <c r="F21">
         <f t="shared" si="6"/>
         <v>14.554999999999998</v>
@@ -8178,6 +8232,15 @@
       <c r="B31">
         <v>1.0049999999999999</v>
       </c>
+      <c r="C31">
+        <v>-604.09246373777796</v>
+      </c>
+      <c r="D31">
+        <v>31.054102666666601</v>
+      </c>
+      <c r="E31">
+        <v>1.77412444444444</v>
+      </c>
       <c r="F31">
         <f>$F$10*B31</f>
         <v>14.270999999999997</v>
@@ -8220,6 +8283,15 @@
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>1.0149999999999999</v>
+      </c>
+      <c r="C33">
+        <v>-602.70422223111098</v>
+      </c>
+      <c r="D33">
+        <v>30.826090888888899</v>
+      </c>
+      <c r="E33">
+        <v>-1.8257288888888901</v>
       </c>
       <c r="F33">
         <f t="shared" si="14"/>
@@ -8510,6 +8582,15 @@
       <c r="B55">
         <v>0.96</v>
       </c>
+      <c r="C55">
+        <v>-616.31592727333305</v>
+      </c>
+      <c r="D55">
+        <v>25.464230666666701</v>
+      </c>
+      <c r="E55">
+        <v>15.096455555555499</v>
+      </c>
       <c r="F55">
         <f>$F$10*B55</f>
         <v>13.632</v>
@@ -8527,6 +8608,15 @@
       <c r="B56">
         <v>0.97</v>
       </c>
+      <c r="C56">
+        <v>-615.24007592888904</v>
+      </c>
+      <c r="D56">
+        <v>25.914586444444399</v>
+      </c>
+      <c r="E56">
+        <v>9.3316266666666703</v>
+      </c>
       <c r="F56">
         <f t="shared" ref="F56:F59" si="27">$F$10*B56</f>
         <v>13.773999999999999</v>
@@ -8544,6 +8634,15 @@
       <c r="B57">
         <v>0.98</v>
       </c>
+      <c r="C57">
+        <v>-613.88798691111197</v>
+      </c>
+      <c r="D57">
+        <v>25.530689333333299</v>
+      </c>
+      <c r="E57">
+        <v>4.2946511111111096</v>
+      </c>
       <c r="F57">
         <f t="shared" si="27"/>
         <v>13.915999999999999</v>
@@ -8561,6 +8660,15 @@
       <c r="B58">
         <v>0.99</v>
       </c>
+      <c r="C58">
+        <v>-613.32528245333299</v>
+      </c>
+      <c r="D58">
+        <v>25.330127555555599</v>
+      </c>
+      <c r="E58">
+        <v>0.135735555555558</v>
+      </c>
       <c r="F58">
         <f t="shared" si="27"/>
         <v>14.058</v>
@@ -8575,17 +8683,20 @@
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>1</v>
+      </c>
       <c r="F59">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="G59">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H59" t="e">
+        <v>2863.2879999999996</v>
+      </c>
+      <c r="H59">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>1.8691238883409569</v>
       </c>
     </row>
   </sheetData>
@@ -11452,10 +11563,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418B7CB-32AB-6A4E-A2B4-00CC08061BC5}">
-  <dimension ref="A2:J39"/>
+  <dimension ref="A2:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11555,332 +11666,347 @@
         <v>-4.4406128865530237</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>31</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>1300</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>1200</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16">
         <v>1100</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>29</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F20" t="s">
         <v>31</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G20" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>1200</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E27" t="s">
         <v>29</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F27" t="s">
         <v>31</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28">
         <v>1300</v>
       </c>
-      <c r="C25">
+      <c r="C28">
         <v>2581.5804088422565</v>
       </c>
-      <c r="D25">
+      <c r="D28">
         <v>13.718139625769327</v>
       </c>
-      <c r="E25">
+      <c r="E28">
         <v>1.671844109607094</v>
       </c>
-      <c r="F25">
+      <c r="F28">
         <v>-691.54626535596321</v>
       </c>
-      <c r="G25">
+      <c r="G28">
         <v>-6.915462653559632</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29">
         <v>1200</v>
       </c>
-      <c r="C26">
+      <c r="C29">
         <v>2521.3529193271552</v>
       </c>
-      <c r="D26">
+      <c r="D29">
         <v>13.610619083982041</v>
       </c>
-      <c r="E26">
+      <c r="E29">
         <v>1.711779404983798</v>
       </c>
-      <c r="F26">
+      <c r="F29">
         <v>-696.0788016990648</v>
       </c>
-      <c r="G26">
+      <c r="G29">
         <v>-6.960788016990648</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30">
         <v>1100</v>
       </c>
-      <c r="C27">
+      <c r="C30">
         <v>2467.363315382197</v>
       </c>
-      <c r="D27">
+      <c r="D30">
         <v>13.512769473054608</v>
       </c>
-      <c r="E27">
+      <c r="E30">
         <v>1.7492357015656799</v>
       </c>
-      <c r="F27">
+      <c r="F30">
         <v>-699.81345169767326</v>
       </c>
-      <c r="G27">
+      <c r="G30">
         <v>-6.9981345169767328</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
         <v>30</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D33" t="s">
         <v>27</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E33" t="s">
         <v>29</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F33" t="s">
         <v>31</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B34">
         <v>1300</v>
       </c>
-      <c r="C31">
+      <c r="C34">
         <v>3732.6556968502064</v>
       </c>
-      <c r="D31">
+      <c r="D34">
         <v>15.512173159079465</v>
       </c>
-      <c r="E31">
+      <c r="E34">
         <v>1.8678390310371533</v>
       </c>
-      <c r="F31">
+      <c r="F34">
         <v>-449.48106021942283</v>
       </c>
-      <c r="G31">
+      <c r="G34">
         <v>-4.494810602194228</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B32">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35">
         <v>1200</v>
       </c>
-      <c r="C32">
+      <c r="C35">
         <v>3609.3715029974123</v>
       </c>
-      <c r="D32">
+      <c r="D35">
         <v>15.339476145183413</v>
       </c>
-      <c r="E32">
+      <c r="E35">
         <v>1.9316382351359742</v>
       </c>
-      <c r="F32">
+      <c r="F35">
         <v>-454.8282640788716</v>
       </c>
-      <c r="G32">
+      <c r="G35">
         <v>-4.5482826407887158</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B33">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36">
         <v>1100</v>
       </c>
-      <c r="C33">
+      <c r="C36">
         <v>3520.8378237816814</v>
       </c>
-      <c r="D33">
+      <c r="D36">
         <v>15.213016642763073</v>
       </c>
-      <c r="E33">
+      <c r="E36">
         <v>1.9802104922036636</v>
       </c>
-      <c r="F33">
+      <c r="F36">
         <v>-458.67455662511031</v>
       </c>
-      <c r="G33">
+      <c r="G36">
         <v>-4.5867455662511034</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>30</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D39" t="s">
         <v>27</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E39" t="s">
         <v>29</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F39" t="s">
         <v>31</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B40">
         <v>1300</v>
       </c>
-      <c r="C37">
+      <c r="C40">
         <v>5447.6876656779723</v>
       </c>
-      <c r="D37">
+      <c r="D40">
         <v>17.595599435361585</v>
       </c>
-      <c r="E37">
+      <c r="E40">
         <v>1.7673553608183556</v>
       </c>
-      <c r="F37">
+      <c r="F40">
         <v>-423.69875047834716</v>
       </c>
-      <c r="G37">
+      <c r="G40">
         <v>-4.236987504783472</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41">
         <v>1200</v>
       </c>
-      <c r="C38">
+      <c r="C41">
         <v>5308.4009707059085</v>
       </c>
-      <c r="D38">
+      <c r="D41">
         <v>17.444341228234276</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>1.8137288522723771</v>
       </c>
-      <c r="F38">
+      <c r="F41">
         <v>-428.2395466718927</v>
       </c>
-      <c r="G38">
+      <c r="G41">
         <v>-4.2823954667189268</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B39">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42">
         <v>1100</v>
       </c>
-      <c r="C39">
+      <c r="C42">
         <v>5163.9561802676308</v>
       </c>
-      <c r="D39">
+      <c r="D42">
         <v>17.284660331144565</v>
       </c>
-      <c r="E39">
+      <c r="E42">
         <v>1.8644619868755377</v>
       </c>
-      <c r="F39">
+      <c r="F42">
         <v>-432.38987869690806</v>
       </c>
-      <c r="G39">
+      <c r="G42">
         <v>-4.3238987869690808</v>
       </c>
     </row>

--- a/SALT/FLiNaK.xlsx
+++ b/SALT/FLiNaK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31982B1C-6026-5E45-9868-EC8AED9D8772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2665A916-E15E-6D40-AD75-3EA0E199C0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="3240" windowWidth="24520" windowHeight="20760" activeTab="1" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
+    <workbookView xWindow="4040" yWindow="500" windowWidth="24520" windowHeight="20760" activeTab="3" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -255,6 +255,604 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'61.39.0'!$G$15:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2778.2454831119999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2863.2879999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2906.4524245109983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2950.0484896879993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2994.0783429969993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3038.5441319040001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3083.4480038749989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'61.39.0'!$E$15:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.8729866666666606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8614093476959903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6723911111111098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.54493777777778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.345546666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.90337999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.4525755555555602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E46D-D444-BF9E-A959B330ECBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="168906880"/>
+        <c:axId val="169516496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="168906880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169516496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="169516496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168906880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'61.39.0'!$C$15:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-603.39408408444399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-601.87902972474399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-601.14057541777697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-600.67473306888905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-600.22778648889005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-599.40760894666698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-599.08673015777799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'61.39.0'!$E$15:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.8729866666666606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8614093476959903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6723911111111098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.54493777777778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.345546666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.90337999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.4525755555555602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C416-EC44-B2D1-48CE82030937}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="168906880"/>
+        <c:axId val="169516496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="168906880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169516496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="169516496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168906880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -568,7 +1166,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -882,7 +1480,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1208,7 +1806,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1534,7 +2132,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2042,6 +2640,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4622,7 +5300,1118 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D21C23-DA06-FBFD-F190-6EDE6321DE3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3B66D9-75C1-C144-B088-847E7C4B602B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4701,7 +6490,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4780,7 +6569,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5885,7 +7674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C7C49-F970-6D42-8577-7333C5E83B75}">
   <dimension ref="B2:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -7756,11 +9545,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350EA8ED-C68E-1740-8FFB-D44F1BF7B044}">
   <dimension ref="B2:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
@@ -7799,9 +9591,15 @@
       <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E16:E23,G16:G23^{1,2})</f>
-        <v>#VALUE!</v>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6:L6">LINEST(E15:E21,G15:G21^{1,2})</f>
+        <v>4.8601055051286152E-5</v>
+      </c>
+      <c r="K6">
+        <v>-0.32522365680601517</v>
+      </c>
+      <c r="L6">
+        <v>538.36308983556353</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -7811,13 +9609,13 @@
       <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="K7" t="e">
+      <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>3688.6635015930237</v>
+      </c>
+      <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
+        <v>3003.0360193911124</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -7849,22 +9647,28 @@
       <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E16:E23,C16:C23^{1,2})</f>
-        <v>#VALUE!</v>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10:L10">LINEST(E15:E21,C15:C21^{1,2})</f>
+        <v>4.6366639435798704E-2</v>
+      </c>
+      <c r="K10">
+        <v>52.897923901410145</v>
+      </c>
+      <c r="L10">
+        <v>15046.93156106451</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="e">
+      <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="e">
+        <v>-540.92283626503956</v>
+      </c>
+      <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
+        <v>-599.93888123456372</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -8015,6 +9819,24 @@
         <f t="shared" si="5"/>
         <v>1.8141532312799433</v>
       </c>
+      <c r="I18">
+        <v>3003.0360193911124</v>
+      </c>
+      <c r="J18">
+        <f>I18^(1/3)</f>
+        <v>14.427359282409711</v>
+      </c>
+      <c r="K18">
+        <f>$B$8/(I18*(10^-24))</f>
+        <v>1.7821431263036014</v>
+      </c>
+      <c r="L18">
+        <v>-599.93888123456372</v>
+      </c>
+      <c r="M18">
+        <f>L18/L20</f>
+        <v>-5.9993888123456376</v>
+      </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19">
@@ -8067,6 +9889,12 @@
         <f t="shared" ref="H20:H21" si="8">$B$8/G20/(1E-24)</f>
         <v>1.761317186019099</v>
       </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21">
@@ -8092,26 +9920,6 @@
       <c r="H21">
         <f t="shared" si="8"/>
         <v>1.7356673416494428</v>
-      </c>
-      <c r="J21">
-        <f>I21^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" t="e">
-        <f>$B$8/(I21*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21">
-        <f>L21/L23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K23" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
@@ -8701,6 +10509,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SALT/FLiNaK.xlsx
+++ b/SALT/FLiNaK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2665A916-E15E-6D40-AD75-3EA0E199C0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA9CF62-5494-F144-8762-18369A7E0894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="500" windowWidth="24520" windowHeight="20760" activeTab="3" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="24520" windowHeight="15800" activeTab="2" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="45">
   <si>
     <t>#atoms</t>
   </si>
@@ -598,62 +598,65 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'61.39.0'!$C$15:$C$21</c:f>
+              <c:f>'61.39.0'!$G$55:$G$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-603.39408408444399</c:v>
+                  <c:v>2533.2539719679999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-601.87902972474399</c:v>
+                  <c:v>2613.2456488239995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-601.14057541777697</c:v>
+                  <c:v>2694.9037592959994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-600.67473306888905</c:v>
+                  <c:v>2778.2454831119999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-600.22778648889005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-599.40760894666698</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-599.08673015777799</c:v>
+                  <c:v>2863.2879999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'61.39.0'!$E$15:$E$21</c:f>
+              <c:f>'61.39.0'!$E$55:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.8729866666666606</c:v>
+                  <c:v>15.096455555555499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8614093476959903</c:v>
+                  <c:v>9.3316266666666703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6723911111111098</c:v>
+                  <c:v>4.2946511111111096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.54493777777778</c:v>
+                  <c:v>0.135735555555558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.345546666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.90337999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.4525755555555602</c:v>
+                  <c:v>-1.6362977777777801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7672,10 +7675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C7C49-F970-6D42-8577-7333C5E83B75}">
-  <dimension ref="B2:M55"/>
+  <dimension ref="B2:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8576,6 +8579,15 @@
       <c r="B51">
         <v>0.98</v>
       </c>
+      <c r="C51">
+        <v>-452.52741762666699</v>
+      </c>
+      <c r="D51">
+        <v>25.3036168888889</v>
+      </c>
+      <c r="E51">
+        <v>8.4931777777777704</v>
+      </c>
       <c r="F51">
         <f t="shared" ref="F51" si="22">$F$10*B51</f>
         <v>15.875999999999999</v>
@@ -8593,16 +8605,25 @@
       <c r="B52">
         <v>0.99</v>
       </c>
+      <c r="C52">
+        <v>-450.66692568000002</v>
+      </c>
+      <c r="D52">
+        <v>25.8897528888889</v>
+      </c>
+      <c r="E52">
+        <v>6.1615244444444404</v>
+      </c>
       <c r="F52">
-        <f t="shared" ref="F52:F55" si="25">$F$10*B52</f>
+        <f t="shared" ref="F52:F57" si="25">$F$10*B52</f>
         <v>16.038</v>
       </c>
       <c r="G52">
-        <f t="shared" ref="G52:G55" si="26">F52^3</f>
+        <f t="shared" ref="G52:G57" si="26">F52^3</f>
         <v>4125.2533668719998</v>
       </c>
       <c r="H52">
-        <f t="shared" ref="H52:H55" si="27">$B$8/G52/(1E-24)</f>
+        <f t="shared" ref="H52:H57" si="27">$B$8/G52/(1E-24)</f>
         <v>2.0763815548364541</v>
       </c>
     </row>
@@ -8610,6 +8631,15 @@
       <c r="B53">
         <v>1</v>
       </c>
+      <c r="C53">
+        <v>-449.49702580222203</v>
+      </c>
+      <c r="D53">
+        <v>25.365084</v>
+      </c>
+      <c r="E53">
+        <v>1.9182222222222201</v>
+      </c>
       <c r="F53">
         <f t="shared" si="25"/>
         <v>16.2</v>
@@ -8625,36 +8655,98 @@
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B55">
         <v>1.01</v>
       </c>
-      <c r="F54">
+      <c r="C55">
+        <v>-448.05779175111098</v>
+      </c>
+      <c r="D55">
+        <v>25.8355888888889</v>
+      </c>
+      <c r="E55">
+        <v>-0.207984444444445</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="25"/>
         <v>16.361999999999998</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <f t="shared" si="26"/>
         <v>4380.3535499279978</v>
       </c>
-      <c r="H54">
+      <c r="H55">
         <f t="shared" si="27"/>
         <v>1.9554585953777175</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B55">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="25"/>
+        <v>16.442999999999998</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="26"/>
+        <v>4445.7308903069988</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="27"/>
+        <v>1.9267023154000458</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B57">
         <v>1.02</v>
       </c>
-      <c r="F55">
+      <c r="C57">
+        <v>-446.24578430888897</v>
+      </c>
+      <c r="D57">
+        <v>25.848158444444501</v>
+      </c>
+      <c r="E57">
+        <v>-2.5626933333333302</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="25"/>
         <v>16.524000000000001</v>
       </c>
-      <c r="G55">
+      <c r="G57">
         <f t="shared" si="26"/>
         <v>4511.7555258240009</v>
       </c>
-      <c r="H55">
+      <c r="H57">
         <f t="shared" si="27"/>
         <v>1.8985071223325269</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <f>I58^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K58" t="e">
+        <f>$B$8/(I58*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58">
+        <f>L58/L60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K60" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -8664,889 +8756,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EB486-C215-BA4A-94EA-40A0116C6EBC}">
-  <dimension ref="B2:M51"/>
+  <dimension ref="B2:M54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:E30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <f>492+273</f>
-        <v>765</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E15:E21,G15:G21^{1,2})</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="e">
-        <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
-        <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>6.918880000000001E-21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10">
-        <f>15.219832</f>
-        <v>15.219832</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E15:E21,C15:C21^{1,2})</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" t="e">
-        <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="e">
-        <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>-569.64009864666605</v>
-      </c>
-      <c r="D15">
-        <v>33.392528888888897</v>
-      </c>
-      <c r="E15">
-        <v>12.4579511111111</v>
-      </c>
-      <c r="F15">
-        <f>$F$10*B15</f>
-        <v>15.219832</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ref="G15" si="0">F15^3</f>
-        <v>3525.5718984951031</v>
-      </c>
-      <c r="H15">
-        <f>$B$8/G15/(1E-24)</f>
-        <v>1.9624844420144538</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>1.01</v>
-      </c>
-      <c r="C16">
-        <v>-569.12074164222201</v>
-      </c>
-      <c r="D16">
-        <v>33.9307651111111</v>
-      </c>
-      <c r="E16">
-        <v>8.3188555555555599</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ref="F16:F20" si="1">$F$10*B16</f>
-        <v>15.37203032</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16:G20" si="2">F16^3</f>
-        <v>3632.4002525914034</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16:H20" si="3">$B$8/G16/(1E-24)</f>
-        <v>1.9047680648805094</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>1.02</v>
-      </c>
-      <c r="C17">
-        <v>-567.58927564222199</v>
-      </c>
-      <c r="D17">
-        <v>33.479208444444502</v>
-      </c>
-      <c r="E17">
-        <v>5.1836311111111097</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>15.52422864</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>3741.365103258192</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>1.849292920911314</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>1.03</v>
-      </c>
-      <c r="C18">
-        <v>-566.57734213777803</v>
-      </c>
-      <c r="D18">
-        <v>34.0751197777778</v>
-      </c>
-      <c r="E18">
-        <v>3.6485644444444398</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>15.676426960000001</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>3852.4876039268588</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>1.7959512687198669</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>1.04</v>
-      </c>
-      <c r="C19">
-        <v>-565.42472985777795</v>
-      </c>
-      <c r="D19">
-        <v>33.339208888888898</v>
-      </c>
-      <c r="E19">
-        <v>0.53318666666666703</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>15.828625280000001</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>3965.7889080287964</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
-        <v>1.7446415228991712</v>
-      </c>
-      <c r="J19">
-        <f>I19^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" t="e">
-        <f>$L$5/(I19*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M19">
-        <f>L19/L21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>1.05</v>
-      </c>
-      <c r="C20">
-        <v>-563.51811899999905</v>
-      </c>
-      <c r="D20">
-        <v>33.533421111111103</v>
-      </c>
-      <c r="E20">
-        <v>-0.77076444444444503</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>15.980823600000001</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>4081.2901689953947</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
-        <v>1.6952678475451493</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>-574.18171071555503</v>
-      </c>
-      <c r="D26">
-        <v>30.776235111111099</v>
-      </c>
-      <c r="E26">
-        <v>10.480877777777801</v>
-      </c>
-      <c r="F26">
-        <f>$F$10*B26</f>
-        <v>15.219832</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ref="G26" si="4">F26^3</f>
-        <v>3525.5718984951031</v>
-      </c>
-      <c r="H26">
-        <f>$B$8/G26/(1E-24)</f>
-        <v>1.9624844420144538</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>1.01</v>
-      </c>
-      <c r="C27">
-        <v>-572.94664726888902</v>
-      </c>
-      <c r="D27">
-        <v>30.639093111111201</v>
-      </c>
-      <c r="E27">
-        <v>5.5050266666666703</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ref="F27:F28" si="5">$F$10*B27</f>
-        <v>15.37203032</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ref="G27:G28" si="6">F27^3</f>
-        <v>3632.4002525914034</v>
-      </c>
-      <c r="H27">
-        <f t="shared" ref="H27:H28" si="7">$B$8/G27/(1E-24)</f>
-        <v>1.9047680648805094</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>1.02</v>
-      </c>
-      <c r="C28">
-        <v>-571.20458736444505</v>
-      </c>
-      <c r="D28">
-        <v>30.532009777777802</v>
-      </c>
-      <c r="E28">
-        <v>3.1602222222222198</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="5"/>
-        <v>15.52422864</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="6"/>
-        <v>3741.365103258192</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="7"/>
-        <v>1.849292920911314</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>1.03</v>
-      </c>
-      <c r="C29">
-        <v>-569.77942082222296</v>
-      </c>
-      <c r="D29">
-        <v>31.010850666666698</v>
-      </c>
-      <c r="E29">
-        <v>1.5358799999999999</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ref="F29:F30" si="8">$F$10*B29</f>
-        <v>15.676426960000001</v>
-      </c>
-      <c r="G29">
-        <f t="shared" ref="G29:G30" si="9">F29^3</f>
-        <v>3852.4876039268588</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ref="H29:H30" si="10">$B$8/G29/(1E-24)</f>
-        <v>1.7959512687198669</v>
-      </c>
-      <c r="J29">
-        <f>I29^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" t="e">
-        <f>$L$5/(I29*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M29">
-        <f>L29/L31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>1.04</v>
-      </c>
-      <c r="C30">
-        <v>-567.82604233111101</v>
-      </c>
-      <c r="D30">
-        <v>31.350301111111101</v>
-      </c>
-      <c r="E30">
-        <v>-1.5702866666666599</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="8"/>
-        <v>15.828625280000001</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="9"/>
-        <v>3965.7889080287964</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="10"/>
-        <v>1.7446415228991712</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" t="s">
-        <v>30</v>
-      </c>
-      <c r="J35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K35" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" t="s">
-        <v>31</v>
-      </c>
-      <c r="M35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>0.99</v>
-      </c>
-      <c r="C36">
-        <v>-577.37128468000003</v>
-      </c>
-      <c r="D36">
-        <v>29.219238222222199</v>
-      </c>
-      <c r="E36">
-        <v>11.9336511111111</v>
-      </c>
-      <c r="F36">
-        <f t="shared" ref="F36:F41" si="11">$F$10*B36</f>
-        <v>15.06763368</v>
-      </c>
-      <c r="G36">
-        <f t="shared" ref="G36" si="12">F36^3</f>
-        <v>3420.8588875379</v>
-      </c>
-      <c r="H36">
-        <f t="shared" ref="H36:H41" si="13">$B$8/G36/(1E-24)</f>
-        <v>2.0225563893340652</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>-577.20431783111098</v>
-      </c>
-      <c r="D37">
-        <v>28.048759555555598</v>
-      </c>
-      <c r="E37">
-        <v>6.8639311111111203</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="11"/>
-        <v>15.219832</v>
-      </c>
-      <c r="G37">
-        <f t="shared" ref="G37" si="14">F37^3</f>
-        <v>3525.5718984951031</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="13"/>
-        <v>1.9624844420144538</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>1.01</v>
-      </c>
-      <c r="C38">
-        <v>-576.05313280444398</v>
-      </c>
-      <c r="D38">
-        <v>28.318164222222201</v>
-      </c>
-      <c r="E38">
-        <v>3.2460844444444499</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="11"/>
-        <v>15.37203032</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ref="G38" si="15">F38^3</f>
-        <v>3632.4002525914034</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="13"/>
-        <v>1.9047680648805094</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>1.02</v>
-      </c>
-      <c r="C39">
-        <v>-574.52211748888897</v>
-      </c>
-      <c r="D39">
-        <v>28.503266888888898</v>
-      </c>
-      <c r="E39">
-        <v>1.23244222222222</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="11"/>
-        <v>15.52422864</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ref="G39:G41" si="16">F39^3</f>
-        <v>3741.365103258192</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="13"/>
-        <v>1.849292920911314</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>1.03</v>
-      </c>
-      <c r="C40">
-        <v>-572.10804927555603</v>
-      </c>
-      <c r="D40">
-        <v>29.047026444444398</v>
-      </c>
-      <c r="E40">
-        <v>-0.59429111111111099</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="11"/>
-        <v>15.676426960000001</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="16"/>
-        <v>3852.4876039268588</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="13"/>
-        <v>1.7959512687198669</v>
-      </c>
-      <c r="J40">
-        <f>I40^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K40" t="e">
-        <f>$L$5/(I40*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M40">
-        <f>L40/L42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41">
-        <v>1.04</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="11"/>
-        <v>15.828625280000001</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="16"/>
-        <v>3965.7889080287964</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="13"/>
-        <v>1.7446415228991712</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" t="s">
-        <v>29</v>
-      </c>
-      <c r="I46" t="s">
-        <v>30</v>
-      </c>
-      <c r="J46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" t="s">
-        <v>31</v>
-      </c>
-      <c r="M46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47">
-        <v>0.98</v>
-      </c>
-      <c r="F47">
-        <f t="shared" ref="F47:F51" si="17">$F$10*B47</f>
-        <v>14.91543536</v>
-      </c>
-      <c r="G47">
-        <f t="shared" ref="G47:G51" si="18">F47^3</f>
-        <v>3318.2400662884033</v>
-      </c>
-      <c r="H47">
-        <f t="shared" ref="H47:H51" si="19">$B$8/G47/(1E-24)</f>
-        <v>2.0851053154026529</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B48">
-        <v>0.99</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="17"/>
-        <v>15.06763368</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="18"/>
-        <v>3420.8588875379</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="19"/>
-        <v>2.0225563893340652</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="17"/>
-        <v>15.219832</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="18"/>
-        <v>3525.5718984951031</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="19"/>
-        <v>1.9624844420144538</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50">
-        <v>1.01</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="17"/>
-        <v>15.37203032</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="18"/>
-        <v>3632.4002525914034</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="19"/>
-        <v>1.9047680648805094</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51">
-        <v>1.02</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="17"/>
-        <v>15.52422864</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="18"/>
-        <v>3741.365103258192</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="19"/>
-        <v>1.849292920911314</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350EA8ED-C68E-1740-8FFB-D44F1BF7B044}">
-  <dimension ref="B2:M59"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9564,8 +8777,8 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <f>649+273</f>
-        <v>922</v>
+        <f>492+273</f>
+        <v>765</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -9592,14 +8805,14 @@
         <v>19</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6:L6">LINEST(E15:E21,G15:G21^{1,2})</f>
-        <v>4.8601055051286152E-5</v>
+        <f t="array" ref="J6:L6">LINEST(E36:E41,G36:G41^{1,2})</f>
+        <v>3.3164269407921288E-5</v>
       </c>
       <c r="K6">
-        <v>-0.32522365680601517</v>
+        <v>-0.27078314729150632</v>
       </c>
       <c r="L6">
-        <v>538.36308983556353</v>
+        <v>549.7556426612939</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -9611,11 +8824,981 @@
       </c>
       <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>3688.6635015930237</v>
+        <v>4381.9158391211058</v>
       </c>
       <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>3003.0360193911124</v>
+        <v>3782.990312160784</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>6.918880000000001E-21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <f>15.219832</f>
+        <v>15.219832</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10:L10">LINEST(E36:E41,C36:C41^{1,2})</f>
+        <v>0.43500253783683263</v>
+      </c>
+      <c r="K10">
+        <v>497.86292802093669</v>
+      </c>
+      <c r="L10">
+        <v>142449.92599700615</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>-570.20390138422192</v>
+      </c>
+      <c r="L11">
+        <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>-574.30189965476586</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>-569.64009864666605</v>
+      </c>
+      <c r="D15">
+        <v>33.392528888888897</v>
+      </c>
+      <c r="E15">
+        <v>12.4579511111111</v>
+      </c>
+      <c r="F15">
+        <f>$F$10*B15</f>
+        <v>15.219832</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15" si="0">F15^3</f>
+        <v>3525.5718984951031</v>
+      </c>
+      <c r="H15">
+        <f>$B$8/G15/(1E-24)</f>
+        <v>1.9624844420144538</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1.01</v>
+      </c>
+      <c r="C16">
+        <v>-569.12074164222201</v>
+      </c>
+      <c r="D16">
+        <v>33.9307651111111</v>
+      </c>
+      <c r="E16">
+        <v>8.3188555555555599</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F20" si="1">$F$10*B16</f>
+        <v>15.37203032</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G20" si="2">F16^3</f>
+        <v>3632.4002525914034</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H20" si="3">$B$8/G16/(1E-24)</f>
+        <v>1.9047680648805094</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>-567.58927564222199</v>
+      </c>
+      <c r="D17">
+        <v>33.479208444444502</v>
+      </c>
+      <c r="E17">
+        <v>5.1836311111111097</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>15.52422864</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>3741.365103258192</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>1.849292920911314</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1.03</v>
+      </c>
+      <c r="C18">
+        <v>-566.57734213777803</v>
+      </c>
+      <c r="D18">
+        <v>34.0751197777778</v>
+      </c>
+      <c r="E18">
+        <v>3.6485644444444398</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>15.676426960000001</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>3852.4876039268588</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>1.7959512687198669</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1.04</v>
+      </c>
+      <c r="C19">
+        <v>-565.42472985777795</v>
+      </c>
+      <c r="D19">
+        <v>33.339208888888898</v>
+      </c>
+      <c r="E19">
+        <v>0.53318666666666703</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>15.828625280000001</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>3965.7889080287964</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>1.7446415228991712</v>
+      </c>
+      <c r="I19">
+        <v>4019.971805275663</v>
+      </c>
+      <c r="J19">
+        <f>I19^(1/3)</f>
+        <v>15.90038605826029</v>
+      </c>
+      <c r="K19">
+        <f>$B$8/(I19*(10^-24))</f>
+        <v>1.7211264991759188</v>
+      </c>
+      <c r="L19">
+        <v>-564.64361550591661</v>
+      </c>
+      <c r="M19">
+        <f>L19/L21</f>
+        <v>-5.646436155059166</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>-563.51811899999905</v>
+      </c>
+      <c r="D20">
+        <v>33.533421111111103</v>
+      </c>
+      <c r="E20">
+        <v>-0.77076444444444503</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>15.980823600000001</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>4081.2901689953947</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>1.6952678475451493</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>-574.18171071555503</v>
+      </c>
+      <c r="D26">
+        <v>30.776235111111099</v>
+      </c>
+      <c r="E26">
+        <v>10.480877777777801</v>
+      </c>
+      <c r="F26">
+        <f>$F$10*B26</f>
+        <v>15.219832</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26" si="4">F26^3</f>
+        <v>3525.5718984951031</v>
+      </c>
+      <c r="H26">
+        <f>$B$8/G26/(1E-24)</f>
+        <v>1.9624844420144538</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1.01</v>
+      </c>
+      <c r="C27">
+        <v>-572.94664726888902</v>
+      </c>
+      <c r="D27">
+        <v>30.639093111111201</v>
+      </c>
+      <c r="E27">
+        <v>5.5050266666666703</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F28" si="5">$F$10*B27</f>
+        <v>15.37203032</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G28" si="6">F27^3</f>
+        <v>3632.4002525914034</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H28" si="7">$B$8/G27/(1E-24)</f>
+        <v>1.9047680648805094</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1.02</v>
+      </c>
+      <c r="C28">
+        <v>-571.20458736444505</v>
+      </c>
+      <c r="D28">
+        <v>30.532009777777802</v>
+      </c>
+      <c r="E28">
+        <v>3.1602222222222198</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>15.52422864</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>3741.365103258192</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
+        <v>1.849292920911314</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1.03</v>
+      </c>
+      <c r="C29">
+        <v>-569.77942082222296</v>
+      </c>
+      <c r="D29">
+        <v>31.010850666666698</v>
+      </c>
+      <c r="E29">
+        <v>1.5358799999999999</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F30" si="8">$F$10*B29</f>
+        <v>15.676426960000001</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G30" si="9">F29^3</f>
+        <v>3852.4876039268588</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H30" si="10">$B$8/G29/(1E-24)</f>
+        <v>1.7959512687198669</v>
+      </c>
+      <c r="I29">
+        <v>3889.7835771083369</v>
+      </c>
+      <c r="J29">
+        <f>I29^(1/3)</f>
+        <v>15.72685247007815</v>
+      </c>
+      <c r="K29">
+        <f>$B$8/(I29*(10^-24))</f>
+        <v>1.7787313517179</v>
+      </c>
+      <c r="L29">
+        <v>-569.13862040467427</v>
+      </c>
+      <c r="M29">
+        <f>L29/L31</f>
+        <v>-5.6913862040467427</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1.04</v>
+      </c>
+      <c r="C30">
+        <v>-567.82604233111101</v>
+      </c>
+      <c r="D30">
+        <v>31.350301111111101</v>
+      </c>
+      <c r="E30">
+        <v>-1.5702866666666599</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="8"/>
+        <v>15.828625280000001</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="9"/>
+        <v>3965.7889080287964</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="10"/>
+        <v>1.7446415228991712</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>0.99</v>
+      </c>
+      <c r="C36">
+        <v>-577.37128468000003</v>
+      </c>
+      <c r="D36">
+        <v>29.219238222222199</v>
+      </c>
+      <c r="E36">
+        <v>11.9336511111111</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:F41" si="11">$F$10*B36</f>
+        <v>15.06763368</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36" si="12">F36^3</f>
+        <v>3420.8588875379</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H41" si="13">$B$8/G36/(1E-24)</f>
+        <v>2.0225563893340652</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>-577.20431783111098</v>
+      </c>
+      <c r="D37">
+        <v>28.048759555555598</v>
+      </c>
+      <c r="E37">
+        <v>6.8639311111111203</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="11"/>
+        <v>15.219832</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37" si="14">F37^3</f>
+        <v>3525.5718984951031</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="13"/>
+        <v>1.9624844420144538</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1.01</v>
+      </c>
+      <c r="C38">
+        <v>-576.05313280444398</v>
+      </c>
+      <c r="D38">
+        <v>28.318164222222201</v>
+      </c>
+      <c r="E38">
+        <v>3.2460844444444499</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="11"/>
+        <v>15.37203032</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38" si="15">F38^3</f>
+        <v>3632.4002525914034</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="13"/>
+        <v>1.9047680648805094</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1.02</v>
+      </c>
+      <c r="C39">
+        <v>-574.52211748888897</v>
+      </c>
+      <c r="D39">
+        <v>28.503266888888898</v>
+      </c>
+      <c r="E39">
+        <v>1.23244222222222</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="11"/>
+        <v>15.52422864</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39:G41" si="16">F39^3</f>
+        <v>3741.365103258192</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="13"/>
+        <v>1.849292920911314</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1.03</v>
+      </c>
+      <c r="C40">
+        <v>-572.10804927555603</v>
+      </c>
+      <c r="D40">
+        <v>29.047026444444398</v>
+      </c>
+      <c r="E40">
+        <v>-0.59429111111111099</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="11"/>
+        <v>15.676426960000001</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="16"/>
+        <v>3852.4876039268588</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="13"/>
+        <v>1.7959512687198669</v>
+      </c>
+      <c r="I40">
+        <v>3801.5715028103737</v>
+      </c>
+      <c r="J40">
+        <f>I40^(1/3)</f>
+        <v>15.607058364643303</v>
+      </c>
+      <c r="K40">
+        <f>$B$8/(I40*(10^-24))</f>
+        <v>1.8200052254403489</v>
+      </c>
+      <c r="L40">
+        <v>-574.34510815000635</v>
+      </c>
+      <c r="M40">
+        <f>L40/L42</f>
+        <v>-5.7434510815000639</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1.04</v>
+      </c>
+      <c r="C41">
+        <v>-571.76621971333304</v>
+      </c>
+      <c r="D41">
+        <v>28.821165333333301</v>
+      </c>
+      <c r="E41">
+        <v>-2.9444666666666701</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="11"/>
+        <v>15.828625280000001</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="16"/>
+        <v>3965.7889080287964</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="13"/>
+        <v>1.7446415228991712</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>0.98</v>
+      </c>
+      <c r="C47">
+        <v>-582.12998193555495</v>
+      </c>
+      <c r="D47">
+        <v>26.330314222222199</v>
+      </c>
+      <c r="E47">
+        <v>13.0386977777778</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47:F51" si="17">$F$10*B47</f>
+        <v>14.91543536</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ref="G47:G51" si="18">F47^3</f>
+        <v>3318.2400662884033</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ref="H47:H51" si="19">$B$8/G47/(1E-24)</f>
+        <v>2.0851053154026529</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>0.99</v>
+      </c>
+      <c r="C48">
+        <v>-580.98569705555497</v>
+      </c>
+      <c r="D48">
+        <v>26.6679733333333</v>
+      </c>
+      <c r="E48">
+        <v>8.4002733333333399</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="17"/>
+        <v>15.06763368</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="18"/>
+        <v>3420.8588875379</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="19"/>
+        <v>2.0225563893340652</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>-579.41526408666596</v>
+      </c>
+      <c r="D49">
+        <v>26.4219093333333</v>
+      </c>
+      <c r="E49">
+        <v>5.52946000000001</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="17"/>
+        <v>15.219832</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="18"/>
+        <v>3525.5718984951031</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="19"/>
+        <v>1.9624844420144538</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>1.01</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="17"/>
+        <v>15.37203032</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="18"/>
+        <v>3632.4002525914034</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="19"/>
+        <v>1.9047680648805094</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>1.02</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="17"/>
+        <v>15.52422864</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="18"/>
+        <v>3741.365103258192</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="19"/>
+        <v>1.849292920911314</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <f>I52^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K52" t="e">
+        <f>$B$8/(I52*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M52">
+        <f>L52/L54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K54" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350EA8ED-C68E-1740-8FFB-D44F1BF7B044}">
+  <dimension ref="B2:M59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <f>649+273</f>
+        <v>922</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6:L6">LINEST(E55:E59,G55:G59^{1,2})</f>
+        <v>9.9801290494255917E-5</v>
+      </c>
+      <c r="K6">
+        <v>-0.5901879536711151</v>
+      </c>
+      <c r="L6">
+        <v>869.8654378069333</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>3120.4689140637629</v>
+      </c>
+      <c r="L7">
+        <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>2793.1615685509228</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -9648,14 +9831,14 @@
         <v>19</v>
       </c>
       <c r="J10" cm="1">
-        <f t="array" ref="J10:L10">LINEST(E15:E21,C15:C21^{1,2})</f>
-        <v>4.6366639435798704E-2</v>
+        <f t="array" ref="J10:L10">LINEST(E55:E59,C55:C59^{1,2})</f>
+        <v>0.57548097344653126</v>
       </c>
       <c r="K10">
-        <v>52.897923901410145</v>
+        <v>702.99757976403544</v>
       </c>
       <c r="L10">
-        <v>15046.93156106451</v>
+        <v>214690.14490644701</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -9664,11 +9847,11 @@
       </c>
       <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-540.92283626503956</v>
+        <v>-608.80572959475307</v>
       </c>
       <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-599.93888123456372</v>
+        <v>-612.7769329106859</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -9971,6 +10154,15 @@
       <c r="B28">
         <v>0.98</v>
       </c>
+      <c r="C28">
+        <v>-608.01367921555504</v>
+      </c>
+      <c r="D28">
+        <v>30.313863777777801</v>
+      </c>
+      <c r="E28">
+        <v>10.3972822222222</v>
+      </c>
       <c r="F28">
         <f t="shared" ref="F28:F29" si="9">$F$10*B28</f>
         <v>13.915999999999999</v>
@@ -10035,6 +10227,24 @@
         <f>$B$8/G30/(1E-24)</f>
         <v>1.8691238883409569</v>
       </c>
+      <c r="I30">
+        <v>2946.3339069687959</v>
+      </c>
+      <c r="J30">
+        <f>I30^(1/3)</f>
+        <v>14.335977847981111</v>
+      </c>
+      <c r="K30">
+        <f>$B$8/(I30*(10^-24))</f>
+        <v>1.8164404201918856</v>
+      </c>
+      <c r="L30">
+        <v>-603.4155077534798</v>
+      </c>
+      <c r="M30">
+        <f>L30/L32</f>
+        <v>-6.0341550775347983</v>
+      </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31">
@@ -10087,6 +10297,12 @@
         <f t="shared" ref="H32:H33" si="15">$B$8/G32/(1E-24)</f>
         <v>1.8141532312799433</v>
       </c>
+      <c r="K32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33">
@@ -10114,28 +10330,6 @@
         <v>1.7874749378277586</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J34">
-        <f>I34^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" t="e">
-        <f>$B$8/(I34*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34">
-        <f>L34/L36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>100</v>
-      </c>
-    </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>1100</v>
@@ -10258,11 +10452,38 @@
         <f t="shared" si="18"/>
         <v>1.9263380549098332</v>
       </c>
+      <c r="I43">
+        <v>2855.181474684136</v>
+      </c>
+      <c r="J43">
+        <f>I43^(1/3)</f>
+        <v>14.186586345706584</v>
+      </c>
+      <c r="K43">
+        <f>$B$8/(I43*(10^-24))</f>
+        <v>1.8744307664689035</v>
+      </c>
+      <c r="L43">
+        <v>-608.42168929998456</v>
+      </c>
+      <c r="M43">
+        <f>L43/L45</f>
+        <v>-6.0842168929998452</v>
+      </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>0.995</v>
       </c>
+      <c r="C44">
+        <v>-609.02992016888902</v>
+      </c>
+      <c r="D44">
+        <v>28.1835846666667</v>
+      </c>
+      <c r="E44">
+        <v>1.98709111111111</v>
+      </c>
       <c r="F44">
         <f t="shared" ref="F44" si="19">$F$10*B44</f>
         <v>14.129</v>
@@ -10301,11 +10522,26 @@
         <f>$B$8/G45/(1E-24)</f>
         <v>1.8691238883409569</v>
       </c>
+      <c r="K45" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>1.0049999999999999</v>
       </c>
+      <c r="C46">
+        <v>-606.61852787333203</v>
+      </c>
+      <c r="D46">
+        <v>28.602032666666702</v>
+      </c>
+      <c r="E46">
+        <v>-1.9364044444444399</v>
+      </c>
       <c r="F46">
         <f t="shared" ref="F46" si="23">$F$10*B46</f>
         <v>14.270999999999997</v>
@@ -10319,28 +10555,6 @@
         <v>1.8413650795954215</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J48">
-        <f>I48^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K48" t="e">
-        <f>$B$8/(I48*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M48">
-        <f>L48/L50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K50" t="s">
-        <v>3</v>
-      </c>
-      <c r="L50">
-        <v>100</v>
-      </c>
-    </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>1000</v>
@@ -10463,6 +10677,24 @@
         <f t="shared" si="26"/>
         <v>1.9859113638247634</v>
       </c>
+      <c r="I57">
+        <v>2793.1615685509228</v>
+      </c>
+      <c r="J57">
+        <f>I57^(1/3)</f>
+        <v>14.083113712691549</v>
+      </c>
+      <c r="K57">
+        <f>$B$8/(I57*(10^-24))</f>
+        <v>1.9160509940627979</v>
+      </c>
+      <c r="L57">
+        <v>-612.7769329106859</v>
+      </c>
+      <c r="M57">
+        <f>L57/L59</f>
+        <v>-6.1277693291068589</v>
+      </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58">
@@ -10494,6 +10726,15 @@
       <c r="B59">
         <v>1</v>
       </c>
+      <c r="C59">
+        <v>-611.62423735555603</v>
+      </c>
+      <c r="D59">
+        <v>25.826231111111099</v>
+      </c>
+      <c r="E59">
+        <v>-1.6362977777777801</v>
+      </c>
       <c r="F59">
         <f t="shared" si="27"/>
         <v>14.2</v>
@@ -10505,6 +10746,12 @@
       <c r="H59">
         <f t="shared" si="26"/>
         <v>1.8691238883409569</v>
+      </c>
+      <c r="K59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -13375,7 +13622,7 @@
   <dimension ref="A2:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13506,11 +13753,41 @@
       <c r="B14">
         <v>1300</v>
       </c>
+      <c r="C14">
+        <v>4019.971805275663</v>
+      </c>
+      <c r="D14">
+        <v>15.90038605826029</v>
+      </c>
+      <c r="E14">
+        <v>1.7211264991759188</v>
+      </c>
+      <c r="F14">
+        <v>-564.64361550591661</v>
+      </c>
+      <c r="G14">
+        <v>-5.646436155059166</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>1200</v>
       </c>
+      <c r="C15">
+        <v>3889.7835771083369</v>
+      </c>
+      <c r="D15">
+        <v>15.72685247007815</v>
+      </c>
+      <c r="E15">
+        <v>1.7787313517179</v>
+      </c>
+      <c r="F15">
+        <v>-569.13862040467427</v>
+      </c>
+      <c r="G15">
+        <v>-5.6913862040467427</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16">
@@ -13548,20 +13825,80 @@
       <c r="B21">
         <v>1300</v>
       </c>
+      <c r="C21">
+        <v>3003.0360193911124</v>
+      </c>
+      <c r="D21">
+        <v>14.427359282409711</v>
+      </c>
+      <c r="E21">
+        <v>1.7821431263036014</v>
+      </c>
+      <c r="F21">
+        <v>-599.93888123456372</v>
+      </c>
+      <c r="G21">
+        <v>-5.9993888123456376</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>1200</v>
       </c>
+      <c r="C22">
+        <v>2946.3339069687959</v>
+      </c>
+      <c r="D22">
+        <v>14.335977847981111</v>
+      </c>
+      <c r="E22">
+        <v>1.8164404201918856</v>
+      </c>
+      <c r="F22">
+        <v>-603.4155077534798</v>
+      </c>
+      <c r="G22">
+        <v>-6.0341550775347983</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>1100</v>
       </c>
+      <c r="C23">
+        <v>2855.181474684136</v>
+      </c>
+      <c r="D23">
+        <v>14.186586345706584</v>
+      </c>
+      <c r="E23">
+        <v>1.8744307664689035</v>
+      </c>
+      <c r="F23">
+        <v>-608.42168929998456</v>
+      </c>
+      <c r="G23">
+        <v>-6.0842168929998452</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>1000</v>
+      </c>
+      <c r="C24">
+        <v>2793.1615685509228</v>
+      </c>
+      <c r="D24">
+        <v>14.083113712691549</v>
+      </c>
+      <c r="E24">
+        <v>1.9160509940627979</v>
+      </c>
+      <c r="F24">
+        <v>-612.7769329106859</v>
+      </c>
+      <c r="G24">
+        <v>-6.1277693291068589</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">

--- a/SALT/FLiNaK.xlsx
+++ b/SALT/FLiNaK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA9CF62-5494-F144-8762-18369A7E0894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3E8B8F-465A-0F49-9719-916BEE1BE69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="24520" windowHeight="15800" activeTab="2" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
+    <workbookView xWindow="1980" yWindow="5960" windowWidth="24520" windowHeight="15800" activeTab="7" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6912,8 +6912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9421297F-EE29-D84C-B613-95A487D5F335}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7675,10 +7675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C7C49-F970-6D42-8577-7333C5E83B75}">
-  <dimension ref="B2:M60"/>
+  <dimension ref="B2:M57"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I54" activeCellId="1" sqref="I43:M43 I54:M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7724,14 +7724,14 @@
         <v>19</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6:L6">LINEST(E15:E21,G15:G21^{1,2})</f>
-        <v>2.0958668409122747E-5</v>
+        <f t="array" ref="J6:L6">LINEST(E51:E56,G51:G56^{1,2})</f>
+        <v>1.4180333540833451E-5</v>
       </c>
       <c r="K6">
-        <v>-0.2076496942600852</v>
+        <v>-0.14232497475343528</v>
       </c>
       <c r="L6">
-        <v>513.53327894582867</v>
+        <v>351.23046263295288</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -7743,11 +7743,11 @@
       </c>
       <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>5148.334932977702</v>
+        <v>5662.9280360097755</v>
       </c>
       <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>4759.2455586197912</v>
+        <v>4373.8580765029283</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -7780,14 +7780,14 @@
         <v>19</v>
       </c>
       <c r="J10" cm="1">
-        <f t="array" ref="J10:L10">LINEST(E15:E21,C15:C21^{1,2})</f>
-        <v>0.26668451380400843</v>
+        <f t="array" ref="J10:L10">LINEST(E51:E56,C51:C56^{1,2})</f>
+        <v>0.12268920470232719</v>
       </c>
       <c r="K10">
-        <v>231.36841691730734</v>
+        <v>108.57431710615796</v>
       </c>
       <c r="L10">
-        <v>50182.043241358362</v>
+        <v>24017.369513160738</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -7796,11 +7796,11 @@
       </c>
       <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-432.85093988051312</v>
+        <v>-437.17210787773035</v>
       </c>
       <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-434.72255967163721</v>
+        <v>-447.78201151349674</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -8657,6 +8657,45 @@
       <c r="B54">
         <v>1.0049999999999999</v>
       </c>
+      <c r="C54">
+        <v>-448.60718754888899</v>
+      </c>
+      <c r="D54">
+        <v>25.934343111111101</v>
+      </c>
+      <c r="E54">
+        <v>1.0780777777777799</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54" si="28">$F$10*B54</f>
+        <v>16.280999999999999</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ref="G54" si="29">F54^3</f>
+        <v>4315.6203160409987</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ref="H54" si="30">$B$8/G54/(1E-24)</f>
+        <v>1.9847899890919476</v>
+      </c>
+      <c r="I54">
+        <v>4373.8580765029283</v>
+      </c>
+      <c r="J54">
+        <f>I54^(1/3)</f>
+        <v>16.353908452842841</v>
+      </c>
+      <c r="K54">
+        <f>$B$8/(I54*(10^-24))</f>
+        <v>1.9583625829141065</v>
+      </c>
+      <c r="L54">
+        <v>-447.78201151349674</v>
+      </c>
+      <c r="M54">
+        <f>L54/L56</f>
+        <v>-4.4778201151349677</v>
+      </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55">
@@ -8688,6 +8727,15 @@
       <c r="B56">
         <v>1.0149999999999999</v>
       </c>
+      <c r="C56">
+        <v>-446.52716267333398</v>
+      </c>
+      <c r="D56">
+        <v>25.576496666666699</v>
+      </c>
+      <c r="E56">
+        <v>-1.0474688888888899</v>
+      </c>
       <c r="F56">
         <f t="shared" si="25"/>
         <v>16.442999999999998</v>
@@ -8700,6 +8748,12 @@
         <f t="shared" si="27"/>
         <v>1.9267023154000458</v>
       </c>
+      <c r="K56" t="s">
+        <v>3</v>
+      </c>
+      <c r="L56">
+        <v>100</v>
+      </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57">
@@ -8725,28 +8779,6 @@
       <c r="H57">
         <f t="shared" si="27"/>
         <v>1.8985071223325269</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J58">
-        <f>I58^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K58" t="e">
-        <f>$B$8/(I58*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M58">
-        <f>L58/L60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K60" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -8758,8 +8790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EB486-C215-BA4A-94EA-40A0116C6EBC}">
   <dimension ref="B2:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I52" activeCellId="1" sqref="I40:M40 I52:M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8805,14 +8837,14 @@
         <v>19</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6:L6">LINEST(E36:E41,G36:G41^{1,2})</f>
-        <v>3.3164269407921288E-5</v>
+        <f t="array" ref="J6:L6">LINEST(E47:E51,G47:G51^{1,2})</f>
+        <v>4.3423135747240186E-6</v>
       </c>
       <c r="K6">
-        <v>-0.27078314729150632</v>
+        <v>-6.4665668157920214E-2</v>
       </c>
       <c r="L6">
-        <v>549.7556426612939</v>
+        <v>179.47114827635124</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -8824,11 +8856,11 @@
       </c>
       <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>4381.9158391211058</v>
+        <v>11202.59158059838</v>
       </c>
       <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>3782.990312160784</v>
+        <v>3689.3933129684369</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -8862,14 +8894,14 @@
         <v>19</v>
       </c>
       <c r="J10" cm="1">
-        <f t="array" ref="J10:L10">LINEST(E36:E41,C36:C41^{1,2})</f>
-        <v>0.43500253783683263</v>
+        <f t="array" ref="J10:L10">LINEST(E47:E51,C47:C51^{1,2})</f>
+        <v>-0.12006628288820352</v>
       </c>
       <c r="K10">
-        <v>497.86292802093669</v>
+        <v>-142.11609518094775</v>
       </c>
       <c r="L10">
-        <v>142449.92599700615</v>
+        <v>-42030.111633220477</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -8878,11 +8910,11 @@
       </c>
       <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-570.20390138422192</v>
+        <v>-605.87625582581109</v>
       </c>
       <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-574.30189965476586</v>
+        <v>-577.77074116896824</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -9667,6 +9699,15 @@
       <c r="B50">
         <v>1.01</v>
       </c>
+      <c r="C50">
+        <v>-578.10084370444395</v>
+      </c>
+      <c r="D50">
+        <v>26.262872444444401</v>
+      </c>
+      <c r="E50">
+        <v>2.4314911111111099</v>
+      </c>
       <c r="F50">
         <f t="shared" si="17"/>
         <v>15.37203032</v>
@@ -9684,6 +9725,15 @@
       <c r="B51">
         <v>1.02</v>
       </c>
+      <c r="C51">
+        <v>-577.49761692666698</v>
+      </c>
+      <c r="D51">
+        <v>25.866488</v>
+      </c>
+      <c r="E51">
+        <v>-1.9682200000000001</v>
+      </c>
       <c r="F51">
         <f t="shared" si="17"/>
         <v>15.52422864</v>
@@ -9698,17 +9748,23 @@
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>3689.3933129684369</v>
+      </c>
       <c r="J52">
         <f>I52^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K52" t="e">
+        <v>15.452010173988201</v>
+      </c>
+      <c r="K52">
         <f>$B$8/(I52*(10^-24))</f>
-        <v>#DIV/0!</v>
+        <v>1.8753435627694464</v>
+      </c>
+      <c r="L52">
+        <v>-577.77074116896824</v>
       </c>
       <c r="M52">
         <f>L52/L54</f>
-        <v>0</v>
+        <v>-5.7777074116896827</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.2">
@@ -13621,8 +13677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418B7CB-32AB-6A4E-A2B4-00CC08061BC5}">
   <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13726,6 +13782,21 @@
       <c r="B10">
         <v>1000</v>
       </c>
+      <c r="C10">
+        <v>4373.8580765029283</v>
+      </c>
+      <c r="D10">
+        <v>16.353908452842841</v>
+      </c>
+      <c r="E10">
+        <v>1.9583625829141065</v>
+      </c>
+      <c r="F10">
+        <v>-447.78201151349674</v>
+      </c>
+      <c r="G10">
+        <v>-4.4778201151349677</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -13793,10 +13864,40 @@
       <c r="B16">
         <v>1100</v>
       </c>
+      <c r="C16">
+        <v>3801.5715028103737</v>
+      </c>
+      <c r="D16">
+        <v>15.607058364643303</v>
+      </c>
+      <c r="E16">
+        <v>1.8200052254403489</v>
+      </c>
+      <c r="F16">
+        <v>-574.34510815000635</v>
+      </c>
+      <c r="G16">
+        <v>-5.7434510815000639</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>1000</v>
+      </c>
+      <c r="C17">
+        <v>3689.3933129684369</v>
+      </c>
+      <c r="D17">
+        <v>15.452010173988201</v>
+      </c>
+      <c r="E17">
+        <v>1.8753435627694464</v>
+      </c>
+      <c r="F17">
+        <v>-577.77074116896824</v>
+      </c>
+      <c r="G17">
+        <v>-5.7777074116896827</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">

--- a/SALT/FLiNaK.xlsx
+++ b/SALT/FLiNaK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3E8B8F-465A-0F49-9719-916BEE1BE69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EEC8C4-002E-604A-BC96-5EE7A453135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="5960" windowWidth="24520" windowHeight="15800" activeTab="7" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -255,6 +255,592 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'51.0.49'!$G$15:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3525.5718984951031</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3632.4002525914034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3741.365103258192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3852.4876039268588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3965.7889080287964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4081.2901689953947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'51.0.49'!$E$15:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.4579511111111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3188555555555599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1836311111111097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6485644444444398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53318666666666703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.77076444444444503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7936-B846-AF07-82C29DC0F724}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="675668176"/>
+        <c:axId val="676050448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="675668176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676050448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="676050448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675668176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'51.0.49'!$C$15:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-569.64009864666605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-569.12074164222201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-567.58927564222199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-566.57734213777803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-565.42472985777795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-563.51811899999905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'51.0.49'!$E$15:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.4579511111111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3188555555555599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1836311111111097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6485644444444398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53318666666666703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.77076444444444503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00AD-9C46-8675-3FA0A523C2F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="675668176"/>
+        <c:axId val="676050448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="675668176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676050448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="676050448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675668176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -553,7 +1139,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -855,7 +1441,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1169,7 +1755,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1483,7 +2069,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1809,7 +2395,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2135,7 +2721,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2723,6 +3309,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6335,7 +7001,1118 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08A5E46-F3A2-D9A3-86AA-A47FB3DA2ED7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D292430-D4BF-BC4C-86BD-0EC81470BB32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6414,7 +8191,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6493,7 +8270,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6572,7 +8349,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8790,8 +10567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EB486-C215-BA4A-94EA-40A0116C6EBC}">
   <dimension ref="B2:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I52" activeCellId="1" sqref="I40:M40 I52:M52"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9777,6 +11554,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13677,7 +15455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2418B7CB-32AB-6A4E-A2B4-00CC08061BC5}">
   <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>

--- a/SALT/FLiNaK.xlsx
+++ b/SALT/FLiNaK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EEC8C4-002E-604A-BC96-5EE7A453135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EA3524-0C23-9743-8BF6-575E292AD509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="5960" windowWidth="24520" windowHeight="15800" activeTab="7" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
   </bookViews>

--- a/SALT/FLiNaK.xlsx
+++ b/SALT/FLiNaK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EA3524-0C23-9743-8BF6-575E292AD509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504EBCC5-4D65-964C-BA35-D2FA35882CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="5960" windowWidth="24520" windowHeight="15800" activeTab="7" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
+    <workbookView xWindow="2120" yWindow="4760" windowWidth="26380" windowHeight="19240" activeTab="7" xr2:uid="{C785E486-1DB4-8A46-83F7-ABDAF5E9968D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8689,7 +8689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9421297F-EE29-D84C-B613-95A487D5F335}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -11563,7 +11563,7 @@
   <dimension ref="B2:M59"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15456,7 +15456,7 @@
   <dimension ref="A2:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15822,7 +15822,7 @@
         <v>-691.54626535596321</v>
       </c>
       <c r="G28">
-        <v>-6.915462653559632</v>
+        <v>-6.9154626535596302</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
